--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Communicate about tester and developer</t>
   </si>
   <si>
-    <t>pass k du testcase</t>
-  </si>
-  <si>
     <t>Team members have to focus on semester (I,II)</t>
   </si>
   <si>
@@ -271,6 +268,57 @@
   </si>
   <si>
     <t>Huynh Trong Khang</t>
+  </si>
+  <si>
+    <t>Member lack of experience use tool to test phase</t>
+  </si>
+  <si>
+    <t>Can't understand between tester and developer</t>
+  </si>
+  <si>
+    <t>test case pass not enough</t>
+  </si>
+  <si>
+    <t>members of team no focus on capstone project because they must prepare for final subjects</t>
+  </si>
+  <si>
+    <t>members can't understand together</t>
+  </si>
+  <si>
+    <t>focus too deep on high level requirement</t>
+  </si>
+  <si>
+    <t>identified</t>
+  </si>
+  <si>
+    <t>analys complete</t>
+  </si>
+  <si>
+    <t>planning complete</t>
+  </si>
+  <si>
+    <t>triggered</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>Triggered</t>
+  </si>
+  <si>
+    <t>define risk</t>
+  </si>
+  <si>
+    <t>descrie risk</t>
+  </si>
+  <si>
+    <t>risk wae mitgate</t>
+  </si>
+  <si>
+    <t>planning for control risk</t>
+  </si>
+  <si>
+    <t>risk was analys</t>
   </si>
 </sst>
 </file>
@@ -368,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -555,15 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -699,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,7 +749,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -727,7 +765,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,7 +772,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +788,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,7 +797,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,21 +815,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,17 +844,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,6 +871,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,9 +1205,9 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24" style="60" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="60" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
@@ -1174,862 +1220,912 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="50"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="75.75">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="14">
         <v>41317</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>AVERAGE(80+80+80+60+60+40)/600</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>AVERAGE(90+90+85+90+80+85)/600</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>G3*H3</f>
         <v>0.57777777777777772</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="15"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="45.75">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="14">
         <v>41317</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="15">
         <f>AVERAGE(25+20+30+20+40+29)/600</f>
         <v>0.27333333333333332</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" ref="H4" si="0">AVERAGE(90+90+85+90+80+85)/600</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" ref="I4" si="1">G4*H4</f>
         <v>0.23688888888888887</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="18"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="60.75">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="14">
         <v>41317</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
+      <c r="F5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="18"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="45.75">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="14">
         <v>41317</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
+      <c r="F6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="18"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="14">
         <v>41317</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="18"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="30.75">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="14">
         <v>41317</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
+      <c r="F8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="18"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="30.75">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="14">
         <v>41317</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
+      <c r="F9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="18"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="30.75">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="14">
         <v>41317</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
+      <c r="F10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="18"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="45.75">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="14">
         <v>41317</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
+      <c r="F11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="18"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" ht="45.75">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="14">
         <v>41317</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="F12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="18"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" ht="15.75">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="14">
         <v>41317</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="F13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="18"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="45.75">
-      <c r="A14" s="53">
+      <c r="A14" s="51">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="14">
         <v>41376</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="18"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="30.75">
-      <c r="A15" s="53">
+      <c r="A15" s="51">
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="14">
         <v>41376</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15.75">
-      <c r="A16" s="53">
+      <c r="A16" s="51">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="14">
         <v>41376</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
+      <c r="F16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="45.75">
-      <c r="A17" s="53">
+      <c r="A17" s="51">
         <v>16</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="14">
         <v>41376</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
+      <c r="F17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="30.75">
-      <c r="A18" s="53">
+      <c r="A18" s="51">
         <v>17</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="C18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="14">
         <v>41376</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
+      <c r="F18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="18"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" ht="30.75">
-      <c r="A19" s="53">
+      <c r="A19" s="51">
         <v>18</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="C19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="14">
         <v>41376</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
+      <c r="F19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="18"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" ht="30.75">
-      <c r="A20" s="53">
+      <c r="A20" s="51">
         <v>19</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="B20" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="14">
         <v>41376</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
+      <c r="F20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75">
-      <c r="A21" s="53">
+    <row r="21" spans="1:17" ht="45.75">
+      <c r="A21" s="51">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="B21" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="14">
         <v>41376</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
+      <c r="F21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="18"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75">
-      <c r="A22" s="53">
+    <row r="22" spans="1:17" ht="30.75">
+      <c r="A22" s="51">
         <v>21</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="B22" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="14">
         <v>41376</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
+      <c r="F22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="18"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" ht="30.75">
-      <c r="A23" s="53">
+      <c r="A23" s="51">
         <v>22</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="B23" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="14">
         <v>41376</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
+      <c r="F23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" ht="15.75">
-      <c r="A24" s="53">
+      <c r="A24" s="51">
         <v>23</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="B24" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="14">
         <v>41376</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
+      <c r="F24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="18"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75">
-      <c r="A25" s="53">
+    <row r="25" spans="1:17" ht="30.75">
+      <c r="A25" s="51">
         <v>24</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="B25" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="14">
         <v>41376</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
+      <c r="F25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="18"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" ht="30.75">
-      <c r="A26" s="53">
+      <c r="A26" s="51">
         <v>25</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="B26" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="14">
         <v>41376</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
+      <c r="F26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="18"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" ht="15.75">
-      <c r="A27" s="53">
+      <c r="A27" s="51">
         <v>26</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="14">
+        <v>41376</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="15">
-        <v>41376</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="18"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
       <c r="N28" s="8"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2037,18 +2133,18 @@
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -2056,18 +2152,18 @@
     </row>
     <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="3"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
       <c r="N30" s="8"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2075,18 +2171,18 @@
     </row>
     <row r="31" spans="1:17" ht="15.75">
       <c r="A31" s="6"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="61"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="26"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="8"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -2099,7 +2195,7 @@
       <c r="B33" s="9"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
@@ -2107,7 +2203,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
@@ -2115,7 +2211,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C36" t="s">
@@ -2123,22 +2219,50 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="9"/>
+      <c r="B37" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="9"/>
+      <c r="B38" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="9"/>
+      <c r="B39" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="10"/>
+      <c r="B40" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:L16">
     <sortCondition sortBy="cellColor" ref="F3" dxfId="0"/>
   </sortState>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F31 F4:F17">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
@@ -2151,8 +2275,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K31">
       <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N31">
       <formula1>"Identified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
+      <formula1>"avoid,accept,mitigate,dentified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="risk management" sheetId="1" r:id="rId1"/>
-    <sheet name="status" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="risk priority (probability)" sheetId="2" r:id="rId2"/>
+    <sheet name="risk priority (impact)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">'risk management'!$L$4</definedName>
-    <definedName name="Mung">'risk management'!$F$3:$F$4</definedName>
+    <definedName name="_GoBack" localSheetId="0">'risk management'!$L$3</definedName>
+    <definedName name="Mung">'risk management'!$F$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Mitigation methods</t>
-  </si>
-  <si>
-    <t>Requirements are misunderstood</t>
   </si>
   <si>
     <t>Time is not enough for project development</t>
@@ -169,14 +166,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No have a specific plan
-No meet customer regularly to review product backlog &amp; architectural drivers
-</t>
-  </si>
-  <si>
-    <t>requirement</t>
-  </si>
-  <si>
     <t xml:space="preserve">A lots defect in architecture phase </t>
   </si>
   <si>
@@ -319,6 +308,27 @@
   </si>
   <si>
     <t>risk was analys</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đạo</t>
+  </si>
+  <si>
+    <t>Q.Huy</t>
+  </si>
+  <si>
+    <t>X.Huy</t>
+  </si>
+  <si>
+    <t>Khang</t>
+  </si>
+  <si>
+    <t>Phú</t>
   </si>
 </sst>
 </file>
@@ -416,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -579,21 +589,6 @@
       <right style="dashed">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -738,13 +733,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -753,16 +747,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -772,7 +763,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,7 +779,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -797,7 +788,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,21 +806,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -844,17 +835,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,6 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1205,9 +1196,9 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" style="60" customWidth="1"/>
+    <col min="4" max="4" width="24" style="57" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="57" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
@@ -1220,982 +1211,948 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="40" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="50"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:17" ht="75.75">
-      <c r="A3" s="18">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="45.75">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="12">
         <v>41317</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="15">
-        <f>AVERAGE(80+80+80+60+60+40)/600</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H3" s="15">
-        <f>AVERAGE(90+90+85+90+80+85)/600</f>
+      <c r="F3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGE(25+20+30+20+40+29)/600</f>
+        <v>0.27333333333333332</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3" si="0">AVERAGE(90+90+85+90+80+85)/600</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I3" s="15">
-        <f>G3*H3</f>
-        <v>0.57777777777777772</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="15"/>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3" si="1">G3*H3</f>
+        <v>0.23688888888888887</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="16"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="45.75">
-      <c r="A4" s="18">
+    <row r="4" spans="1:17" ht="60.75">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="45.75">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="30.75">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="30.75">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="30.75">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="45.75">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="45.75">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="12">
+        <v>41317</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="45.75">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="30.75">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="45.75">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="30.75">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="30.75">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="30.75">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="45.75">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E20" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="30.75">
+      <c r="A21" s="16">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="30.75">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="15">
-        <f>AVERAGE(25+20+30+20+40+29)/600</f>
-        <v>0.27333333333333332</v>
-      </c>
-      <c r="H4" s="15">
-        <f t="shared" ref="H4" si="0">AVERAGE(90+90+85+90+80+85)/600</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="I4" s="15">
-        <f t="shared" ref="I4" si="1">G4*H4</f>
-        <v>0.23688888888888887</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="60.75">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75">
+      <c r="A23" s="16">
+        <v>21</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E23" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" ht="30.75">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="45.75">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="30.75">
+      <c r="A25" s="16">
+        <v>23</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="E25" s="12">
+        <v>41376</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="30.75">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="30.75">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="30.75">
-      <c r="A10" s="18">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="45.75">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="45.75">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="14">
-        <v>41317</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="45.75">
-      <c r="A14" s="51">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="E26" s="12">
         <v>41376</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="30.75">
-      <c r="A15" s="51">
-        <v>14</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75">
-      <c r="A16" s="51">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="45.75">
-      <c r="A17" s="51">
-        <v>16</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" ht="30.75">
-      <c r="A18" s="51">
-        <v>17</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" ht="30.75">
-      <c r="A19" s="51">
-        <v>18</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" ht="30.75">
-      <c r="A20" s="51">
-        <v>19</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="45.75">
-      <c r="A21" s="51">
-        <v>20</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" ht="30.75">
-      <c r="A22" s="51">
-        <v>21</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" ht="30.75">
-      <c r="A23" s="51">
-        <v>22</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75">
-      <c r="A24" s="51">
-        <v>23</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" ht="30.75">
-      <c r="A25" s="51">
-        <v>24</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="F26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" ht="30.75">
-      <c r="A26" s="51">
-        <v>25</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75">
-      <c r="A27" s="51">
-        <v>26</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="14">
-        <v>41376</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="31"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1">
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="3"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="15.75">
-      <c r="A30" s="3"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75">
-      <c r="A31" s="6"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="9"/>
+      <c r="B33" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
@@ -2203,7 +2160,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
@@ -2211,75 +2168,61 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="33" t="s">
-        <v>41</v>
+      <c r="B36" s="59" t="s">
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="63" t="s">
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="62" t="s">
-        <v>88</v>
-      </c>
       <c r="C40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:L16">
     <sortCondition sortBy="cellColor" ref="F3" dxfId="0"/>
   </sortState>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F31 F4:F17">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F30 F3:F16">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Equipment,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,requirement,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K31">
-      <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N30">
       <formula1>"Identified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
-      <formula1>"avoid,accept,mitigate,dentified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K30">
+      <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,26 +2232,887 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:9">
+      <c r="C3" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="61">
+        <v>1</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61">
+        <v>40</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="61">
+        <v>2</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61">
+        <v>40</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="61">
+        <v>3</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61">
+        <v>60</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="61">
+        <v>4</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61">
+        <v>40</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="61">
+        <v>5</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61">
+        <v>30</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="61">
+        <v>6</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61">
+        <v>60</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="61">
+        <v>7</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61">
+        <v>30</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="61">
+        <v>8</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61">
+        <v>50</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="61">
+        <v>9</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61">
+        <v>30</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="61">
+        <v>10</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61">
+        <v>40</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="61">
+        <v>11</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61">
+        <v>50</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="61">
+        <v>12</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61">
+        <v>80</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="61">
+        <v>13</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61">
+        <v>80</v>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="61">
+        <v>14</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61">
+        <v>60</v>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="61">
+        <v>15</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61">
+        <v>50</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="61">
+        <v>16</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61">
+        <v>30</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="61">
+        <v>17</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61">
+        <v>50</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="61">
+        <v>18</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61">
+        <v>70</v>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="61">
+        <v>19</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61">
+        <v>60</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="61">
+        <v>20</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61">
+        <v>60</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="61">
+        <v>21</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61">
+        <v>60</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="61">
+        <v>22</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61">
+        <v>60</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="61">
+        <v>23</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61">
+        <v>50</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="61">
+        <v>24</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61">
+        <v>60</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D4:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="4:10">
+      <c r="D4" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" s="61">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61">
+        <v>80</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="61">
+        <v>2</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61">
+        <v>50</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="61">
+        <v>3</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61">
+        <v>70</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="61">
+        <v>4</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61">
+        <v>80</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="61">
+        <v>5</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61">
+        <v>80</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="61">
+        <v>6</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61">
+        <v>60</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="61">
+        <v>7</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61">
+        <v>80</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="61">
+        <v>8</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61">
+        <v>50</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="61">
+        <v>9</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61">
+        <v>70</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="61">
+        <v>10</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61">
+        <v>50</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="61">
+        <v>11</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61">
+        <v>70</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="61">
+        <v>12</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61">
+        <v>80</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="61">
+        <v>13</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61">
+        <v>40</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="61">
+        <v>14</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61">
+        <v>60</v>
+      </c>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="61">
+        <v>15</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61">
+        <v>50</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="61">
+        <v>16</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61">
+        <v>40</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="61">
+        <v>17</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61">
+        <v>50</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="61">
+        <v>18</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61">
+        <v>50</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="61">
+        <v>19</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61">
+        <v>70</v>
+      </c>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="61">
+        <v>20</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61">
+        <v>70</v>
+      </c>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="61">
+        <v>21</v>
+      </c>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61">
+        <v>50</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="61">
+        <v>22</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61">
+        <v>70</v>
+      </c>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="61">
+        <v>23</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61">
+        <v>50</v>
+      </c>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="61">
+        <v>24</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61">
+        <v>50</v>
+      </c>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="risk management" sheetId="1" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1306,16 +1306,16 @@
         <v>62</v>
       </c>
       <c r="G3" s="13">
-        <f>AVERAGE(25+20+30+20+40+29)/600</f>
-        <v>0.27333333333333332</v>
+        <f>AVERAGE('risk priority (probability)'!D4:I4)/600</f>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3" si="0">AVERAGE(90+90+85+90+80+85)/600</f>
-        <v>0.8666666666666667</v>
+        <f>AVERAGE('risk priority (impact)'!E5:J5)/600</f>
+        <v>0.13666666666666666</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3" si="1">G3*H3</f>
-        <v>0.23688888888888887</v>
+        <f t="shared" ref="I3:I26" si="0">G3*H3</f>
+        <v>1.1844444444444444E-2</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="16"/>
@@ -1347,9 +1347,18 @@
       <c r="F4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="13">
+        <f>AVERAGE('risk priority (probability)'!D5:I5)/600</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H4" s="13">
+        <f>AVERAGE('risk priority (impact)'!E6:J6)/600</f>
+        <v>0.10166666666666667</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>6.7777777777777775E-3</v>
+      </c>
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
       <c r="L4" s="19"/>
@@ -1380,9 +1389,18 @@
       <c r="F5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="13">
+        <f>AVERAGE('risk priority (probability)'!D6:I6)/600</f>
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>AVERAGE('risk priority (impact)'!E7:J7)/600</f>
+        <v>0.11166666666666666</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>9.6033333333333335E-3</v>
+      </c>
       <c r="J5" s="14"/>
       <c r="K5" s="16"/>
       <c r="L5" s="20"/>
@@ -1411,9 +1429,18 @@
         <v>41317</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="13">
+        <f>AVERAGE('risk priority (probability)'!D7:I7)/600</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>AVERAGE('risk priority (impact)'!E8:J8)/600</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2888888888888889E-2</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="16"/>
       <c r="L6" s="10"/>
@@ -1444,9 +1471,18 @@
       <c r="F7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="13">
+        <f>AVERAGE('risk priority (probability)'!D8:I8)/600</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="H7" s="13">
+        <f>AVERAGE('risk priority (impact)'!E9:J9)/600</f>
+        <v>0.12666666666666668</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0977777777777779E-2</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
       <c r="L7" s="20"/>
@@ -1477,9 +1513,18 @@
       <c r="F8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="13">
+        <f>AVERAGE('risk priority (probability)'!D9:I9)/600</f>
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="13">
+        <f>AVERAGE('risk priority (impact)'!E10:J10)/600</f>
+        <v>0.12</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
       <c r="L8" s="20"/>
@@ -1510,9 +1555,18 @@
       <c r="F9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="13">
+        <f>AVERAGE('risk priority (probability)'!D10:I10)/600</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="H9" s="13">
+        <f>AVERAGE('risk priority (impact)'!E11:J11)/600</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4250000000000002E-3</v>
+      </c>
       <c r="J9" s="13"/>
       <c r="K9" s="16"/>
       <c r="L9" s="20"/>
@@ -1543,9 +1597,18 @@
       <c r="F10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="13">
+        <f>AVERAGE('risk priority (probability)'!D11:I11)/600</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <f>AVERAGE('risk priority (impact)'!E12:J12)/600</f>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>9.7933333333333327E-3</v>
+      </c>
       <c r="J10" s="17"/>
       <c r="K10" s="16"/>
       <c r="L10" s="20"/>
@@ -1576,9 +1639,18 @@
       <c r="F11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="G11" s="13">
+        <f>AVERAGE('risk priority (probability)'!D12:I12)/600</f>
+        <v>5.1666666666666666E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <f>AVERAGE('risk priority (impact)'!E13:J13)/600</f>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>5.8555555555555548E-3</v>
+      </c>
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
       <c r="L11" s="20"/>
@@ -1609,9 +1681,18 @@
       <c r="F12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="13">
+        <f>AVERAGE('risk priority (probability)'!D13:I13)/600</f>
+        <v>0.06</v>
+      </c>
+      <c r="H12" s="13">
+        <f>AVERAGE('risk priority (impact)'!E14:J14)/600</f>
+        <v>0.10633333333333334</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>6.3800000000000003E-3</v>
+      </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
       <c r="L12" s="20"/>
@@ -1640,9 +1721,18 @@
         <v>41376</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="G13" s="13">
+        <f>AVERAGE('risk priority (probability)'!D14:I14)/600</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="H13" s="13">
+        <f>AVERAGE('risk priority (impact)'!E15:J15)/600</f>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0955555555555555E-2</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="16"/>
       <c r="L13" s="10"/>
@@ -1671,9 +1761,18 @@
         <v>41376</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="13">
+        <f>AVERAGE('risk priority (probability)'!D15:I15)/600</f>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="H14" s="13">
+        <f>AVERAGE('risk priority (impact)'!E16:J16)/600</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1022222222222223E-2</v>
+      </c>
       <c r="J14" s="17"/>
       <c r="K14" s="16"/>
       <c r="L14" s="20"/>
@@ -1704,9 +1803,18 @@
       <c r="F15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="13">
+        <f>AVERAGE('risk priority (probability)'!D16:I16)/600</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H15" s="13">
+        <f>AVERAGE('risk priority (impact)'!E17:J17)/600</f>
+        <v>0.08</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0800000000000001E-2</v>
+      </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="20"/>
@@ -1737,9 +1845,18 @@
       <c r="F16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="G16" s="13">
+        <f>AVERAGE('risk priority (probability)'!D17:I17)/600</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="H16" s="13">
+        <f>AVERAGE('risk priority (impact)'!E18:J18)/600</f>
+        <v>0.11966666666666666</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1567777777777776E-2</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="20"/>
@@ -1770,9 +1887,18 @@
       <c r="F17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="13">
+        <f>AVERAGE('risk priority (probability)'!D18:I18)/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H17" s="13">
+        <f>AVERAGE('risk priority (impact)'!E19:J19)/600</f>
+        <v>7.6666666666666661E-2</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>6.3888888888888884E-3</v>
+      </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="20"/>
@@ -1803,9 +1929,18 @@
       <c r="F18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="G18" s="13">
+        <f>AVERAGE('risk priority (probability)'!D19:I19)/600</f>
+        <v>5.6666666666666664E-2</v>
+      </c>
+      <c r="H18" s="13">
+        <f>AVERAGE('risk priority (impact)'!E20:J20)/600</f>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5888888888888889E-3</v>
+      </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="20"/>
@@ -1834,9 +1969,18 @@
       <c r="F19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="G19" s="13">
+        <f>AVERAGE('risk priority (probability)'!D20:I20)/600</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="H19" s="13">
+        <f>AVERAGE('risk priority (impact)'!E21:J21)/600</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>9.2444444444444458E-3</v>
+      </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="20"/>
@@ -1865,9 +2009,18 @@
       <c r="F20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="13">
+        <f>AVERAGE('risk priority (probability)'!D21:I21)/600</f>
+        <v>0.12</v>
+      </c>
+      <c r="H20" s="13">
+        <f>AVERAGE('risk priority (impact)'!E22:J22)/600</f>
+        <v>0.09</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0799999999999999E-2</v>
+      </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="20"/>
@@ -1898,9 +2051,18 @@
       <c r="F21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="G21" s="13">
+        <f>AVERAGE('risk priority (probability)'!D22:I22)/600</f>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="H21" s="13">
+        <f>AVERAGE('risk priority (impact)'!E23:J23)/600</f>
+        <v>0.12166666666666667</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3788888888888889E-2</v>
+      </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="20"/>
@@ -1929,9 +2091,18 @@
       <c r="F22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="G22" s="13">
+        <f>AVERAGE('risk priority (probability)'!D23:I23)/600</f>
+        <v>0.12</v>
+      </c>
+      <c r="H22" s="13">
+        <f>AVERAGE('risk priority (impact)'!E24:J24)/600</f>
+        <v>0.12</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>1.44E-2</v>
+      </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="20"/>
@@ -1958,9 +2129,18 @@
       <c r="F23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="G23" s="13">
+        <f>AVERAGE('risk priority (probability)'!D24:I24)/600</f>
+        <v>0.09</v>
+      </c>
+      <c r="H23" s="13">
+        <f>AVERAGE('risk priority (impact)'!E25:J25)/600</f>
+        <v>0.08</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999998E-3</v>
+      </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="20"/>
@@ -1987,9 +2167,18 @@
       <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="G24" s="13">
+        <f>AVERAGE('risk priority (probability)'!D25:I25)/600</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="H24" s="13">
+        <f>AVERAGE('risk priority (impact)'!E26:J26)/600</f>
+        <v>0.12833333333333333</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1122222222222223E-2</v>
+      </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="20"/>
@@ -2018,9 +2207,18 @@
       <c r="F25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="G25" s="13">
+        <f>AVERAGE('risk priority (probability)'!D26:I26)/600</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="H25" s="13">
+        <f>AVERAGE('risk priority (impact)'!E27:J27)/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777776E-3</v>
+      </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="20"/>
@@ -2049,9 +2247,18 @@
       <c r="F26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="G26" s="13">
+        <f>AVERAGE('risk priority (probability)'!D27:I27)/600</f>
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="13">
+        <f>AVERAGE('risk priority (impact)'!E28:J28)/600</f>
+        <v>0.08</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="20"/>
@@ -2211,18 +2418,15 @@
   <sortState ref="A3:L16">
     <sortCondition sortBy="cellColor" ref="F3" dxfId="0"/>
   </sortState>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F30 F3:F16">
-      <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
-      <formula1>"Scope/Requirement,Technology,Scope,Time,Equipment,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N30">
       <formula1>"Identified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K30">
       <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"Requirement,scope,time,resource,performance,estimating,communication,skills,technology"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2267,13 +2471,19 @@
       <c r="C4" s="61">
         <v>1</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="61">
+        <v>50</v>
+      </c>
       <c r="E4" s="61">
         <v>40</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="61">
+        <v>60</v>
+      </c>
       <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="H4" s="61">
+        <v>50</v>
+      </c>
       <c r="I4" s="61">
         <v>60</v>
       </c>
@@ -2282,13 +2492,19 @@
       <c r="C5" s="61">
         <v>2</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="61">
+        <v>50</v>
+      </c>
       <c r="E5" s="61">
         <v>40</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="61">
+        <v>40</v>
+      </c>
       <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="H5" s="61">
+        <v>30</v>
+      </c>
       <c r="I5" s="61">
         <v>40</v>
       </c>
@@ -2297,13 +2513,19 @@
       <c r="C6" s="61">
         <v>3</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="61">
+        <v>68</v>
+      </c>
       <c r="E6" s="61">
         <v>60</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="61">
+        <v>40</v>
+      </c>
       <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="H6" s="61">
+        <v>50</v>
+      </c>
       <c r="I6" s="61">
         <v>40</v>
       </c>
@@ -2312,13 +2534,19 @@
       <c r="C7" s="61">
         <v>4</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="61">
+        <v>70</v>
+      </c>
       <c r="E7" s="61">
         <v>40</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="61">
+        <v>60</v>
+      </c>
       <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="H7" s="61">
+        <v>60</v>
+      </c>
       <c r="I7" s="61">
         <v>60</v>
       </c>
@@ -2327,13 +2555,19 @@
       <c r="C8" s="61">
         <v>5</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="61">
+        <v>80</v>
+      </c>
       <c r="E8" s="61">
         <v>30</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="61">
+        <v>50</v>
+      </c>
       <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="H8" s="61">
+        <v>50</v>
+      </c>
       <c r="I8" s="61">
         <v>50</v>
       </c>
@@ -2342,13 +2576,19 @@
       <c r="C9" s="61">
         <v>6</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="61">
+        <v>80</v>
+      </c>
       <c r="E9" s="61">
         <v>60</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="61">
+        <v>50</v>
+      </c>
       <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="H9" s="61">
+        <v>60</v>
+      </c>
       <c r="I9" s="61">
         <v>50</v>
       </c>
@@ -2357,13 +2597,19 @@
       <c r="C10" s="61">
         <v>7</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="61">
+        <v>25</v>
+      </c>
       <c r="E10" s="61">
         <v>30</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="61">
+        <v>40</v>
+      </c>
       <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="H10" s="61">
+        <v>30</v>
+      </c>
       <c r="I10" s="61">
         <v>40</v>
       </c>
@@ -2372,13 +2618,19 @@
       <c r="C11" s="61">
         <v>8</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="61">
+        <v>60</v>
+      </c>
       <c r="E11" s="61">
         <v>50</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="61">
+        <v>50</v>
+      </c>
       <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="H11" s="61">
+        <v>50</v>
+      </c>
       <c r="I11" s="61">
         <v>50</v>
       </c>
@@ -2387,13 +2639,19 @@
       <c r="C12" s="61">
         <v>9</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="61">
+        <v>5</v>
+      </c>
       <c r="E12" s="61">
         <v>30</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="61">
+        <v>45</v>
+      </c>
       <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="61">
+        <v>30</v>
+      </c>
       <c r="I12" s="61">
         <v>45</v>
       </c>
@@ -2402,13 +2660,19 @@
       <c r="C13" s="61">
         <v>10</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="61">
+        <v>10</v>
+      </c>
       <c r="E13" s="61">
         <v>40</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="61">
+        <v>30</v>
+      </c>
       <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="H13" s="61">
+        <v>70</v>
+      </c>
       <c r="I13" s="61">
         <v>30</v>
       </c>
@@ -2417,13 +2681,19 @@
       <c r="C14" s="61">
         <v>11</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="61">
+        <v>20</v>
+      </c>
       <c r="E14" s="61">
         <v>50</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="61">
+        <v>80</v>
+      </c>
       <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="H14" s="61">
+        <v>60</v>
+      </c>
       <c r="I14" s="61">
         <v>80</v>
       </c>
@@ -2432,13 +2702,19 @@
       <c r="C15" s="61">
         <v>12</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="61">
+        <v>10</v>
+      </c>
       <c r="E15" s="61">
         <v>80</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="61">
+        <v>85</v>
+      </c>
       <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="H15" s="61">
+        <v>50</v>
+      </c>
       <c r="I15" s="61">
         <v>85</v>
       </c>
@@ -2447,13 +2723,19 @@
       <c r="C16" s="61">
         <v>13</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>85</v>
+      </c>
       <c r="E16" s="61">
         <v>80</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="61">
+        <v>80</v>
+      </c>
       <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+      <c r="H16" s="61">
+        <v>80</v>
+      </c>
       <c r="I16" s="61">
         <v>80</v>
       </c>
@@ -2462,13 +2744,19 @@
       <c r="C17" s="61">
         <v>14</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="61">
+        <v>80</v>
+      </c>
       <c r="E17" s="61">
         <v>60</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="61">
+        <v>60</v>
+      </c>
       <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+      <c r="H17" s="61">
+        <v>30</v>
+      </c>
       <c r="I17" s="61">
         <v>60</v>
       </c>
@@ -2477,13 +2765,19 @@
       <c r="C18" s="61">
         <v>15</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="61">
+        <v>30</v>
+      </c>
       <c r="E18" s="61">
         <v>50</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="61">
+        <v>70</v>
+      </c>
       <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="H18" s="61">
+        <v>30</v>
+      </c>
       <c r="I18" s="61">
         <v>70</v>
       </c>
@@ -2492,13 +2786,19 @@
       <c r="C19" s="61">
         <v>16</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="61">
+        <v>30</v>
+      </c>
       <c r="E19" s="61">
         <v>30</v>
       </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="61">
+        <v>40</v>
+      </c>
       <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="H19" s="61">
+        <v>30</v>
+      </c>
       <c r="I19" s="61">
         <v>40</v>
       </c>
@@ -2507,13 +2807,19 @@
       <c r="C20" s="61">
         <v>17</v>
       </c>
-      <c r="D20" s="61"/>
+      <c r="D20" s="61">
+        <v>50</v>
+      </c>
       <c r="E20" s="61">
         <v>50</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="61">
+        <v>80</v>
+      </c>
       <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
+      <c r="H20" s="61">
+        <v>60</v>
+      </c>
       <c r="I20" s="61">
         <v>80</v>
       </c>
@@ -2522,13 +2828,19 @@
       <c r="C21" s="61">
         <v>18</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="61">
+        <v>20</v>
+      </c>
       <c r="E21" s="61">
         <v>70</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="61">
+        <v>90</v>
+      </c>
       <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
+      <c r="H21" s="61">
+        <v>90</v>
+      </c>
       <c r="I21" s="61">
         <v>90</v>
       </c>
@@ -2537,13 +2849,19 @@
       <c r="C22" s="61">
         <v>19</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="61">
+        <v>70</v>
+      </c>
       <c r="E22" s="61">
         <v>60</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="61">
+        <v>70</v>
+      </c>
       <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
+      <c r="H22" s="61">
+        <v>70</v>
+      </c>
       <c r="I22" s="61">
         <v>70</v>
       </c>
@@ -2552,13 +2870,19 @@
       <c r="C23" s="61">
         <v>20</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="61">
+        <v>60</v>
+      </c>
       <c r="E23" s="61">
         <v>60</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="61">
+        <v>80</v>
+      </c>
       <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+      <c r="H23" s="61">
+        <v>80</v>
+      </c>
       <c r="I23" s="61">
         <v>80</v>
       </c>
@@ -2567,13 +2891,19 @@
       <c r="C24" s="61">
         <v>21</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="61">
+        <v>20</v>
+      </c>
       <c r="E24" s="61">
         <v>60</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="61">
+        <v>70</v>
+      </c>
       <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="H24" s="61">
+        <v>50</v>
+      </c>
       <c r="I24" s="61">
         <v>70</v>
       </c>
@@ -2582,13 +2912,19 @@
       <c r="C25" s="61">
         <v>22</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="61">
+        <v>40</v>
+      </c>
       <c r="E25" s="61">
         <v>60</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="61">
+        <v>65</v>
+      </c>
       <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="H25" s="61">
+        <v>30</v>
+      </c>
       <c r="I25" s="61">
         <v>65</v>
       </c>
@@ -2597,13 +2933,19 @@
       <c r="C26" s="61">
         <v>23</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="61">
+        <v>50</v>
+      </c>
       <c r="E26" s="61">
         <v>50</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="61">
+        <v>60</v>
+      </c>
       <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+      <c r="H26" s="61">
+        <v>60</v>
+      </c>
       <c r="I26" s="61">
         <v>60</v>
       </c>
@@ -2612,13 +2954,19 @@
       <c r="C27" s="61">
         <v>24</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="61">
+        <v>60</v>
+      </c>
       <c r="E27" s="61">
         <v>60</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="61">
+        <v>70</v>
+      </c>
       <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="H27" s="61">
+        <v>40</v>
+      </c>
       <c r="I27" s="61">
         <v>70</v>
       </c>
@@ -2723,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2756,13 +3104,19 @@
       <c r="D5" s="61">
         <v>1</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="61">
+        <v>90</v>
+      </c>
       <c r="F5" s="61">
         <v>80</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="61">
+        <v>80</v>
+      </c>
       <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="I5" s="61">
+        <v>80</v>
+      </c>
       <c r="J5" s="61">
         <v>80</v>
       </c>
@@ -2771,13 +3125,19 @@
       <c r="D6" s="61">
         <v>2</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="61">
+        <v>75</v>
+      </c>
       <c r="F6" s="61">
         <v>50</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="61">
+        <v>60</v>
+      </c>
       <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="61">
+        <v>60</v>
+      </c>
       <c r="J6" s="61">
         <v>60</v>
       </c>
@@ -2786,13 +3146,19 @@
       <c r="D7" s="61">
         <v>3</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="61">
+        <v>85</v>
+      </c>
       <c r="F7" s="61">
         <v>70</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="61">
+        <v>60</v>
+      </c>
       <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="I7" s="61">
+        <v>60</v>
+      </c>
       <c r="J7" s="61">
         <v>60</v>
       </c>
@@ -2801,13 +3167,19 @@
       <c r="D8" s="61">
         <v>4</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="61">
+        <v>80</v>
+      </c>
       <c r="F8" s="61">
         <v>80</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="61">
+        <v>80</v>
+      </c>
       <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+      <c r="I8" s="61">
+        <v>80</v>
+      </c>
       <c r="J8" s="61">
         <v>80</v>
       </c>
@@ -2816,13 +3188,19 @@
       <c r="D9" s="61">
         <v>5</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="61">
+        <v>70</v>
+      </c>
       <c r="F9" s="61">
         <v>80</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="61">
+        <v>70</v>
+      </c>
       <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="I9" s="61">
+        <v>70</v>
+      </c>
       <c r="J9" s="61">
         <v>90</v>
       </c>
@@ -2831,13 +3209,19 @@
       <c r="D10" s="61">
         <v>6</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E10" s="61">
+        <v>90</v>
+      </c>
       <c r="F10" s="61">
         <v>60</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="61">
+        <v>70</v>
+      </c>
       <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="I10" s="61">
+        <v>70</v>
+      </c>
       <c r="J10" s="61">
         <v>70</v>
       </c>
@@ -2846,13 +3230,19 @@
       <c r="D11" s="61">
         <v>7</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="61">
+        <v>95</v>
+      </c>
       <c r="F11" s="61">
         <v>80</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="61">
+        <v>70</v>
+      </c>
       <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="I11" s="61">
+        <v>70</v>
+      </c>
       <c r="J11" s="61">
         <v>90</v>
       </c>
@@ -2861,13 +3251,19 @@
       <c r="D12" s="61">
         <v>8</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="61">
+        <v>89</v>
+      </c>
       <c r="F12" s="61">
         <v>50</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="61">
+        <v>70</v>
+      </c>
       <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="I12" s="61">
+        <v>70</v>
+      </c>
       <c r="J12" s="61">
         <v>60</v>
       </c>
@@ -2876,13 +3272,19 @@
       <c r="D13" s="61">
         <v>9</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="61">
+        <v>55</v>
+      </c>
       <c r="F13" s="61">
         <v>70</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="61">
+        <v>70</v>
+      </c>
       <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="I13" s="61">
+        <v>70</v>
+      </c>
       <c r="J13" s="61">
         <v>75</v>
       </c>
@@ -2891,13 +3293,19 @@
       <c r="D14" s="61">
         <v>10</v>
       </c>
-      <c r="E14" s="61"/>
+      <c r="E14" s="61">
+        <v>69</v>
+      </c>
       <c r="F14" s="61">
         <v>50</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="61">
+        <v>70</v>
+      </c>
       <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="I14" s="61">
+        <v>70</v>
+      </c>
       <c r="J14" s="61">
         <v>60</v>
       </c>
@@ -2906,13 +3314,19 @@
       <c r="D15" s="61">
         <v>11</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="61">
+        <v>40</v>
+      </c>
       <c r="F15" s="61">
         <v>70</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="61">
+        <v>80</v>
+      </c>
       <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="I15" s="61">
+        <v>80</v>
+      </c>
       <c r="J15" s="61">
         <v>70</v>
       </c>
@@ -2921,13 +3335,19 @@
       <c r="D16" s="61">
         <v>12</v>
       </c>
-      <c r="E16" s="61"/>
+      <c r="E16" s="61">
+        <v>30</v>
+      </c>
       <c r="F16" s="61">
         <v>80</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="61">
+        <v>70</v>
+      </c>
       <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="I16" s="61">
+        <v>70</v>
+      </c>
       <c r="J16" s="61">
         <v>70</v>
       </c>
@@ -2936,13 +3356,19 @@
       <c r="D17" s="61">
         <v>13</v>
       </c>
-      <c r="E17" s="61"/>
+      <c r="E17" s="61">
+        <v>20</v>
+      </c>
       <c r="F17" s="61">
         <v>40</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="61">
+        <v>60</v>
+      </c>
       <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="I17" s="61">
+        <v>60</v>
+      </c>
       <c r="J17" s="61">
         <v>60</v>
       </c>
@@ -2951,13 +3377,19 @@
       <c r="D18" s="61">
         <v>14</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="61">
+        <v>99</v>
+      </c>
       <c r="F18" s="61">
         <v>60</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="61">
+        <v>70</v>
+      </c>
       <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="I18" s="61">
+        <v>70</v>
+      </c>
       <c r="J18" s="61">
         <v>60</v>
       </c>
@@ -2966,13 +3398,19 @@
       <c r="D19" s="61">
         <v>15</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="61">
+        <v>50</v>
+      </c>
       <c r="F19" s="61">
         <v>50</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="61">
+        <v>30</v>
+      </c>
       <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="I19" s="61">
+        <v>30</v>
+      </c>
       <c r="J19" s="61">
         <v>70</v>
       </c>
@@ -2981,13 +3419,19 @@
       <c r="D20" s="61">
         <v>16</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="61">
+        <v>40</v>
+      </c>
       <c r="F20" s="61">
         <v>40</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="61">
+        <v>30</v>
+      </c>
       <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
+      <c r="I20" s="61">
+        <v>30</v>
+      </c>
       <c r="J20" s="61">
         <v>50</v>
       </c>
@@ -2996,13 +3440,19 @@
       <c r="D21" s="61">
         <v>17</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="61">
+        <v>50</v>
+      </c>
       <c r="F21" s="61">
         <v>50</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="61">
+        <v>50</v>
+      </c>
       <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="I21" s="61">
+        <v>50</v>
+      </c>
       <c r="J21" s="61">
         <v>60</v>
       </c>
@@ -3011,13 +3461,19 @@
       <c r="D22" s="61">
         <v>18</v>
       </c>
-      <c r="E22" s="61"/>
+      <c r="E22" s="61">
+        <v>20</v>
+      </c>
       <c r="F22" s="61">
         <v>50</v>
       </c>
-      <c r="G22" s="61"/>
+      <c r="G22" s="61">
+        <v>70</v>
+      </c>
       <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="I22" s="61">
+        <v>70</v>
+      </c>
       <c r="J22" s="61">
         <v>60</v>
       </c>
@@ -3026,13 +3482,19 @@
       <c r="D23" s="61">
         <v>19</v>
       </c>
-      <c r="E23" s="61"/>
+      <c r="E23" s="61">
+        <v>75</v>
+      </c>
       <c r="F23" s="61">
         <v>70</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="61">
+        <v>70</v>
+      </c>
       <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="I23" s="61">
+        <v>70</v>
+      </c>
       <c r="J23" s="61">
         <v>80</v>
       </c>
@@ -3041,13 +3503,19 @@
       <c r="D24" s="61">
         <v>20</v>
       </c>
-      <c r="E24" s="61"/>
+      <c r="E24" s="61">
+        <v>70</v>
+      </c>
       <c r="F24" s="61">
         <v>70</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="61">
+        <v>70</v>
+      </c>
       <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="I24" s="61">
+        <v>70</v>
+      </c>
       <c r="J24" s="61">
         <v>80</v>
       </c>
@@ -3056,13 +3524,19 @@
       <c r="D25" s="61">
         <v>21</v>
       </c>
-      <c r="E25" s="61"/>
+      <c r="E25" s="61">
+        <v>30</v>
+      </c>
       <c r="F25" s="61">
         <v>50</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="61">
+        <v>50</v>
+      </c>
       <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
+      <c r="I25" s="61">
+        <v>50</v>
+      </c>
       <c r="J25" s="61">
         <v>60</v>
       </c>
@@ -3071,13 +3545,19 @@
       <c r="D26" s="61">
         <v>22</v>
       </c>
-      <c r="E26" s="61"/>
+      <c r="E26" s="61">
+        <v>75</v>
+      </c>
       <c r="F26" s="61">
         <v>70</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="61">
+        <v>80</v>
+      </c>
       <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="61">
+        <v>80</v>
+      </c>
       <c r="J26" s="61">
         <v>80</v>
       </c>
@@ -3086,13 +3566,19 @@
       <c r="D27" s="61">
         <v>23</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="E27" s="61">
+        <v>50</v>
+      </c>
       <c r="F27" s="61">
         <v>50</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="61">
+        <v>50</v>
+      </c>
       <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="I27" s="61">
+        <v>50</v>
+      </c>
       <c r="J27" s="61">
         <v>50</v>
       </c>
@@ -3101,13 +3587,19 @@
       <c r="D28" s="61">
         <v>24</v>
       </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="61">
+        <v>50</v>
+      </c>
       <c r="F28" s="61">
         <v>50</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="61">
+        <v>40</v>
+      </c>
       <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="I28" s="61">
+        <v>40</v>
+      </c>
       <c r="J28" s="61">
         <v>60</v>
       </c>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -292,9 +292,6 @@
     <t>resolved</t>
   </si>
   <si>
-    <t>Triggered</t>
-  </si>
-  <si>
     <t>define risk</t>
   </si>
   <si>
@@ -329,6 +326,61 @@
   </si>
   <si>
     <t>Phú</t>
+  </si>
+  <si>
+    <t>Increase work hours
+Discuss with customer to decrease scope of project</t>
+  </si>
+  <si>
+    <t>Improve communication plan</t>
+  </si>
+  <si>
+    <t>Apply estimate's process. Implement to re-estimate and update regular plan</t>
+  </si>
+  <si>
+    <t>Tightly managed testing phase. Have reports about defects</t>
+  </si>
+  <si>
+    <t>Do the requirments phase carefully to avoid missing functionality due to missing requirements or do wrong</t>
+  </si>
+  <si>
+    <t>Define clear scope and initial goad with stakeholders.</t>
+  </si>
+  <si>
+    <t>Join in training class of Mr.Thanh</t>
+  </si>
+  <si>
+    <t>Establish the weekly meeting with customer</t>
+  </si>
+  <si>
+    <t>planning time that spent fix architecture</t>
+  </si>
+  <si>
+    <t>Increase work hours</t>
+  </si>
+  <si>
+    <t>consultation of the teachers</t>
+  </si>
+  <si>
+    <t>planning work time between capstone and semester</t>
+  </si>
+  <si>
+    <t>sanction base on the law of group</t>
+  </si>
+  <si>
+    <t>transfer tasks to another member</t>
+  </si>
+  <si>
+    <t>Working with customer to re-define scope of project</t>
+  </si>
+  <si>
+    <t>risk strategy</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Analysis complete</t>
   </si>
 </sst>
 </file>
@@ -733,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -797,9 +849,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -865,13 +914,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,13 +1251,13 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" style="57" customWidth="1"/>
+    <col min="4" max="4" width="24" style="56" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="56" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
@@ -1211,29 +1266,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="48"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
@@ -1241,19 +1296,19 @@
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -1296,7 +1351,7 @@
       <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="12">
@@ -1317,12 +1372,14 @@
         <f t="shared" ref="I3:I26" si="0">G3*H3</f>
         <v>1.1844444444444444E-2</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="59" t="s">
+        <v>99</v>
+      </c>
       <c r="K3" s="16"/>
       <c r="L3" s="10"/>
       <c r="M3" s="22"/>
       <c r="N3" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="5"/>
@@ -1338,7 +1395,7 @@
       <c r="C4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="12">
@@ -1359,12 +1416,14 @@
         <f t="shared" si="0"/>
         <v>6.7777777777777775E-3</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="58" t="s">
+        <v>100</v>
+      </c>
       <c r="K4" s="16"/>
       <c r="L4" s="19"/>
       <c r="M4" s="22"/>
       <c r="N4" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="5"/>
@@ -1380,7 +1439,7 @@
       <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="12">
@@ -1401,18 +1460,20 @@
         <f t="shared" si="0"/>
         <v>9.6033333333333335E-3</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="K5" s="16"/>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
       <c r="N5" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
+    <row r="6" spans="1:17" ht="30.75">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1422,7 +1483,7 @@
       <c r="C6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="12">
@@ -1441,18 +1502,20 @@
         <f t="shared" si="0"/>
         <v>1.2888888888888889E-2</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="K6" s="16"/>
       <c r="L6" s="10"/>
       <c r="M6" s="22"/>
       <c r="N6" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="30.75">
+    <row r="7" spans="1:17" ht="45.75">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1462,7 +1525,7 @@
       <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="12">
@@ -1483,12 +1546,14 @@
         <f t="shared" si="0"/>
         <v>1.0977777777777779E-2</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="K7" s="16"/>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
       <c r="N7" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
@@ -1504,7 +1569,7 @@
       <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="12">
@@ -1530,7 +1595,7 @@
       <c r="L8" s="20"/>
       <c r="M8" s="22"/>
       <c r="N8" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="5"/>
@@ -1546,7 +1611,7 @@
       <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="12">
@@ -1567,12 +1632,14 @@
         <f t="shared" si="0"/>
         <v>7.4250000000000002E-3</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="L9" s="20"/>
       <c r="M9" s="22"/>
       <c r="N9" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="5"/>
@@ -1588,7 +1655,7 @@
       <c r="C10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="12">
@@ -1609,12 +1676,14 @@
         <f t="shared" si="0"/>
         <v>9.7933333333333327E-3</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="20"/>
       <c r="M10" s="22"/>
       <c r="N10" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="5"/>
@@ -1630,7 +1699,7 @@
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="12">
@@ -1651,12 +1720,14 @@
         <f t="shared" si="0"/>
         <v>5.8555555555555548E-3</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="L11" s="20"/>
       <c r="M11" s="22"/>
       <c r="N11" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="5"/>
@@ -1666,13 +1737,13 @@
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="12">
@@ -1698,7 +1769,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="22"/>
       <c r="N12" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="5"/>
@@ -1708,13 +1779,13 @@
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="12">
@@ -1733,12 +1804,14 @@
         <f t="shared" si="0"/>
         <v>1.0955555555555555E-2</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="58" t="s">
+        <v>107</v>
+      </c>
       <c r="K13" s="16"/>
       <c r="L13" s="10"/>
       <c r="M13" s="22"/>
       <c r="N13" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O13" s="16"/>
       <c r="P13" s="5"/>
@@ -1748,13 +1821,13 @@
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="12">
@@ -1773,12 +1846,14 @@
         <f t="shared" si="0"/>
         <v>1.1022222222222223E-2</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="58" t="s">
+        <v>108</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="20"/>
       <c r="M14" s="22"/>
       <c r="N14" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="5"/>
@@ -1794,7 +1869,7 @@
       <c r="C15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="12">
@@ -1815,12 +1890,12 @@
         <f t="shared" si="0"/>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="16"/>
       <c r="L15" s="20"/>
       <c r="M15" s="22"/>
       <c r="N15" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O15" s="16"/>
       <c r="P15" s="5"/>
@@ -1830,13 +1905,13 @@
       <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="12">
@@ -1857,12 +1932,14 @@
         <f t="shared" si="0"/>
         <v>1.1567777777777776E-2</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="58" t="s">
+        <v>109</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="20"/>
       <c r="M16" s="22"/>
       <c r="N16" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O16" s="16"/>
       <c r="P16" s="5"/>
@@ -1872,13 +1949,13 @@
       <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="12">
@@ -1899,12 +1976,12 @@
         <f t="shared" si="0"/>
         <v>6.3888888888888884E-3</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="16"/>
       <c r="L17" s="20"/>
       <c r="M17" s="22"/>
       <c r="N17" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O17" s="16"/>
       <c r="P17" s="5"/>
@@ -1914,13 +1991,13 @@
       <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="12">
@@ -1941,12 +2018,12 @@
         <f t="shared" si="0"/>
         <v>3.5888888888888889E-3</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="16"/>
       <c r="L18" s="20"/>
       <c r="M18" s="22"/>
       <c r="N18" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="5"/>
@@ -1956,11 +2033,11 @@
       <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="12">
@@ -1981,11 +2058,13 @@
         <f t="shared" si="0"/>
         <v>9.2444444444444458E-3</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="16"/>
       <c r="L19" s="20"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="O19" s="16"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1994,13 +2073,13 @@
       <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="12">
@@ -2021,12 +2100,14 @@
         <f t="shared" si="0"/>
         <v>1.0799999999999999E-2</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="59" t="s">
+        <v>110</v>
+      </c>
       <c r="K20" s="16"/>
       <c r="L20" s="20"/>
       <c r="M20" s="22"/>
       <c r="N20" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="5"/>
@@ -2036,13 +2117,13 @@
       <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="12">
@@ -2063,12 +2144,14 @@
         <f t="shared" si="0"/>
         <v>1.3788888888888889E-2</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="58" t="s">
+        <v>100</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="L21" s="20"/>
       <c r="M21" s="22"/>
       <c r="N21" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O21" s="16"/>
       <c r="P21" s="5"/>
@@ -2078,11 +2161,11 @@
       <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="12">
@@ -2103,11 +2186,15 @@
         <f t="shared" si="0"/>
         <v>1.44E-2</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="58" t="s">
+        <v>111</v>
+      </c>
       <c r="K22" s="16"/>
       <c r="L22" s="20"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="11"/>
+      <c r="N22" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="O22" s="16"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -2116,11 +2203,11 @@
       <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="12">
@@ -2141,11 +2228,15 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="58" t="s">
+        <v>112</v>
+      </c>
       <c r="K23" s="16"/>
       <c r="L23" s="20"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="11"/>
+      <c r="N23" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="O23" s="16"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -2154,11 +2245,11 @@
       <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="12">
@@ -2179,11 +2270,15 @@
         <f t="shared" si="0"/>
         <v>1.1122222222222223E-2</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="59" t="s">
+        <v>113</v>
+      </c>
       <c r="K24" s="16"/>
       <c r="L24" s="20"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="O24" s="16"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -2192,13 +2287,13 @@
       <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="12">
@@ -2219,12 +2314,12 @@
         <f t="shared" si="0"/>
         <v>7.7777777777777776E-3</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="58"/>
       <c r="K25" s="16"/>
       <c r="L25" s="20"/>
       <c r="M25" s="22"/>
       <c r="N25" s="11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="5"/>
@@ -2234,11 +2329,11 @@
       <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="12">
@@ -2259,20 +2354,22 @@
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="16"/>
       <c r="L26" s="20"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="O26" s="16"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="4"/>
       <c r="F27" s="29"/>
       <c r="G27" s="3"/>
@@ -2289,9 +2386,9 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="33"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="4"/>
       <c r="F28" s="29"/>
       <c r="G28" s="3"/>
@@ -2310,7 +2407,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="21"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="4"/>
       <c r="F29" s="29"/>
       <c r="G29" s="3"/>
@@ -2327,9 +2424,9 @@
     </row>
     <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="5"/>
-      <c r="B30" s="41"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="5"/>
       <c r="F30" s="30"/>
       <c r="G30" s="5"/>
@@ -2350,74 +2447,90 @@
     <row r="32" spans="1:17">
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="31" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="31" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="31" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="59" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="60"/>
+      <c r="B39" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="60"/>
+      <c r="B40" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="59" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:L16">
     <sortCondition sortBy="cellColor" ref="F3" dxfId="0"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+  </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N30">
       <formula1>"Identified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
@@ -2445,621 +2558,621 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="G3" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="H3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="I3" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="61" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="61">
+      <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="61">
-        <v>50</v>
-      </c>
-      <c r="E4" s="61">
+      <c r="D4" s="58">
+        <v>50</v>
+      </c>
+      <c r="E4" s="58">
         <v>40</v>
       </c>
-      <c r="F4" s="61">
-        <v>60</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61">
-        <v>50</v>
-      </c>
-      <c r="I4" s="61">
+      <c r="F4" s="58">
+        <v>60</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58">
+        <v>50</v>
+      </c>
+      <c r="I4" s="58">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="61">
+      <c r="C5" s="58">
         <v>2</v>
       </c>
-      <c r="D5" s="61">
-        <v>50</v>
-      </c>
-      <c r="E5" s="61">
+      <c r="D5" s="58">
+        <v>50</v>
+      </c>
+      <c r="E5" s="58">
         <v>40</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="58">
         <v>40</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58">
         <v>30</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="58">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="61">
+      <c r="C6" s="58">
         <v>3</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="58">
         <v>68</v>
       </c>
-      <c r="E6" s="61">
-        <v>60</v>
-      </c>
-      <c r="F6" s="61">
+      <c r="E6" s="58">
+        <v>60</v>
+      </c>
+      <c r="F6" s="58">
         <v>40</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61">
-        <v>50</v>
-      </c>
-      <c r="I6" s="61">
+      <c r="G6" s="58"/>
+      <c r="H6" s="58">
+        <v>50</v>
+      </c>
+      <c r="I6" s="58">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="61">
+      <c r="C7" s="58">
         <v>4</v>
       </c>
-      <c r="D7" s="61">
-        <v>70</v>
-      </c>
-      <c r="E7" s="61">
+      <c r="D7" s="58">
+        <v>70</v>
+      </c>
+      <c r="E7" s="58">
         <v>40</v>
       </c>
-      <c r="F7" s="61">
-        <v>60</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61">
-        <v>60</v>
-      </c>
-      <c r="I7" s="61">
+      <c r="F7" s="58">
+        <v>60</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58">
+        <v>60</v>
+      </c>
+      <c r="I7" s="58">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="61">
+      <c r="C8" s="58">
         <v>5</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="58">
         <v>80</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="58">
         <v>30</v>
       </c>
-      <c r="F8" s="61">
-        <v>50</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61">
-        <v>50</v>
-      </c>
-      <c r="I8" s="61">
+      <c r="F8" s="58">
+        <v>50</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58">
+        <v>50</v>
+      </c>
+      <c r="I8" s="58">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="61">
+      <c r="C9" s="58">
         <v>6</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="58">
         <v>80</v>
       </c>
-      <c r="E9" s="61">
-        <v>60</v>
-      </c>
-      <c r="F9" s="61">
-        <v>50</v>
-      </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61">
-        <v>60</v>
-      </c>
-      <c r="I9" s="61">
+      <c r="E9" s="58">
+        <v>60</v>
+      </c>
+      <c r="F9" s="58">
+        <v>50</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58">
+        <v>60</v>
+      </c>
+      <c r="I9" s="58">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="61">
+      <c r="C10" s="58">
         <v>7</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="58">
         <v>25</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="58">
         <v>30</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="58">
         <v>40</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61">
+      <c r="G10" s="58"/>
+      <c r="H10" s="58">
         <v>30</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="58">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="61">
+      <c r="C11" s="58">
         <v>8</v>
       </c>
-      <c r="D11" s="61">
-        <v>60</v>
-      </c>
-      <c r="E11" s="61">
-        <v>50</v>
-      </c>
-      <c r="F11" s="61">
-        <v>50</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61">
-        <v>50</v>
-      </c>
-      <c r="I11" s="61">
+      <c r="D11" s="58">
+        <v>60</v>
+      </c>
+      <c r="E11" s="58">
+        <v>50</v>
+      </c>
+      <c r="F11" s="58">
+        <v>50</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58">
+        <v>50</v>
+      </c>
+      <c r="I11" s="58">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="61">
+      <c r="C12" s="58">
         <v>9</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="58">
         <v>5</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="58">
         <v>30</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="58">
         <v>45</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61">
+      <c r="G12" s="58"/>
+      <c r="H12" s="58">
         <v>30</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="58">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="61">
+      <c r="C13" s="58">
         <v>10</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="58">
         <v>10</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="58">
         <v>40</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="58">
         <v>30</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61">
-        <v>70</v>
-      </c>
-      <c r="I13" s="61">
+      <c r="G13" s="58"/>
+      <c r="H13" s="58">
+        <v>70</v>
+      </c>
+      <c r="I13" s="58">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="61">
+      <c r="C14" s="58">
         <v>11</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="58">
         <v>20</v>
       </c>
-      <c r="E14" s="61">
-        <v>50</v>
-      </c>
-      <c r="F14" s="61">
+      <c r="E14" s="58">
+        <v>50</v>
+      </c>
+      <c r="F14" s="58">
         <v>80</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61">
-        <v>60</v>
-      </c>
-      <c r="I14" s="61">
+      <c r="G14" s="58"/>
+      <c r="H14" s="58">
+        <v>60</v>
+      </c>
+      <c r="I14" s="58">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="61">
+      <c r="C15" s="58">
         <v>12</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="58">
         <v>10</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="58">
         <v>80</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="58">
         <v>85</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61">
-        <v>50</v>
-      </c>
-      <c r="I15" s="61">
+      <c r="G15" s="58"/>
+      <c r="H15" s="58">
+        <v>50</v>
+      </c>
+      <c r="I15" s="58">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="61">
+      <c r="C16" s="58">
         <v>13</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="58">
         <v>85</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="58">
         <v>80</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="58">
         <v>80</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61">
+      <c r="G16" s="58"/>
+      <c r="H16" s="58">
         <v>80</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="58">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="61">
+      <c r="C17" s="58">
         <v>14</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="58">
         <v>80</v>
       </c>
-      <c r="E17" s="61">
-        <v>60</v>
-      </c>
-      <c r="F17" s="61">
-        <v>60</v>
-      </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61">
+      <c r="E17" s="58">
+        <v>60</v>
+      </c>
+      <c r="F17" s="58">
+        <v>60</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58">
         <v>30</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="58">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="61">
+      <c r="C18" s="58">
         <v>15</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="58">
         <v>30</v>
       </c>
-      <c r="E18" s="61">
-        <v>50</v>
-      </c>
-      <c r="F18" s="61">
-        <v>70</v>
-      </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61">
+      <c r="E18" s="58">
+        <v>50</v>
+      </c>
+      <c r="F18" s="58">
+        <v>70</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58">
         <v>30</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="58">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="61">
+      <c r="C19" s="58">
         <v>16</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="58">
         <v>30</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <v>30</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="58">
         <v>40</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61">
+      <c r="G19" s="58"/>
+      <c r="H19" s="58">
         <v>30</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="58">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="61">
+      <c r="C20" s="58">
         <v>17</v>
       </c>
-      <c r="D20" s="61">
-        <v>50</v>
-      </c>
-      <c r="E20" s="61">
-        <v>50</v>
-      </c>
-      <c r="F20" s="61">
+      <c r="D20" s="58">
+        <v>50</v>
+      </c>
+      <c r="E20" s="58">
+        <v>50</v>
+      </c>
+      <c r="F20" s="58">
         <v>80</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61">
-        <v>60</v>
-      </c>
-      <c r="I20" s="61">
+      <c r="G20" s="58"/>
+      <c r="H20" s="58">
+        <v>60</v>
+      </c>
+      <c r="I20" s="58">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="61">
+      <c r="C21" s="58">
         <v>18</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="58">
         <v>20</v>
       </c>
-      <c r="E21" s="61">
-        <v>70</v>
-      </c>
-      <c r="F21" s="61">
+      <c r="E21" s="58">
+        <v>70</v>
+      </c>
+      <c r="F21" s="58">
         <v>90</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61">
+      <c r="G21" s="58"/>
+      <c r="H21" s="58">
         <v>90</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="58">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="61">
+      <c r="C22" s="58">
         <v>19</v>
       </c>
-      <c r="D22" s="61">
-        <v>70</v>
-      </c>
-      <c r="E22" s="61">
-        <v>60</v>
-      </c>
-      <c r="F22" s="61">
-        <v>70</v>
-      </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61">
-        <v>70</v>
-      </c>
-      <c r="I22" s="61">
+      <c r="D22" s="58">
+        <v>70</v>
+      </c>
+      <c r="E22" s="58">
+        <v>60</v>
+      </c>
+      <c r="F22" s="58">
+        <v>70</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58">
+        <v>70</v>
+      </c>
+      <c r="I22" s="58">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="61">
+      <c r="C23" s="58">
         <v>20</v>
       </c>
-      <c r="D23" s="61">
-        <v>60</v>
-      </c>
-      <c r="E23" s="61">
-        <v>60</v>
-      </c>
-      <c r="F23" s="61">
+      <c r="D23" s="58">
+        <v>60</v>
+      </c>
+      <c r="E23" s="58">
+        <v>60</v>
+      </c>
+      <c r="F23" s="58">
         <v>80</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61">
+      <c r="G23" s="58"/>
+      <c r="H23" s="58">
         <v>80</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="58">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="61">
+      <c r="C24" s="58">
         <v>21</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="58">
         <v>20</v>
       </c>
-      <c r="E24" s="61">
-        <v>60</v>
-      </c>
-      <c r="F24" s="61">
-        <v>70</v>
-      </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61">
-        <v>50</v>
-      </c>
-      <c r="I24" s="61">
+      <c r="E24" s="58">
+        <v>60</v>
+      </c>
+      <c r="F24" s="58">
+        <v>70</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58">
+        <v>50</v>
+      </c>
+      <c r="I24" s="58">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="61">
+      <c r="C25" s="58">
         <v>22</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="58">
         <v>40</v>
       </c>
-      <c r="E25" s="61">
-        <v>60</v>
-      </c>
-      <c r="F25" s="61">
+      <c r="E25" s="58">
+        <v>60</v>
+      </c>
+      <c r="F25" s="58">
         <v>65</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61">
+      <c r="G25" s="58"/>
+      <c r="H25" s="58">
         <v>30</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="58">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="61">
+      <c r="C26" s="58">
         <v>23</v>
       </c>
-      <c r="D26" s="61">
-        <v>50</v>
-      </c>
-      <c r="E26" s="61">
-        <v>50</v>
-      </c>
-      <c r="F26" s="61">
-        <v>60</v>
-      </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61">
-        <v>60</v>
-      </c>
-      <c r="I26" s="61">
+      <c r="D26" s="58">
+        <v>50</v>
+      </c>
+      <c r="E26" s="58">
+        <v>50</v>
+      </c>
+      <c r="F26" s="58">
+        <v>60</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58">
+        <v>60</v>
+      </c>
+      <c r="I26" s="58">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="61">
+      <c r="C27" s="58">
         <v>24</v>
       </c>
-      <c r="D27" s="61">
-        <v>60</v>
-      </c>
-      <c r="E27" s="61">
-        <v>60</v>
-      </c>
-      <c r="F27" s="61">
-        <v>70</v>
-      </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61">
+      <c r="D27" s="58">
+        <v>60</v>
+      </c>
+      <c r="E27" s="58">
+        <v>60</v>
+      </c>
+      <c r="F27" s="58">
+        <v>70</v>
+      </c>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58">
         <v>40</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="58">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,529 +3191,529 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="4:10">
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="F4" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="G4" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="H4" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="I4" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="J4" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="61" t="s">
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58">
+        <v>90</v>
+      </c>
+      <c r="F5" s="58">
+        <v>80</v>
+      </c>
+      <c r="G5" s="58">
+        <v>80</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58">
+        <v>80</v>
+      </c>
+      <c r="J5" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="58">
+        <v>2</v>
+      </c>
+      <c r="E6" s="58">
+        <v>75</v>
+      </c>
+      <c r="F6" s="58">
+        <v>50</v>
+      </c>
+      <c r="G6" s="58">
+        <v>60</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58">
+        <v>60</v>
+      </c>
+      <c r="J6" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="58">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58">
+        <v>85</v>
+      </c>
+      <c r="F7" s="58">
+        <v>70</v>
+      </c>
+      <c r="G7" s="58">
+        <v>60</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58">
+        <v>60</v>
+      </c>
+      <c r="J7" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="58">
+        <v>4</v>
+      </c>
+      <c r="E8" s="58">
+        <v>80</v>
+      </c>
+      <c r="F8" s="58">
+        <v>80</v>
+      </c>
+      <c r="G8" s="58">
+        <v>80</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58">
+        <v>80</v>
+      </c>
+      <c r="J8" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="58">
+        <v>5</v>
+      </c>
+      <c r="E9" s="58">
+        <v>70</v>
+      </c>
+      <c r="F9" s="58">
+        <v>80</v>
+      </c>
+      <c r="G9" s="58">
+        <v>70</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58">
+        <v>70</v>
+      </c>
+      <c r="J9" s="58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="58">
+        <v>6</v>
+      </c>
+      <c r="E10" s="58">
+        <v>90</v>
+      </c>
+      <c r="F10" s="58">
+        <v>60</v>
+      </c>
+      <c r="G10" s="58">
+        <v>70</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58">
+        <v>70</v>
+      </c>
+      <c r="J10" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="58">
+        <v>7</v>
+      </c>
+      <c r="E11" s="58">
+        <v>95</v>
+      </c>
+      <c r="F11" s="58">
+        <v>80</v>
+      </c>
+      <c r="G11" s="58">
+        <v>70</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58">
+        <v>70</v>
+      </c>
+      <c r="J11" s="58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="58">
+        <v>8</v>
+      </c>
+      <c r="E12" s="58">
+        <v>89</v>
+      </c>
+      <c r="F12" s="58">
+        <v>50</v>
+      </c>
+      <c r="G12" s="58">
+        <v>70</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58">
+        <v>70</v>
+      </c>
+      <c r="J12" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="58">
+        <v>9</v>
+      </c>
+      <c r="E13" s="58">
+        <v>55</v>
+      </c>
+      <c r="F13" s="58">
+        <v>70</v>
+      </c>
+      <c r="G13" s="58">
+        <v>70</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58">
+        <v>70</v>
+      </c>
+      <c r="J13" s="58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="58">
+        <v>10</v>
+      </c>
+      <c r="E14" s="58">
+        <v>69</v>
+      </c>
+      <c r="F14" s="58">
+        <v>50</v>
+      </c>
+      <c r="G14" s="58">
+        <v>70</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58">
+        <v>70</v>
+      </c>
+      <c r="J14" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="58">
+        <v>11</v>
+      </c>
+      <c r="E15" s="58">
+        <v>40</v>
+      </c>
+      <c r="F15" s="58">
+        <v>70</v>
+      </c>
+      <c r="G15" s="58">
+        <v>80</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58">
+        <v>80</v>
+      </c>
+      <c r="J15" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="58">
+        <v>12</v>
+      </c>
+      <c r="E16" s="58">
+        <v>30</v>
+      </c>
+      <c r="F16" s="58">
+        <v>80</v>
+      </c>
+      <c r="G16" s="58">
+        <v>70</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58">
+        <v>70</v>
+      </c>
+      <c r="J16" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="58">
+        <v>13</v>
+      </c>
+      <c r="E17" s="58">
+        <v>20</v>
+      </c>
+      <c r="F17" s="58">
+        <v>40</v>
+      </c>
+      <c r="G17" s="58">
+        <v>60</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58">
+        <v>60</v>
+      </c>
+      <c r="J17" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="58">
+        <v>14</v>
+      </c>
+      <c r="E18" s="58">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="4:10">
-      <c r="D5" s="61">
-        <v>1</v>
-      </c>
-      <c r="E5" s="61">
-        <v>90</v>
-      </c>
-      <c r="F5" s="61">
+      <c r="F18" s="58">
+        <v>60</v>
+      </c>
+      <c r="G18" s="58">
+        <v>70</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58">
+        <v>70</v>
+      </c>
+      <c r="J18" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="58">
+        <v>15</v>
+      </c>
+      <c r="E19" s="58">
+        <v>50</v>
+      </c>
+      <c r="F19" s="58">
+        <v>50</v>
+      </c>
+      <c r="G19" s="58">
+        <v>30</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58">
+        <v>30</v>
+      </c>
+      <c r="J19" s="58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="58">
+        <v>16</v>
+      </c>
+      <c r="E20" s="58">
+        <v>40</v>
+      </c>
+      <c r="F20" s="58">
+        <v>40</v>
+      </c>
+      <c r="G20" s="58">
+        <v>30</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58">
+        <v>30</v>
+      </c>
+      <c r="J20" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="58">
+        <v>17</v>
+      </c>
+      <c r="E21" s="58">
+        <v>50</v>
+      </c>
+      <c r="F21" s="58">
+        <v>50</v>
+      </c>
+      <c r="G21" s="58">
+        <v>50</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58">
+        <v>50</v>
+      </c>
+      <c r="J21" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="58">
+        <v>18</v>
+      </c>
+      <c r="E22" s="58">
+        <v>20</v>
+      </c>
+      <c r="F22" s="58">
+        <v>50</v>
+      </c>
+      <c r="G22" s="58">
+        <v>70</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58">
+        <v>70</v>
+      </c>
+      <c r="J22" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="58">
+        <v>19</v>
+      </c>
+      <c r="E23" s="58">
+        <v>75</v>
+      </c>
+      <c r="F23" s="58">
+        <v>70</v>
+      </c>
+      <c r="G23" s="58">
+        <v>70</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58">
+        <v>70</v>
+      </c>
+      <c r="J23" s="58">
         <v>80</v>
       </c>
-      <c r="G5" s="61">
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="58">
+        <v>20</v>
+      </c>
+      <c r="E24" s="58">
+        <v>70</v>
+      </c>
+      <c r="F24" s="58">
+        <v>70</v>
+      </c>
+      <c r="G24" s="58">
+        <v>70</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58">
+        <v>70</v>
+      </c>
+      <c r="J24" s="58">
         <v>80</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61">
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="58">
+        <v>21</v>
+      </c>
+      <c r="E25" s="58">
+        <v>30</v>
+      </c>
+      <c r="F25" s="58">
+        <v>50</v>
+      </c>
+      <c r="G25" s="58">
+        <v>50</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58">
+        <v>50</v>
+      </c>
+      <c r="J25" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="58">
+        <v>22</v>
+      </c>
+      <c r="E26" s="58">
+        <v>75</v>
+      </c>
+      <c r="F26" s="58">
+        <v>70</v>
+      </c>
+      <c r="G26" s="58">
         <v>80</v>
       </c>
-      <c r="J5" s="61">
+      <c r="H26" s="58"/>
+      <c r="I26" s="58">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="4:10">
-      <c r="D6" s="61">
-        <v>2</v>
-      </c>
-      <c r="E6" s="61">
-        <v>75</v>
-      </c>
-      <c r="F6" s="61">
-        <v>50</v>
-      </c>
-      <c r="G6" s="61">
-        <v>60</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61">
-        <v>60</v>
-      </c>
-      <c r="J6" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
-      <c r="D7" s="61">
-        <v>3</v>
-      </c>
-      <c r="E7" s="61">
-        <v>85</v>
-      </c>
-      <c r="F7" s="61">
-        <v>70</v>
-      </c>
-      <c r="G7" s="61">
-        <v>60</v>
-      </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61">
-        <v>60</v>
-      </c>
-      <c r="J7" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
-      <c r="D8" s="61">
-        <v>4</v>
-      </c>
-      <c r="E8" s="61">
+      <c r="J26" s="58">
         <v>80</v>
       </c>
-      <c r="F8" s="61">
-        <v>80</v>
-      </c>
-      <c r="G8" s="61">
-        <v>80</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61">
-        <v>80</v>
-      </c>
-      <c r="J8" s="61">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10">
-      <c r="D9" s="61">
-        <v>5</v>
-      </c>
-      <c r="E9" s="61">
-        <v>70</v>
-      </c>
-      <c r="F9" s="61">
-        <v>80</v>
-      </c>
-      <c r="G9" s="61">
-        <v>70</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61">
-        <v>70</v>
-      </c>
-      <c r="J9" s="61">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
-      <c r="D10" s="61">
-        <v>6</v>
-      </c>
-      <c r="E10" s="61">
-        <v>90</v>
-      </c>
-      <c r="F10" s="61">
-        <v>60</v>
-      </c>
-      <c r="G10" s="61">
-        <v>70</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61">
-        <v>70</v>
-      </c>
-      <c r="J10" s="61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
-      <c r="D11" s="61">
-        <v>7</v>
-      </c>
-      <c r="E11" s="61">
-        <v>95</v>
-      </c>
-      <c r="F11" s="61">
-        <v>80</v>
-      </c>
-      <c r="G11" s="61">
-        <v>70</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61">
-        <v>70</v>
-      </c>
-      <c r="J11" s="61">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10">
-      <c r="D12" s="61">
-        <v>8</v>
-      </c>
-      <c r="E12" s="61">
-        <v>89</v>
-      </c>
-      <c r="F12" s="61">
-        <v>50</v>
-      </c>
-      <c r="G12" s="61">
-        <v>70</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61">
-        <v>70</v>
-      </c>
-      <c r="J12" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10">
-      <c r="D13" s="61">
-        <v>9</v>
-      </c>
-      <c r="E13" s="61">
-        <v>55</v>
-      </c>
-      <c r="F13" s="61">
-        <v>70</v>
-      </c>
-      <c r="G13" s="61">
-        <v>70</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61">
-        <v>70</v>
-      </c>
-      <c r="J13" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10">
-      <c r="D14" s="61">
-        <v>10</v>
-      </c>
-      <c r="E14" s="61">
-        <v>69</v>
-      </c>
-      <c r="F14" s="61">
-        <v>50</v>
-      </c>
-      <c r="G14" s="61">
-        <v>70</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61">
-        <v>70</v>
-      </c>
-      <c r="J14" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10">
-      <c r="D15" s="61">
-        <v>11</v>
-      </c>
-      <c r="E15" s="61">
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="58">
+        <v>23</v>
+      </c>
+      <c r="E27" s="58">
+        <v>50</v>
+      </c>
+      <c r="F27" s="58">
+        <v>50</v>
+      </c>
+      <c r="G27" s="58">
+        <v>50</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58">
+        <v>50</v>
+      </c>
+      <c r="J27" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="58">
+        <v>24</v>
+      </c>
+      <c r="E28" s="58">
+        <v>50</v>
+      </c>
+      <c r="F28" s="58">
+        <v>50</v>
+      </c>
+      <c r="G28" s="58">
         <v>40</v>
       </c>
-      <c r="F15" s="61">
-        <v>70</v>
-      </c>
-      <c r="G15" s="61">
-        <v>80</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61">
-        <v>80</v>
-      </c>
-      <c r="J15" s="61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10">
-      <c r="D16" s="61">
-        <v>12</v>
-      </c>
-      <c r="E16" s="61">
-        <v>30</v>
-      </c>
-      <c r="F16" s="61">
-        <v>80</v>
-      </c>
-      <c r="G16" s="61">
-        <v>70</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61">
-        <v>70</v>
-      </c>
-      <c r="J16" s="61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10">
-      <c r="D17" s="61">
-        <v>13</v>
-      </c>
-      <c r="E17" s="61">
-        <v>20</v>
-      </c>
-      <c r="F17" s="61">
+      <c r="H28" s="58"/>
+      <c r="I28" s="58">
         <v>40</v>
       </c>
-      <c r="G17" s="61">
-        <v>60</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61">
-        <v>60</v>
-      </c>
-      <c r="J17" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10">
-      <c r="D18" s="61">
-        <v>14</v>
-      </c>
-      <c r="E18" s="61">
-        <v>99</v>
-      </c>
-      <c r="F18" s="61">
-        <v>60</v>
-      </c>
-      <c r="G18" s="61">
-        <v>70</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61">
-        <v>70</v>
-      </c>
-      <c r="J18" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10">
-      <c r="D19" s="61">
-        <v>15</v>
-      </c>
-      <c r="E19" s="61">
-        <v>50</v>
-      </c>
-      <c r="F19" s="61">
-        <v>50</v>
-      </c>
-      <c r="G19" s="61">
-        <v>30</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61">
-        <v>30</v>
-      </c>
-      <c r="J19" s="61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10">
-      <c r="D20" s="61">
-        <v>16</v>
-      </c>
-      <c r="E20" s="61">
-        <v>40</v>
-      </c>
-      <c r="F20" s="61">
-        <v>40</v>
-      </c>
-      <c r="G20" s="61">
-        <v>30</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61">
-        <v>30</v>
-      </c>
-      <c r="J20" s="61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="61">
-        <v>17</v>
-      </c>
-      <c r="E21" s="61">
-        <v>50</v>
-      </c>
-      <c r="F21" s="61">
-        <v>50</v>
-      </c>
-      <c r="G21" s="61">
-        <v>50</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61">
-        <v>50</v>
-      </c>
-      <c r="J21" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10">
-      <c r="D22" s="61">
-        <v>18</v>
-      </c>
-      <c r="E22" s="61">
-        <v>20</v>
-      </c>
-      <c r="F22" s="61">
-        <v>50</v>
-      </c>
-      <c r="G22" s="61">
-        <v>70</v>
-      </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61">
-        <v>70</v>
-      </c>
-      <c r="J22" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10">
-      <c r="D23" s="61">
-        <v>19</v>
-      </c>
-      <c r="E23" s="61">
-        <v>75</v>
-      </c>
-      <c r="F23" s="61">
-        <v>70</v>
-      </c>
-      <c r="G23" s="61">
-        <v>70</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61">
-        <v>70</v>
-      </c>
-      <c r="J23" s="61">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10">
-      <c r="D24" s="61">
-        <v>20</v>
-      </c>
-      <c r="E24" s="61">
-        <v>70</v>
-      </c>
-      <c r="F24" s="61">
-        <v>70</v>
-      </c>
-      <c r="G24" s="61">
-        <v>70</v>
-      </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61">
-        <v>70</v>
-      </c>
-      <c r="J24" s="61">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10">
-      <c r="D25" s="61">
-        <v>21</v>
-      </c>
-      <c r="E25" s="61">
-        <v>30</v>
-      </c>
-      <c r="F25" s="61">
-        <v>50</v>
-      </c>
-      <c r="G25" s="61">
-        <v>50</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61">
-        <v>50</v>
-      </c>
-      <c r="J25" s="61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10">
-      <c r="D26" s="61">
-        <v>22</v>
-      </c>
-      <c r="E26" s="61">
-        <v>75</v>
-      </c>
-      <c r="F26" s="61">
-        <v>70</v>
-      </c>
-      <c r="G26" s="61">
-        <v>80</v>
-      </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61">
-        <v>80</v>
-      </c>
-      <c r="J26" s="61">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10">
-      <c r="D27" s="61">
-        <v>23</v>
-      </c>
-      <c r="E27" s="61">
-        <v>50</v>
-      </c>
-      <c r="F27" s="61">
-        <v>50</v>
-      </c>
-      <c r="G27" s="61">
-        <v>50</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61">
-        <v>50</v>
-      </c>
-      <c r="J27" s="61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10">
-      <c r="D28" s="61">
-        <v>24</v>
-      </c>
-      <c r="E28" s="61">
-        <v>50</v>
-      </c>
-      <c r="F28" s="61">
-        <v>50</v>
-      </c>
-      <c r="G28" s="61">
-        <v>40</v>
-      </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61">
-        <v>40</v>
-      </c>
-      <c r="J28" s="61">
+      <c r="J28" s="58">
         <v>60</v>
       </c>
     </row>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\6. Risk management plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\1. Project management\6. Risk management plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100"/>
+    <workbookView minimized="1" xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="risk management" sheetId="1" r:id="rId1"/>
@@ -918,14 +918,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,7 +2448,7 @@
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="61" t="s">
         <v>114</v>
       </c>
       <c r="B33" s="26" t="s">
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="62"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="26" t="s">
         <v>39</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="26" t="s">
         <v>82</v>
       </c>
@@ -2486,10 +2486,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="59" t="s">
@@ -2497,8 +2497,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="60" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="59" t="s">
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="60"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="26" t="s">
         <v>85</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="59" t="s">
@@ -2551,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\1. Project management\6. Risk management plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\6. Risk management plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="risk management" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Analysis complete</t>
+  </si>
+  <si>
+    <t>Mitigate</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1362,20 +1365,22 @@
       </c>
       <c r="G3" s="13">
         <f>AVERAGE('risk priority (probability)'!D4:I4)/600</f>
-        <v>8.666666666666667E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H3" s="13">
         <f>AVERAGE('risk priority (impact)'!E5:J5)/600</f>
-        <v>0.13666666666666666</v>
+        <v>0.13611111111111113</v>
       </c>
       <c r="I3" s="13">
         <f t="shared" ref="I3:I26" si="0">G3*H3</f>
-        <v>1.1844444444444444E-2</v>
+        <v>1.1342592592592593E-2</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="22"/>
       <c r="N3" s="11" t="s">
@@ -1406,15 +1411,15 @@
       </c>
       <c r="G4" s="13">
         <f>AVERAGE('risk priority (probability)'!D5:I5)/600</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="H4" s="13">
         <f>AVERAGE('risk priority (impact)'!E6:J6)/600</f>
-        <v>0.10166666666666667</v>
+        <v>9.8611111111111108E-2</v>
       </c>
       <c r="I4" s="13">
         <f t="shared" si="0"/>
-        <v>6.7777777777777775E-3</v>
+        <v>6.8479938271604921E-3</v>
       </c>
       <c r="J4" s="58" t="s">
         <v>100</v>
@@ -1450,20 +1455,22 @@
       </c>
       <c r="G5" s="13">
         <f>AVERAGE('risk priority (probability)'!D6:I6)/600</f>
-        <v>8.6000000000000007E-2</v>
+        <v>8.8333333333333333E-2</v>
       </c>
       <c r="H5" s="13">
         <f>AVERAGE('risk priority (impact)'!E7:J7)/600</f>
-        <v>0.11166666666666666</v>
+        <v>0.1125</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="0"/>
-        <v>9.6033333333333335E-3</v>
+        <v>9.9375000000000002E-3</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22"/>
       <c r="N5" s="11" t="s">
@@ -1492,20 +1499,22 @@
       <c r="F6" s="17"/>
       <c r="G6" s="13">
         <f>AVERAGE('risk priority (probability)'!D7:I7)/600</f>
-        <v>9.6666666666666665E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="H6" s="13">
         <f>AVERAGE('risk priority (impact)'!E8:J8)/600</f>
-        <v>0.13333333333333333</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="0"/>
-        <v>1.2888888888888889E-2</v>
+        <v>1.1358024691358026E-2</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="22"/>
       <c r="N6" s="11" t="s">
@@ -1536,20 +1545,22 @@
       </c>
       <c r="G7" s="13">
         <f>AVERAGE('risk priority (probability)'!D8:I8)/600</f>
-        <v>8.666666666666667E-2</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="H7" s="13">
         <f>AVERAGE('risk priority (impact)'!E9:J9)/600</f>
-        <v>0.12666666666666668</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="0"/>
-        <v>1.0977777777777779E-2</v>
+        <v>1.0285493827160494E-2</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22"/>
       <c r="N7" s="11" t="s">
@@ -1580,15 +1591,15 @@
       </c>
       <c r="G8" s="13">
         <f>AVERAGE('risk priority (probability)'!D9:I9)/600</f>
-        <v>0.1</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="H8" s="13">
         <f>AVERAGE('risk priority (impact)'!E10:J10)/600</f>
-        <v>0.12</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+        <v>1.1882716049382716E-2</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
@@ -1622,15 +1633,15 @@
       </c>
       <c r="G9" s="13">
         <f>AVERAGE('risk priority (probability)'!D10:I10)/600</f>
-        <v>5.5E-2</v>
+        <v>5.1388888888888887E-2</v>
       </c>
       <c r="H9" s="13">
         <f>AVERAGE('risk priority (impact)'!E11:J11)/600</f>
-        <v>0.13500000000000001</v>
+        <v>0.13472222222222222</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="0"/>
-        <v>7.4250000000000002E-3</v>
+        <v>6.9232253086419747E-3</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>104</v>
@@ -1666,15 +1677,15 @@
       </c>
       <c r="G10" s="13">
         <f>AVERAGE('risk priority (probability)'!D11:I11)/600</f>
-        <v>8.666666666666667E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="H10" s="13">
         <f>AVERAGE('risk priority (impact)'!E12:J12)/600</f>
-        <v>0.11299999999999999</v>
+        <v>0.10527777777777778</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" si="0"/>
-        <v>9.7933333333333327E-3</v>
+        <v>8.1882716049382718E-3</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>105</v>
@@ -1710,15 +1721,15 @@
       </c>
       <c r="G11" s="13">
         <f>AVERAGE('risk priority (probability)'!D12:I12)/600</f>
-        <v>5.1666666666666666E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="H11" s="13">
         <f>AVERAGE('risk priority (impact)'!E13:J13)/600</f>
-        <v>0.11333333333333333</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>5.8555555555555548E-3</v>
+        <v>5.4012345679012351E-3</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>106</v>
@@ -1754,15 +1765,15 @@
       </c>
       <c r="G12" s="13">
         <f>AVERAGE('risk priority (probability)'!D13:I13)/600</f>
-        <v>0.06</v>
+        <v>5.6944444444444443E-2</v>
       </c>
       <c r="H12" s="13">
         <f>AVERAGE('risk priority (impact)'!E14:J14)/600</f>
-        <v>0.10633333333333334</v>
+        <v>9.6944444444444444E-2</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" si="0"/>
-        <v>6.3800000000000003E-3</v>
+        <v>5.5204475308641976E-3</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
@@ -1794,15 +1805,15 @@
       <c r="F13" s="17"/>
       <c r="G13" s="13">
         <f>AVERAGE('risk priority (probability)'!D14:I14)/600</f>
-        <v>9.6666666666666665E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="13">
         <f>AVERAGE('risk priority (impact)'!E15:J15)/600</f>
-        <v>0.11333333333333333</v>
+        <v>0.1125</v>
       </c>
       <c r="I13" s="13">
         <f t="shared" si="0"/>
-        <v>1.0955555555555555E-2</v>
+        <v>1.1250000000000001E-2</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>107</v>
@@ -1836,15 +1847,15 @@
       <c r="F14" s="17"/>
       <c r="G14" s="13">
         <f>AVERAGE('risk priority (probability)'!D15:I15)/600</f>
-        <v>0.10333333333333333</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="H14" s="13">
         <f>AVERAGE('risk priority (impact)'!E16:J16)/600</f>
-        <v>0.10666666666666667</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" si="0"/>
-        <v>1.1022222222222223E-2</v>
+        <v>1.1736111111111112E-2</v>
       </c>
       <c r="J14" s="58" t="s">
         <v>108</v>
@@ -1880,15 +1891,15 @@
       </c>
       <c r="G15" s="13">
         <f>AVERAGE('risk priority (probability)'!D16:I16)/600</f>
-        <v>0.13500000000000001</v>
+        <v>0.11527777777777778</v>
       </c>
       <c r="H15" s="13">
         <f>AVERAGE('risk priority (impact)'!E17:J17)/600</f>
-        <v>0.08</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="I15" s="13">
         <f t="shared" si="0"/>
-        <v>1.0800000000000001E-2</v>
+        <v>8.0054012345679004E-3</v>
       </c>
       <c r="J15" s="58"/>
       <c r="K15" s="16"/>
@@ -1922,15 +1933,15 @@
       </c>
       <c r="G16" s="13">
         <f>AVERAGE('risk priority (probability)'!D17:I17)/600</f>
-        <v>9.6666666666666665E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="H16" s="13">
         <f>AVERAGE('risk priority (impact)'!E18:J18)/600</f>
-        <v>0.11966666666666666</v>
+        <v>0.11361111111111112</v>
       </c>
       <c r="I16" s="13">
         <f t="shared" si="0"/>
-        <v>1.1567777777777776E-2</v>
+        <v>1.0098765432098767E-2</v>
       </c>
       <c r="J16" s="58" t="s">
         <v>109</v>
@@ -1966,15 +1977,15 @@
       </c>
       <c r="G17" s="13">
         <f>AVERAGE('risk priority (probability)'!D18:I18)/600</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="H17" s="13">
         <f>AVERAGE('risk priority (impact)'!E19:J19)/600</f>
-        <v>7.6666666666666661E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" si="0"/>
-        <v>6.3888888888888884E-3</v>
+        <v>5.6172839506172844E-3</v>
       </c>
       <c r="J17" s="58"/>
       <c r="K17" s="16"/>
@@ -2008,15 +2019,15 @@
       </c>
       <c r="G18" s="13">
         <f>AVERAGE('risk priority (probability)'!D19:I19)/600</f>
-        <v>5.6666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H18" s="13">
         <f>AVERAGE('risk priority (impact)'!E20:J20)/600</f>
-        <v>6.3333333333333339E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" si="0"/>
-        <v>3.5888888888888889E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="J18" s="58"/>
       <c r="K18" s="16"/>
@@ -2048,15 +2059,15 @@
       </c>
       <c r="G19" s="13">
         <f>AVERAGE('risk priority (probability)'!D20:I20)/600</f>
-        <v>0.10666666666666667</v>
+        <v>0.10555555555555556</v>
       </c>
       <c r="H19" s="13">
         <f>AVERAGE('risk priority (impact)'!E21:J21)/600</f>
-        <v>8.666666666666667E-2</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="I19" s="13">
         <f t="shared" si="0"/>
-        <v>9.2444444444444458E-3</v>
+        <v>9.0895061728395055E-3</v>
       </c>
       <c r="J19" s="58"/>
       <c r="K19" s="16"/>
@@ -2090,15 +2101,15 @@
       </c>
       <c r="G20" s="13">
         <f>AVERAGE('risk priority (probability)'!D21:I21)/600</f>
-        <v>0.12</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="H20" s="13">
         <f>AVERAGE('risk priority (impact)'!E22:J22)/600</f>
-        <v>0.09</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" si="0"/>
-        <v>1.0799999999999999E-2</v>
+        <v>9.8765432098765447E-3</v>
       </c>
       <c r="J20" s="59" t="s">
         <v>110</v>
@@ -2134,15 +2145,15 @@
       </c>
       <c r="G21" s="13">
         <f>AVERAGE('risk priority (probability)'!D22:I22)/600</f>
-        <v>0.11333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="13">
         <f>AVERAGE('risk priority (impact)'!E23:J23)/600</f>
-        <v>0.12166666666666667</v>
+        <v>0.10972222222222222</v>
       </c>
       <c r="I21" s="13">
         <f t="shared" si="0"/>
-        <v>1.3788888888888889E-2</v>
+        <v>1.0972222222222223E-2</v>
       </c>
       <c r="J21" s="58" t="s">
         <v>100</v>
@@ -2176,15 +2187,15 @@
       </c>
       <c r="G22" s="13">
         <f>AVERAGE('risk priority (probability)'!D23:I23)/600</f>
-        <v>0.12</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="H22" s="13">
         <f>AVERAGE('risk priority (impact)'!E24:J24)/600</f>
-        <v>0.12</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="I22" s="13">
         <f t="shared" si="0"/>
-        <v>1.44E-2</v>
+        <v>1.3603395061728396E-2</v>
       </c>
       <c r="J22" s="58" t="s">
         <v>111</v>
@@ -2218,15 +2229,15 @@
       </c>
       <c r="G23" s="13">
         <f>AVERAGE('risk priority (probability)'!D24:I24)/600</f>
-        <v>0.09</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="H23" s="13">
         <f>AVERAGE('risk priority (impact)'!E25:J25)/600</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="0"/>
-        <v>7.1999999999999998E-3</v>
+        <v>5.8333333333333336E-3</v>
       </c>
       <c r="J23" s="58" t="s">
         <v>112</v>
@@ -2260,15 +2271,15 @@
       </c>
       <c r="G24" s="13">
         <f>AVERAGE('risk priority (probability)'!D25:I25)/600</f>
-        <v>8.666666666666667E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H24" s="13">
         <f>AVERAGE('risk priority (impact)'!E26:J26)/600</f>
-        <v>0.12833333333333333</v>
+        <v>0.12916666666666668</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" si="0"/>
-        <v>1.1122222222222223E-2</v>
+        <v>9.6874999999999999E-3</v>
       </c>
       <c r="J24" s="59" t="s">
         <v>113</v>
@@ -2304,15 +2315,15 @@
       </c>
       <c r="G25" s="13">
         <f>AVERAGE('risk priority (probability)'!D26:I26)/600</f>
-        <v>9.3333333333333338E-2</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="H25" s="13">
         <f>AVERAGE('risk priority (impact)'!E27:J27)/600</f>
-        <v>8.3333333333333329E-2</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="I25" s="13">
         <f t="shared" si="0"/>
-        <v>7.7777777777777776E-3</v>
+        <v>6.9367283950617286E-3</v>
       </c>
       <c r="J25" s="58"/>
       <c r="K25" s="16"/>
@@ -2344,15 +2355,15 @@
       </c>
       <c r="G26" s="13">
         <f>AVERAGE('risk priority (probability)'!D27:I27)/600</f>
-        <v>0.1</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="H26" s="13">
         <f>AVERAGE('risk priority (impact)'!E28:J28)/600</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I26" s="13">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>7.083333333333333E-3</v>
       </c>
       <c r="J26" s="58"/>
       <c r="K26" s="16"/>
@@ -2551,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2593,7 +2604,9 @@
       <c r="F4" s="58">
         <v>60</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58">
+        <v>40</v>
+      </c>
       <c r="H4" s="58">
         <v>50</v>
       </c>
@@ -2614,7 +2627,9 @@
       <c r="F5" s="58">
         <v>40</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58">
+        <v>50</v>
+      </c>
       <c r="H5" s="58">
         <v>30</v>
       </c>
@@ -2635,7 +2650,9 @@
       <c r="F6" s="58">
         <v>40</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58">
+        <v>60</v>
+      </c>
       <c r="H6" s="58">
         <v>50</v>
       </c>
@@ -2656,7 +2673,9 @@
       <c r="F7" s="58">
         <v>60</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58">
+        <v>30</v>
+      </c>
       <c r="H7" s="58">
         <v>60</v>
       </c>
@@ -2677,7 +2696,9 @@
       <c r="F8" s="58">
         <v>50</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="58">
+        <v>50</v>
+      </c>
       <c r="H8" s="58">
         <v>50</v>
       </c>
@@ -2698,7 +2719,9 @@
       <c r="F9" s="58">
         <v>50</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="58">
+        <v>50</v>
+      </c>
       <c r="H9" s="58">
         <v>60</v>
       </c>
@@ -2719,7 +2742,9 @@
       <c r="F10" s="58">
         <v>40</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58">
+        <v>20</v>
+      </c>
       <c r="H10" s="58">
         <v>30</v>
       </c>
@@ -2740,7 +2765,9 @@
       <c r="F11" s="58">
         <v>50</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58">
+        <v>20</v>
+      </c>
       <c r="H11" s="58">
         <v>50</v>
       </c>
@@ -2761,7 +2788,9 @@
       <c r="F12" s="58">
         <v>45</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="58">
+        <v>20</v>
+      </c>
       <c r="H12" s="58">
         <v>30</v>
       </c>
@@ -2782,7 +2811,9 @@
       <c r="F13" s="58">
         <v>30</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="58">
+        <v>25</v>
+      </c>
       <c r="H13" s="58">
         <v>70</v>
       </c>
@@ -2803,7 +2834,9 @@
       <c r="F14" s="58">
         <v>80</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="58">
+        <v>70</v>
+      </c>
       <c r="H14" s="58">
         <v>60</v>
       </c>
@@ -2824,7 +2857,9 @@
       <c r="F15" s="58">
         <v>85</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="58">
+        <v>80</v>
+      </c>
       <c r="H15" s="58">
         <v>50</v>
       </c>
@@ -2845,7 +2880,9 @@
       <c r="F16" s="58">
         <v>80</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="58">
+        <v>10</v>
+      </c>
       <c r="H16" s="58">
         <v>80</v>
       </c>
@@ -2866,7 +2903,9 @@
       <c r="F17" s="58">
         <v>60</v>
       </c>
-      <c r="G17" s="58"/>
+      <c r="G17" s="58">
+        <v>30</v>
+      </c>
       <c r="H17" s="58">
         <v>30</v>
       </c>
@@ -2887,7 +2926,9 @@
       <c r="F18" s="58">
         <v>70</v>
       </c>
-      <c r="G18" s="58"/>
+      <c r="G18" s="58">
+        <v>30</v>
+      </c>
       <c r="H18" s="58">
         <v>30</v>
       </c>
@@ -2908,7 +2949,9 @@
       <c r="F19" s="58">
         <v>40</v>
       </c>
-      <c r="G19" s="58"/>
+      <c r="G19" s="58">
+        <v>55</v>
+      </c>
       <c r="H19" s="58">
         <v>30</v>
       </c>
@@ -2929,7 +2972,9 @@
       <c r="F20" s="58">
         <v>80</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="58">
+        <v>60</v>
+      </c>
       <c r="H20" s="58">
         <v>60</v>
       </c>
@@ -2950,7 +2995,9 @@
       <c r="F21" s="58">
         <v>90</v>
       </c>
-      <c r="G21" s="58"/>
+      <c r="G21" s="58">
+        <v>40</v>
+      </c>
       <c r="H21" s="58">
         <v>90</v>
       </c>
@@ -2971,7 +3018,9 @@
       <c r="F22" s="58">
         <v>70</v>
       </c>
-      <c r="G22" s="58"/>
+      <c r="G22" s="58">
+        <v>20</v>
+      </c>
       <c r="H22" s="58">
         <v>70</v>
       </c>
@@ -2992,7 +3041,9 @@
       <c r="F23" s="58">
         <v>80</v>
       </c>
-      <c r="G23" s="58"/>
+      <c r="G23" s="58">
+        <v>50</v>
+      </c>
       <c r="H23" s="58">
         <v>80</v>
       </c>
@@ -3013,7 +3064,9 @@
       <c r="F24" s="58">
         <v>70</v>
       </c>
-      <c r="G24" s="58"/>
+      <c r="G24" s="58">
+        <v>10</v>
+      </c>
       <c r="H24" s="58">
         <v>50</v>
       </c>
@@ -3034,7 +3087,9 @@
       <c r="F25" s="58">
         <v>65</v>
       </c>
-      <c r="G25" s="58"/>
+      <c r="G25" s="58">
+        <v>10</v>
+      </c>
       <c r="H25" s="58">
         <v>30</v>
       </c>
@@ -3055,7 +3110,9 @@
       <c r="F26" s="58">
         <v>60</v>
       </c>
-      <c r="G26" s="58"/>
+      <c r="G26" s="58">
+        <v>30</v>
+      </c>
       <c r="H26" s="58">
         <v>60</v>
       </c>
@@ -3076,7 +3133,9 @@
       <c r="F27" s="58">
         <v>70</v>
       </c>
-      <c r="G27" s="58"/>
+      <c r="G27" s="58">
+        <v>40</v>
+      </c>
       <c r="H27" s="58">
         <v>40</v>
       </c>
@@ -3184,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3226,7 +3285,9 @@
       <c r="G5" s="58">
         <v>80</v>
       </c>
-      <c r="H5" s="58"/>
+      <c r="H5" s="58">
+        <v>80</v>
+      </c>
       <c r="I5" s="58">
         <v>80</v>
       </c>
@@ -3247,7 +3308,9 @@
       <c r="G6" s="58">
         <v>60</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="58">
+        <v>50</v>
+      </c>
       <c r="I6" s="58">
         <v>60</v>
       </c>
@@ -3268,7 +3331,9 @@
       <c r="G7" s="58">
         <v>60</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="58">
+        <v>70</v>
+      </c>
       <c r="I7" s="58">
         <v>60</v>
       </c>
@@ -3289,7 +3354,9 @@
       <c r="G8" s="58">
         <v>80</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="58">
+        <v>60</v>
+      </c>
       <c r="I8" s="58">
         <v>80</v>
       </c>
@@ -3310,7 +3377,9 @@
       <c r="G9" s="58">
         <v>70</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="58">
+        <v>50</v>
+      </c>
       <c r="I9" s="58">
         <v>70</v>
       </c>
@@ -3331,7 +3400,9 @@
       <c r="G10" s="58">
         <v>70</v>
       </c>
-      <c r="H10" s="58"/>
+      <c r="H10" s="58">
+        <v>80</v>
+      </c>
       <c r="I10" s="58">
         <v>70</v>
       </c>
@@ -3352,7 +3423,9 @@
       <c r="G11" s="58">
         <v>70</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="58">
+        <v>80</v>
+      </c>
       <c r="I11" s="58">
         <v>70</v>
       </c>
@@ -3373,7 +3446,9 @@
       <c r="G12" s="58">
         <v>70</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="58">
+        <v>40</v>
+      </c>
       <c r="I12" s="58">
         <v>70</v>
       </c>
@@ -3394,7 +3469,9 @@
       <c r="G13" s="58">
         <v>70</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="58">
+        <v>60</v>
+      </c>
       <c r="I13" s="58">
         <v>70</v>
       </c>
@@ -3415,7 +3492,9 @@
       <c r="G14" s="58">
         <v>70</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="58">
+        <v>30</v>
+      </c>
       <c r="I14" s="58">
         <v>70</v>
       </c>
@@ -3436,7 +3515,9 @@
       <c r="G15" s="58">
         <v>80</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="58">
+        <v>65</v>
+      </c>
       <c r="I15" s="58">
         <v>80</v>
       </c>
@@ -3457,7 +3538,9 @@
       <c r="G16" s="58">
         <v>70</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="58">
+        <v>70</v>
+      </c>
       <c r="I16" s="58">
         <v>70</v>
       </c>
@@ -3478,7 +3561,9 @@
       <c r="G17" s="58">
         <v>60</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="58">
+        <v>10</v>
+      </c>
       <c r="I17" s="58">
         <v>60</v>
       </c>
@@ -3499,7 +3584,9 @@
       <c r="G18" s="58">
         <v>70</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="58">
+        <v>50</v>
+      </c>
       <c r="I18" s="58">
         <v>70</v>
       </c>
@@ -3520,7 +3607,9 @@
       <c r="G19" s="58">
         <v>30</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="58">
+        <v>30</v>
+      </c>
       <c r="I19" s="58">
         <v>30</v>
       </c>
@@ -3541,7 +3630,9 @@
       <c r="G20" s="58">
         <v>30</v>
       </c>
-      <c r="H20" s="58"/>
+      <c r="H20" s="58">
+        <v>50</v>
+      </c>
       <c r="I20" s="58">
         <v>30</v>
       </c>
@@ -3562,7 +3653,9 @@
       <c r="G21" s="58">
         <v>50</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="58">
+        <v>50</v>
+      </c>
       <c r="I21" s="58">
         <v>50</v>
       </c>
@@ -3583,7 +3676,9 @@
       <c r="G22" s="58">
         <v>70</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="58">
+        <v>50</v>
+      </c>
       <c r="I22" s="58">
         <v>70</v>
       </c>
@@ -3604,7 +3699,9 @@
       <c r="G23" s="58">
         <v>70</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="58">
+        <v>30</v>
+      </c>
       <c r="I23" s="58">
         <v>70</v>
       </c>
@@ -3625,7 +3722,9 @@
       <c r="G24" s="58">
         <v>70</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="58">
+        <v>70</v>
+      </c>
       <c r="I24" s="58">
         <v>70</v>
       </c>
@@ -3646,7 +3745,9 @@
       <c r="G25" s="58">
         <v>50</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="58">
+        <v>30</v>
+      </c>
       <c r="I25" s="58">
         <v>50</v>
       </c>
@@ -3667,7 +3768,9 @@
       <c r="G26" s="58">
         <v>80</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="58">
+        <v>80</v>
+      </c>
       <c r="I26" s="58">
         <v>80</v>
       </c>
@@ -3688,7 +3791,9 @@
       <c r="G27" s="58">
         <v>50</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="58">
+        <v>40</v>
+      </c>
       <c r="I27" s="58">
         <v>50</v>
       </c>
@@ -3709,7 +3814,9 @@
       <c r="G28" s="58">
         <v>40</v>
       </c>
-      <c r="H28" s="58"/>
+      <c r="H28" s="58">
+        <v>30</v>
+      </c>
       <c r="I28" s="58">
         <v>40</v>
       </c>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -384,6 +384,59 @@
   </si>
   <si>
     <t>Mitigate</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>Report status and progress of project with mentor and customer with rational reasons. 
+Focus on completing necessary documents
+Negotiate with customer about scope of product</t>
+  </si>
+  <si>
+    <t>Announce to stakeholders instantly when team 
+face with difficult</t>
+  </si>
+  <si>
+    <t>Make the meeting for re-estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Make more effort for testing
+.Give module for customer using after each interation relase for collect feedback from customers continuous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ Manage time reasonable to avoid delay progress, no time to complete the remaining fuctions
++ For the function that too hard too complete, Ess team can negotiate with customer to mitigate it or accept it and living with it (it depend on ESS Team's capacity)</t>
+  </si>
+  <si>
+    <t>Leader is responsible for track and understand the thought and aspirations of each member during Ecosystem project.
+-Organize regular meetings for team members raise their thoughts and their aspirations to recapitulate all problems that team member encoutered during project and from that, propose solutions reasonable to solve that problems
+- Plans to reduce work pressure for team members (team building)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Meet regularly with stakeholders to prevent the incorrect target.
+Present clearly perspective and direction of the project team with stakeholders.</t>
+  </si>
+  <si>
+    <t>trainning per week about programming.</t>
+  </si>
+  <si>
+    <t>Utilize provided marterial to collect 
+requirement and verify with customer.</t>
+  </si>
+  <si>
+    <t>Borrow the school's laptop to continue the work or working in pair.</t>
+  </si>
+  <si>
+    <t>Planning complete</t>
   </si>
 </sst>
 </file>
@@ -443,7 +496,7 @@
       <name val="Segoe"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,8 +533,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -669,17 +740,6 @@
       <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
       <right style="dashed">
         <color indexed="64"/>
       </right>
@@ -784,11 +844,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -818,9 +902,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -843,7 +924,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,21 +939,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,16 +968,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,10 +1005,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1254,64 +1350,64 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" style="56" customWidth="1"/>
+    <col min="4" max="4" width="24" style="55" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="47"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -1320,19 +1416,19 @@
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="18" t="s">
@@ -1341,20 +1437,20 @@
       <c r="O2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" ht="45.75">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" ht="130.5" customHeight="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="12">
@@ -1364,27 +1460,29 @@
         <v>62</v>
       </c>
       <c r="G3" s="13">
-        <f>AVERAGE('risk priority (probability)'!D4:I4)/600</f>
-        <v>8.3333333333333329E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D4:I4)/100</f>
+        <v>0.5</v>
       </c>
       <c r="H3" s="13">
-        <f>AVERAGE('risk priority (impact)'!E5:J5)/600</f>
-        <v>0.13611111111111113</v>
-      </c>
-      <c r="I3" s="13">
+        <f>AVERAGE('risk priority (impact)'!E5:J5)/100</f>
+        <v>0.81666666666666676</v>
+      </c>
+      <c r="I3" s="62">
         <f t="shared" ref="I3:I26" si="0">G3*H3</f>
-        <v>1.1342592592592593E-2</v>
-      </c>
-      <c r="J3" s="59" t="s">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="J3" s="58" t="s">
         <v>99</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="22"/>
+      <c r="L3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="21"/>
       <c r="N3" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="5"/>
@@ -1394,13 +1492,13 @@
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="12">
@@ -1410,25 +1508,27 @@
         <v>63</v>
       </c>
       <c r="G4" s="13">
-        <f>AVERAGE('risk priority (probability)'!D5:I5)/600</f>
-        <v>6.9444444444444434E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D5:I5)/100</f>
+        <v>0.41666666666666663</v>
       </c>
       <c r="H4" s="13">
-        <f>AVERAGE('risk priority (impact)'!E6:J6)/600</f>
-        <v>9.8611111111111108E-2</v>
-      </c>
-      <c r="I4" s="13">
+        <f>AVERAGE('risk priority (impact)'!E6:J6)/100</f>
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="I4" s="61">
         <f t="shared" si="0"/>
-        <v>6.8479938271604921E-3</v>
-      </c>
-      <c r="J4" s="58" t="s">
+        <v>0.24652777777777776</v>
+      </c>
+      <c r="J4" s="57" t="s">
         <v>100</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="21"/>
       <c r="N4" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="5"/>
@@ -1444,7 +1544,7 @@
       <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="12">
@@ -1454,16 +1554,16 @@
         <v>64</v>
       </c>
       <c r="G5" s="13">
-        <f>AVERAGE('risk priority (probability)'!D6:I6)/600</f>
-        <v>8.8333333333333333E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D6:I6)/100</f>
+        <v>0.53</v>
       </c>
       <c r="H5" s="13">
-        <f>AVERAGE('risk priority (impact)'!E7:J7)/600</f>
-        <v>0.1125</v>
-      </c>
-      <c r="I5" s="13">
+        <f>AVERAGE('risk priority (impact)'!E7:J7)/100</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
-        <v>9.9375000000000002E-3</v>
+        <v>0.35775000000000007</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>101</v>
@@ -1471,16 +1571,18 @@
       <c r="K5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="21"/>
       <c r="N5" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="30.75">
+    <row r="6" spans="1:17" ht="60.75">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1490,7 +1592,7 @@
       <c r="C6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="12">
@@ -1498,16 +1600,16 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="13">
-        <f>AVERAGE('risk priority (probability)'!D7:I7)/600</f>
-        <v>8.8888888888888892E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D7:I7)/100</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H6" s="13">
-        <f>AVERAGE('risk priority (impact)'!E8:J8)/600</f>
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="I6" s="13">
+        <f>AVERAGE('risk priority (impact)'!E8:J8)/100</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="I6" s="62">
         <f t="shared" si="0"/>
-        <v>1.1358024691358026E-2</v>
+        <v>0.40888888888888891</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>102</v>
@@ -1515,16 +1617,18 @@
       <c r="K6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="22"/>
+      <c r="L6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="21"/>
       <c r="N6" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="45.75">
+    <row r="7" spans="1:17" ht="135.75">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1534,7 +1638,7 @@
       <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="12">
@@ -1544,16 +1648,16 @@
         <v>65</v>
       </c>
       <c r="G7" s="13">
-        <f>AVERAGE('risk priority (probability)'!D8:I8)/600</f>
-        <v>8.611111111111111E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D8:I8)/100</f>
+        <v>0.51666666666666661</v>
       </c>
       <c r="H7" s="13">
-        <f>AVERAGE('risk priority (impact)'!E9:J9)/600</f>
-        <v>0.11944444444444445</v>
-      </c>
-      <c r="I7" s="13">
+        <f>AVERAGE('risk priority (impact)'!E9:J9)/100</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="I7" s="62">
         <f t="shared" si="0"/>
-        <v>1.0285493827160494E-2</v>
+        <v>0.37027777777777776</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>103</v>
@@ -1561,16 +1665,18 @@
       <c r="K7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="21"/>
       <c r="N7" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="30.75">
+    <row r="8" spans="1:17" ht="165.75">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1580,7 +1686,7 @@
       <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="12">
@@ -1590,29 +1696,33 @@
         <v>63</v>
       </c>
       <c r="G8" s="13">
-        <f>AVERAGE('risk priority (probability)'!D9:I9)/600</f>
-        <v>9.7222222222222224E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D9:I9)/100</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H8" s="13">
-        <f>AVERAGE('risk priority (impact)'!E10:J10)/600</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="I8" s="13">
+        <f>AVERAGE('risk priority (impact)'!E10:J10)/100</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I8" s="62">
         <f t="shared" si="0"/>
-        <v>1.1882716049382716E-2</v>
+        <v>0.42777777777777776</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="22"/>
+      <c r="K8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="21"/>
       <c r="N8" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="30.75">
+    <row r="9" spans="1:17" ht="75.75">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1622,7 +1732,7 @@
       <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="12">
@@ -1632,25 +1742,29 @@
         <v>66</v>
       </c>
       <c r="G9" s="13">
-        <f>AVERAGE('risk priority (probability)'!D10:I10)/600</f>
-        <v>5.1388888888888887E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D10:I10)/100</f>
+        <v>0.30833333333333335</v>
       </c>
       <c r="H9" s="13">
-        <f>AVERAGE('risk priority (impact)'!E11:J11)/600</f>
-        <v>0.13472222222222222</v>
-      </c>
-      <c r="I9" s="13">
+        <f>AVERAGE('risk priority (impact)'!E11:J11)/100</f>
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="I9" s="61">
         <f t="shared" si="0"/>
-        <v>6.9232253086419747E-3</v>
+        <v>0.2492361111111111</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22"/>
+      <c r="K9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="21"/>
       <c r="N9" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="5"/>
@@ -1666,7 +1780,7 @@
       <c r="C10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="12">
@@ -1676,25 +1790,29 @@
         <v>67</v>
       </c>
       <c r="G10" s="13">
-        <f>AVERAGE('risk priority (probability)'!D11:I11)/600</f>
-        <v>7.7777777777777779E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D11:I11)/100</f>
+        <v>0.46666666666666662</v>
       </c>
       <c r="H10" s="13">
-        <f>AVERAGE('risk priority (impact)'!E12:J12)/600</f>
-        <v>0.10527777777777778</v>
-      </c>
-      <c r="I10" s="13">
+        <f>AVERAGE('risk priority (impact)'!E12:J12)/100</f>
+        <v>0.6316666666666666</v>
+      </c>
+      <c r="I10" s="62">
         <f t="shared" si="0"/>
-        <v>8.1882716049382718E-3</v>
+        <v>0.29477777777777769</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22"/>
+      <c r="K10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="21"/>
       <c r="N10" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="5"/>
@@ -1710,7 +1828,7 @@
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="12">
@@ -1720,41 +1838,43 @@
         <v>68</v>
       </c>
       <c r="G11" s="13">
-        <f>AVERAGE('risk priority (probability)'!D12:I12)/600</f>
-        <v>4.8611111111111112E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D12:I12)/100</f>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H11" s="13">
-        <f>AVERAGE('risk priority (impact)'!E13:J13)/600</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="I11" s="13">
+        <f>AVERAGE('risk priority (impact)'!E13:J13)/100</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="I11" s="61">
         <f t="shared" si="0"/>
-        <v>5.4012345679012351E-3</v>
+        <v>0.19444444444444448</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>106</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="21"/>
       <c r="N11" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
+    <row r="12" spans="1:17" ht="30.75">
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="12">
@@ -1764,23 +1884,27 @@
         <v>63</v>
       </c>
       <c r="G12" s="13">
-        <f>AVERAGE('risk priority (probability)'!D13:I13)/600</f>
-        <v>5.6944444444444443E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D13:I13)/100</f>
+        <v>0.34166666666666662</v>
       </c>
       <c r="H12" s="13">
-        <f>AVERAGE('risk priority (impact)'!E14:J14)/600</f>
-        <v>9.6944444444444444E-2</v>
-      </c>
-      <c r="I12" s="13">
+        <f>AVERAGE('risk priority (impact)'!E14:J14)/100</f>
+        <v>0.58166666666666667</v>
+      </c>
+      <c r="I12" s="61">
         <f t="shared" si="0"/>
-        <v>5.5204475308641976E-3</v>
+        <v>0.19873611111111109</v>
       </c>
       <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="22"/>
+      <c r="K12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="21"/>
       <c r="N12" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="5"/>
@@ -1790,13 +1914,13 @@
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="12">
@@ -1804,23 +1928,23 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="13">
-        <f>AVERAGE('risk priority (probability)'!D14:I14)/600</f>
-        <v>0.1</v>
+        <f>AVERAGE('risk priority (probability)'!D14:I14)/100</f>
+        <v>0.6</v>
       </c>
       <c r="H13" s="13">
-        <f>AVERAGE('risk priority (impact)'!E15:J15)/600</f>
-        <v>0.1125</v>
-      </c>
-      <c r="I13" s="13">
+        <f>AVERAGE('risk priority (impact)'!E15:J15)/100</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I13" s="62">
         <f t="shared" si="0"/>
-        <v>1.1250000000000001E-2</v>
-      </c>
-      <c r="J13" s="58" t="s">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J13" s="57" t="s">
         <v>107</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="22"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="11" t="s">
         <v>116</v>
       </c>
@@ -1832,13 +1956,13 @@
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="12">
@@ -1846,23 +1970,23 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="13">
-        <f>AVERAGE('risk priority (probability)'!D15:I15)/600</f>
-        <v>0.10833333333333334</v>
+        <f>AVERAGE('risk priority (probability)'!D15:I15)/100</f>
+        <v>0.65</v>
       </c>
       <c r="H14" s="13">
-        <f>AVERAGE('risk priority (impact)'!E16:J16)/600</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="I14" s="13">
+        <f>AVERAGE('risk priority (impact)'!E16:J16)/100</f>
+        <v>0.65</v>
+      </c>
+      <c r="I14" s="62">
         <f t="shared" si="0"/>
-        <v>1.1736111111111112E-2</v>
-      </c>
-      <c r="J14" s="58" t="s">
+        <v>0.42250000000000004</v>
+      </c>
+      <c r="J14" s="57" t="s">
         <v>108</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="11" t="s">
         <v>116</v>
       </c>
@@ -1874,13 +1998,13 @@
       <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="12">
@@ -1890,21 +2014,21 @@
         <v>63</v>
       </c>
       <c r="G15" s="13">
-        <f>AVERAGE('risk priority (probability)'!D16:I16)/600</f>
-        <v>0.11527777777777778</v>
+        <f>AVERAGE('risk priority (probability)'!D16:I16)/100</f>
+        <v>0.69166666666666676</v>
       </c>
       <c r="H15" s="13">
-        <f>AVERAGE('risk priority (impact)'!E17:J17)/600</f>
-        <v>6.9444444444444434E-2</v>
-      </c>
-      <c r="I15" s="13">
+        <f>AVERAGE('risk priority (impact)'!E17:J17)/100</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="I15" s="62">
         <f t="shared" si="0"/>
-        <v>8.0054012345679004E-3</v>
-      </c>
-      <c r="J15" s="58"/>
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="J15" s="57"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="11" t="s">
         <v>116</v>
       </c>
@@ -1916,13 +2040,13 @@
       <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="12">
@@ -1932,23 +2056,25 @@
         <v>67</v>
       </c>
       <c r="G16" s="13">
-        <f>AVERAGE('risk priority (probability)'!D17:I17)/600</f>
-        <v>8.8888888888888892E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D17:I17)/100</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H16" s="13">
-        <f>AVERAGE('risk priority (impact)'!E18:J18)/600</f>
-        <v>0.11361111111111112</v>
-      </c>
-      <c r="I16" s="13">
+        <f>AVERAGE('risk priority (impact)'!E18:J18)/100</f>
+        <v>0.68166666666666675</v>
+      </c>
+      <c r="I16" s="62">
         <f t="shared" si="0"/>
-        <v>1.0098765432098767E-2</v>
-      </c>
-      <c r="J16" s="58" t="s">
+        <v>0.36355555555555558</v>
+      </c>
+      <c r="J16" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22"/>
+      <c r="K16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="11" t="s">
         <v>116</v>
       </c>
@@ -1960,13 +2086,13 @@
       <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="12">
@@ -1976,21 +2102,21 @@
         <v>69</v>
       </c>
       <c r="G17" s="13">
-        <f>AVERAGE('risk priority (probability)'!D18:I18)/600</f>
-        <v>7.7777777777777779E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D18:I18)/100</f>
+        <v>0.46666666666666662</v>
       </c>
       <c r="H17" s="13">
-        <f>AVERAGE('risk priority (impact)'!E19:J19)/600</f>
-        <v>7.2222222222222229E-2</v>
-      </c>
-      <c r="I17" s="13">
+        <f>AVERAGE('risk priority (impact)'!E19:J19)/100</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I17" s="61">
         <f t="shared" si="0"/>
-        <v>5.6172839506172844E-3</v>
-      </c>
-      <c r="J17" s="58"/>
+        <v>0.20222222222222222</v>
+      </c>
+      <c r="J17" s="57"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="11" t="s">
         <v>116</v>
       </c>
@@ -2002,13 +2128,13 @@
       <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="12">
@@ -2018,21 +2144,23 @@
         <v>68</v>
       </c>
       <c r="G18" s="13">
-        <f>AVERAGE('risk priority (probability)'!D19:I19)/600</f>
-        <v>6.25E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D19:I19)/100</f>
+        <v>0.375</v>
       </c>
       <c r="H18" s="13">
-        <f>AVERAGE('risk priority (impact)'!E20:J20)/600</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I18" s="13">
+        <f>AVERAGE('risk priority (impact)'!E20:J20)/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="60">
         <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="22"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="11" t="s">
         <v>116</v>
       </c>
@@ -2044,11 +2172,11 @@
       <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="51" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="12">
@@ -2058,21 +2186,23 @@
         <v>70</v>
       </c>
       <c r="G19" s="13">
-        <f>AVERAGE('risk priority (probability)'!D20:I20)/600</f>
-        <v>0.10555555555555556</v>
+        <f>AVERAGE('risk priority (probability)'!D20:I20)/100</f>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H19" s="13">
-        <f>AVERAGE('risk priority (impact)'!E21:J21)/600</f>
-        <v>8.611111111111111E-2</v>
-      </c>
-      <c r="I19" s="13">
+        <f>AVERAGE('risk priority (impact)'!E21:J21)/100</f>
+        <v>0.51666666666666661</v>
+      </c>
+      <c r="I19" s="61">
         <f t="shared" si="0"/>
-        <v>9.0895061728395055E-3</v>
-      </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="22"/>
+        <v>0.32722222222222219</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="11" t="s">
         <v>116</v>
       </c>
@@ -2084,13 +2214,13 @@
       <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="12">
@@ -2100,23 +2230,25 @@
         <v>62</v>
       </c>
       <c r="G20" s="13">
-        <f>AVERAGE('risk priority (probability)'!D21:I21)/600</f>
-        <v>0.11111111111111112</v>
+        <f>AVERAGE('risk priority (probability)'!D21:I21)/100</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="H20" s="13">
-        <f>AVERAGE('risk priority (impact)'!E22:J22)/600</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="I20" s="13">
+        <f>AVERAGE('risk priority (impact)'!E22:J22)/100</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I20" s="62">
         <f t="shared" si="0"/>
-        <v>9.8765432098765447E-3</v>
-      </c>
-      <c r="J20" s="59" t="s">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="J20" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="22"/>
+      <c r="K20" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="11" t="s">
         <v>116</v>
       </c>
@@ -2128,13 +2260,13 @@
       <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="12">
@@ -2144,23 +2276,25 @@
         <v>68</v>
       </c>
       <c r="G21" s="13">
-        <f>AVERAGE('risk priority (probability)'!D22:I22)/600</f>
-        <v>0.1</v>
+        <f>AVERAGE('risk priority (probability)'!D22:I22)/100</f>
+        <v>0.6</v>
       </c>
       <c r="H21" s="13">
-        <f>AVERAGE('risk priority (impact)'!E23:J23)/600</f>
-        <v>0.10972222222222222</v>
-      </c>
-      <c r="I21" s="13">
+        <f>AVERAGE('risk priority (impact)'!E23:J23)/100</f>
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="I21" s="62">
         <f t="shared" si="0"/>
-        <v>1.0972222222222223E-2</v>
-      </c>
-      <c r="J21" s="58" t="s">
+        <v>0.39499999999999996</v>
+      </c>
+      <c r="J21" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="22"/>
+      <c r="K21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="11" t="s">
         <v>116</v>
       </c>
@@ -2172,11 +2306,11 @@
       <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="12">
@@ -2186,23 +2320,23 @@
         <v>65</v>
       </c>
       <c r="G22" s="13">
-        <f>AVERAGE('risk priority (probability)'!D23:I23)/600</f>
-        <v>0.11388888888888889</v>
+        <f>AVERAGE('risk priority (probability)'!D23:I23)/100</f>
+        <v>0.68333333333333324</v>
       </c>
       <c r="H22" s="13">
-        <f>AVERAGE('risk priority (impact)'!E24:J24)/600</f>
-        <v>0.11944444444444445</v>
-      </c>
-      <c r="I22" s="13">
+        <f>AVERAGE('risk priority (impact)'!E24:J24)/100</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="I22" s="62">
         <f t="shared" si="0"/>
-        <v>1.3603395061728396E-2</v>
-      </c>
-      <c r="J22" s="58" t="s">
+        <v>0.48972222222222217</v>
+      </c>
+      <c r="J22" s="57" t="s">
         <v>111</v>
       </c>
       <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="11" t="s">
         <v>116</v>
       </c>
@@ -2214,11 +2348,11 @@
       <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="12">
@@ -2228,23 +2362,25 @@
         <v>63</v>
       </c>
       <c r="G23" s="13">
-        <f>AVERAGE('risk priority (probability)'!D24:I24)/600</f>
-        <v>7.7777777777777779E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D24:I24)/100</f>
+        <v>0.46666666666666662</v>
       </c>
       <c r="H23" s="13">
-        <f>AVERAGE('risk priority (impact)'!E25:J25)/600</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I23" s="13">
+        <f>AVERAGE('risk priority (impact)'!E25:J25)/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="I23" s="61">
         <f t="shared" si="0"/>
-        <v>5.8333333333333336E-3</v>
-      </c>
-      <c r="J23" s="58" t="s">
+        <v>0.21</v>
+      </c>
+      <c r="J23" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="22"/>
+      <c r="K23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="11" t="s">
         <v>116</v>
       </c>
@@ -2256,11 +2392,11 @@
       <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="12">
@@ -2270,23 +2406,23 @@
         <v>66</v>
       </c>
       <c r="G24" s="13">
-        <f>AVERAGE('risk priority (probability)'!D25:I25)/600</f>
-        <v>7.4999999999999997E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D25:I25)/100</f>
+        <v>0.45</v>
       </c>
       <c r="H24" s="13">
-        <f>AVERAGE('risk priority (impact)'!E26:J26)/600</f>
-        <v>0.12916666666666668</v>
-      </c>
-      <c r="I24" s="13">
+        <f>AVERAGE('risk priority (impact)'!E26:J26)/100</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I24" s="61">
         <f t="shared" si="0"/>
-        <v>9.6874999999999999E-3</v>
-      </c>
-      <c r="J24" s="59" t="s">
+        <v>0.34875</v>
+      </c>
+      <c r="J24" s="58" t="s">
         <v>113</v>
       </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="22"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="11" t="s">
         <v>116</v>
       </c>
@@ -2298,13 +2434,13 @@
       <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="12">
@@ -2314,21 +2450,21 @@
         <v>71</v>
       </c>
       <c r="G25" s="13">
-        <f>AVERAGE('risk priority (probability)'!D26:I26)/600</f>
-        <v>8.611111111111111E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D26:I26)/100</f>
+        <v>0.51666666666666661</v>
       </c>
       <c r="H25" s="13">
-        <f>AVERAGE('risk priority (impact)'!E27:J27)/600</f>
-        <v>8.0555555555555561E-2</v>
-      </c>
-      <c r="I25" s="13">
+        <f>AVERAGE('risk priority (impact)'!E27:J27)/100</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="I25" s="61">
         <f t="shared" si="0"/>
-        <v>6.9367283950617286E-3</v>
-      </c>
-      <c r="J25" s="58"/>
+        <v>0.24972222222222221</v>
+      </c>
+      <c r="J25" s="57"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="22"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="11" t="s">
         <v>116</v>
       </c>
@@ -2340,11 +2476,11 @@
       <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="12">
@@ -2354,21 +2490,21 @@
         <v>62</v>
       </c>
       <c r="G26" s="13">
-        <f>AVERAGE('risk priority (probability)'!D27:I27)/600</f>
-        <v>9.4444444444444442E-2</v>
+        <f>AVERAGE('risk priority (probability)'!D27:I27)/100</f>
+        <v>0.56666666666666665</v>
       </c>
       <c r="H26" s="13">
-        <f>AVERAGE('risk priority (impact)'!E28:J28)/600</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I26" s="13">
+        <f>AVERAGE('risk priority (impact)'!E28:J28)/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="I26" s="61">
         <f t="shared" si="0"/>
-        <v>7.083333333333333E-3</v>
-      </c>
-      <c r="J26" s="58"/>
+        <v>0.255</v>
+      </c>
+      <c r="J26" s="57"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="22"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="11" t="s">
         <v>116</v>
       </c>
@@ -2377,19 +2513,19 @@
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2397,18 +2533,18 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2416,18 +2552,18 @@
     </row>
     <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="3"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2435,18 +2571,18 @@
     </row>
     <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="5"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="22"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="7"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2458,79 +2594,86 @@
     <row r="32" spans="1:17">
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="58"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="60" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="67"/>
+      <c r="B38" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="60" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="67"/>
+      <c r="B39" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="26" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="67"/>
+      <c r="B40" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="60" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="68"/>
+      <c r="B41" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2540,7 +2683,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A37:A41"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N30">
@@ -2563,675 +2706,675 @@
   <dimension ref="C3:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G27"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="58">
-        <v>50</v>
-      </c>
-      <c r="E4" s="58">
+      <c r="D4" s="57">
+        <v>50</v>
+      </c>
+      <c r="E4" s="57">
         <v>40</v>
       </c>
-      <c r="F4" s="58">
-        <v>60</v>
-      </c>
-      <c r="G4" s="58">
+      <c r="F4" s="57">
+        <v>60</v>
+      </c>
+      <c r="G4" s="57">
         <v>40</v>
       </c>
-      <c r="H4" s="58">
-        <v>50</v>
-      </c>
-      <c r="I4" s="58">
+      <c r="H4" s="57">
+        <v>50</v>
+      </c>
+      <c r="I4" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="58">
+      <c r="C5" s="57">
         <v>2</v>
       </c>
-      <c r="D5" s="58">
-        <v>50</v>
-      </c>
-      <c r="E5" s="58">
+      <c r="D5" s="57">
+        <v>50</v>
+      </c>
+      <c r="E5" s="57">
         <v>40</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="57">
         <v>40</v>
       </c>
-      <c r="G5" s="58">
-        <v>50</v>
-      </c>
-      <c r="H5" s="58">
+      <c r="G5" s="57">
+        <v>50</v>
+      </c>
+      <c r="H5" s="57">
         <v>30</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="57">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>3</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>68</v>
       </c>
-      <c r="E6" s="58">
-        <v>60</v>
-      </c>
-      <c r="F6" s="58">
+      <c r="E6" s="57">
+        <v>60</v>
+      </c>
+      <c r="F6" s="57">
         <v>40</v>
       </c>
-      <c r="G6" s="58">
-        <v>60</v>
-      </c>
-      <c r="H6" s="58">
-        <v>50</v>
-      </c>
-      <c r="I6" s="58">
+      <c r="G6" s="57">
+        <v>60</v>
+      </c>
+      <c r="H6" s="57">
+        <v>50</v>
+      </c>
+      <c r="I6" s="57">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="58">
+      <c r="C7" s="57">
         <v>4</v>
       </c>
-      <c r="D7" s="58">
-        <v>70</v>
-      </c>
-      <c r="E7" s="58">
+      <c r="D7" s="57">
+        <v>70</v>
+      </c>
+      <c r="E7" s="57">
         <v>40</v>
       </c>
-      <c r="F7" s="58">
-        <v>60</v>
-      </c>
-      <c r="G7" s="58">
+      <c r="F7" s="57">
+        <v>60</v>
+      </c>
+      <c r="G7" s="57">
         <v>30</v>
       </c>
-      <c r="H7" s="58">
-        <v>60</v>
-      </c>
-      <c r="I7" s="58">
+      <c r="H7" s="57">
+        <v>60</v>
+      </c>
+      <c r="I7" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="58">
+      <c r="C8" s="57">
         <v>5</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>80</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="57">
         <v>30</v>
       </c>
-      <c r="F8" s="58">
-        <v>50</v>
-      </c>
-      <c r="G8" s="58">
-        <v>50</v>
-      </c>
-      <c r="H8" s="58">
-        <v>50</v>
-      </c>
-      <c r="I8" s="58">
+      <c r="F8" s="57">
+        <v>50</v>
+      </c>
+      <c r="G8" s="57">
+        <v>50</v>
+      </c>
+      <c r="H8" s="57">
+        <v>50</v>
+      </c>
+      <c r="I8" s="57">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <v>6</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>80</v>
       </c>
-      <c r="E9" s="58">
-        <v>60</v>
-      </c>
-      <c r="F9" s="58">
-        <v>50</v>
-      </c>
-      <c r="G9" s="58">
-        <v>50</v>
-      </c>
-      <c r="H9" s="58">
-        <v>60</v>
-      </c>
-      <c r="I9" s="58">
+      <c r="E9" s="57">
+        <v>60</v>
+      </c>
+      <c r="F9" s="57">
+        <v>50</v>
+      </c>
+      <c r="G9" s="57">
+        <v>50</v>
+      </c>
+      <c r="H9" s="57">
+        <v>60</v>
+      </c>
+      <c r="I9" s="57">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>7</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>25</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>30</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="57">
         <v>40</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="57">
         <v>20</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="57">
         <v>30</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="57">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>8</v>
       </c>
-      <c r="D11" s="58">
-        <v>60</v>
-      </c>
-      <c r="E11" s="58">
-        <v>50</v>
-      </c>
-      <c r="F11" s="58">
-        <v>50</v>
-      </c>
-      <c r="G11" s="58">
+      <c r="D11" s="57">
+        <v>60</v>
+      </c>
+      <c r="E11" s="57">
+        <v>50</v>
+      </c>
+      <c r="F11" s="57">
+        <v>50</v>
+      </c>
+      <c r="G11" s="57">
         <v>20</v>
       </c>
-      <c r="H11" s="58">
-        <v>50</v>
-      </c>
-      <c r="I11" s="58">
+      <c r="H11" s="57">
+        <v>50</v>
+      </c>
+      <c r="I11" s="57">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="58">
+      <c r="C12" s="57">
         <v>9</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>5</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <v>30</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="57">
         <v>45</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="57">
         <v>20</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="57">
         <v>30</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="57">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>10</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>10</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <v>40</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <v>30</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="57">
         <v>25</v>
       </c>
-      <c r="H13" s="58">
-        <v>70</v>
-      </c>
-      <c r="I13" s="58">
+      <c r="H13" s="57">
+        <v>70</v>
+      </c>
+      <c r="I13" s="57">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="58">
+      <c r="C14" s="57">
         <v>11</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>20</v>
       </c>
-      <c r="E14" s="58">
-        <v>50</v>
-      </c>
-      <c r="F14" s="58">
+      <c r="E14" s="57">
+        <v>50</v>
+      </c>
+      <c r="F14" s="57">
         <v>80</v>
       </c>
-      <c r="G14" s="58">
-        <v>70</v>
-      </c>
-      <c r="H14" s="58">
-        <v>60</v>
-      </c>
-      <c r="I14" s="58">
+      <c r="G14" s="57">
+        <v>70</v>
+      </c>
+      <c r="H14" s="57">
+        <v>60</v>
+      </c>
+      <c r="I14" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="58">
+      <c r="C15" s="57">
         <v>12</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>10</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="57">
         <v>80</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="57">
         <v>85</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="57">
         <v>80</v>
       </c>
-      <c r="H15" s="58">
-        <v>50</v>
-      </c>
-      <c r="I15" s="58">
+      <c r="H15" s="57">
+        <v>50</v>
+      </c>
+      <c r="I15" s="57">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="58">
+      <c r="C16" s="57">
         <v>13</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="57">
         <v>85</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="57">
         <v>80</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="57">
         <v>80</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="57">
         <v>10</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="57">
         <v>80</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="58">
+      <c r="C17" s="57">
         <v>14</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>80</v>
       </c>
-      <c r="E17" s="58">
-        <v>60</v>
-      </c>
-      <c r="F17" s="58">
-        <v>60</v>
-      </c>
-      <c r="G17" s="58">
+      <c r="E17" s="57">
+        <v>60</v>
+      </c>
+      <c r="F17" s="57">
+        <v>60</v>
+      </c>
+      <c r="G17" s="57">
         <v>30</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="57">
         <v>30</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <v>15</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="57">
         <v>30</v>
       </c>
-      <c r="E18" s="58">
-        <v>50</v>
-      </c>
-      <c r="F18" s="58">
-        <v>70</v>
-      </c>
-      <c r="G18" s="58">
+      <c r="E18" s="57">
+        <v>50</v>
+      </c>
+      <c r="F18" s="57">
+        <v>70</v>
+      </c>
+      <c r="G18" s="57">
         <v>30</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="57">
         <v>30</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="58">
+      <c r="C19" s="57">
         <v>16</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="57">
         <v>30</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="57">
         <v>30</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="57">
         <v>40</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="57">
         <v>55</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="57">
         <v>30</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="57">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="58">
+      <c r="C20" s="57">
         <v>17</v>
       </c>
-      <c r="D20" s="58">
-        <v>50</v>
-      </c>
-      <c r="E20" s="58">
-        <v>50</v>
-      </c>
-      <c r="F20" s="58">
+      <c r="D20" s="57">
+        <v>50</v>
+      </c>
+      <c r="E20" s="57">
+        <v>50</v>
+      </c>
+      <c r="F20" s="57">
         <v>80</v>
       </c>
-      <c r="G20" s="58">
-        <v>60</v>
-      </c>
-      <c r="H20" s="58">
-        <v>60</v>
-      </c>
-      <c r="I20" s="58">
+      <c r="G20" s="57">
+        <v>60</v>
+      </c>
+      <c r="H20" s="57">
+        <v>60</v>
+      </c>
+      <c r="I20" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="58">
+      <c r="C21" s="57">
         <v>18</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="57">
         <v>20</v>
       </c>
-      <c r="E21" s="58">
-        <v>70</v>
-      </c>
-      <c r="F21" s="58">
+      <c r="E21" s="57">
+        <v>70</v>
+      </c>
+      <c r="F21" s="57">
         <v>90</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="57">
         <v>40</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="57">
         <v>90</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="58">
+      <c r="C22" s="57">
         <v>19</v>
       </c>
-      <c r="D22" s="58">
-        <v>70</v>
-      </c>
-      <c r="E22" s="58">
-        <v>60</v>
-      </c>
-      <c r="F22" s="58">
-        <v>70</v>
-      </c>
-      <c r="G22" s="58">
+      <c r="D22" s="57">
+        <v>70</v>
+      </c>
+      <c r="E22" s="57">
+        <v>60</v>
+      </c>
+      <c r="F22" s="57">
+        <v>70</v>
+      </c>
+      <c r="G22" s="57">
         <v>20</v>
       </c>
-      <c r="H22" s="58">
-        <v>70</v>
-      </c>
-      <c r="I22" s="58">
+      <c r="H22" s="57">
+        <v>70</v>
+      </c>
+      <c r="I22" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="58">
+      <c r="C23" s="57">
         <v>20</v>
       </c>
-      <c r="D23" s="58">
-        <v>60</v>
-      </c>
-      <c r="E23" s="58">
-        <v>60</v>
-      </c>
-      <c r="F23" s="58">
+      <c r="D23" s="57">
+        <v>60</v>
+      </c>
+      <c r="E23" s="57">
+        <v>60</v>
+      </c>
+      <c r="F23" s="57">
         <v>80</v>
       </c>
-      <c r="G23" s="58">
-        <v>50</v>
-      </c>
-      <c r="H23" s="58">
+      <c r="G23" s="57">
+        <v>50</v>
+      </c>
+      <c r="H23" s="57">
         <v>80</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="58">
+      <c r="C24" s="57">
         <v>21</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="57">
         <v>20</v>
       </c>
-      <c r="E24" s="58">
-        <v>60</v>
-      </c>
-      <c r="F24" s="58">
-        <v>70</v>
-      </c>
-      <c r="G24" s="58">
+      <c r="E24" s="57">
+        <v>60</v>
+      </c>
+      <c r="F24" s="57">
+        <v>70</v>
+      </c>
+      <c r="G24" s="57">
         <v>10</v>
       </c>
-      <c r="H24" s="58">
-        <v>50</v>
-      </c>
-      <c r="I24" s="58">
+      <c r="H24" s="57">
+        <v>50</v>
+      </c>
+      <c r="I24" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="58">
+      <c r="C25" s="57">
         <v>22</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="57">
         <v>40</v>
       </c>
-      <c r="E25" s="58">
-        <v>60</v>
-      </c>
-      <c r="F25" s="58">
+      <c r="E25" s="57">
+        <v>60</v>
+      </c>
+      <c r="F25" s="57">
         <v>65</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="57">
         <v>10</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="57">
         <v>30</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="57">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="58">
+      <c r="C26" s="57">
         <v>23</v>
       </c>
-      <c r="D26" s="58">
-        <v>50</v>
-      </c>
-      <c r="E26" s="58">
-        <v>50</v>
-      </c>
-      <c r="F26" s="58">
-        <v>60</v>
-      </c>
-      <c r="G26" s="58">
+      <c r="D26" s="57">
+        <v>50</v>
+      </c>
+      <c r="E26" s="57">
+        <v>50</v>
+      </c>
+      <c r="F26" s="57">
+        <v>60</v>
+      </c>
+      <c r="G26" s="57">
         <v>30</v>
       </c>
-      <c r="H26" s="58">
-        <v>60</v>
-      </c>
-      <c r="I26" s="58">
+      <c r="H26" s="57">
+        <v>60</v>
+      </c>
+      <c r="I26" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="58">
+      <c r="C27" s="57">
         <v>24</v>
       </c>
-      <c r="D27" s="58">
-        <v>60</v>
-      </c>
-      <c r="E27" s="58">
-        <v>60</v>
-      </c>
-      <c r="F27" s="58">
-        <v>70</v>
-      </c>
-      <c r="G27" s="58">
+      <c r="D27" s="57">
+        <v>60</v>
+      </c>
+      <c r="E27" s="57">
+        <v>60</v>
+      </c>
+      <c r="F27" s="57">
+        <v>70</v>
+      </c>
+      <c r="G27" s="57">
         <v>40</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="57">
         <v>40</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,577 +3393,577 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="4:10">
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>1</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="57">
         <v>90</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="57">
         <v>80</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="57">
         <v>80</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="57">
         <v>80</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="57">
         <v>80</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>2</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="57">
         <v>75</v>
       </c>
-      <c r="F6" s="58">
-        <v>50</v>
-      </c>
-      <c r="G6" s="58">
-        <v>60</v>
-      </c>
-      <c r="H6" s="58">
-        <v>50</v>
-      </c>
-      <c r="I6" s="58">
-        <v>60</v>
-      </c>
-      <c r="J6" s="58">
+      <c r="F6" s="57">
+        <v>50</v>
+      </c>
+      <c r="G6" s="57">
+        <v>60</v>
+      </c>
+      <c r="H6" s="57">
+        <v>50</v>
+      </c>
+      <c r="I6" s="57">
+        <v>60</v>
+      </c>
+      <c r="J6" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>3</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="57">
         <v>85</v>
       </c>
-      <c r="F7" s="58">
-        <v>70</v>
-      </c>
-      <c r="G7" s="58">
-        <v>60</v>
-      </c>
-      <c r="H7" s="58">
-        <v>70</v>
-      </c>
-      <c r="I7" s="58">
-        <v>60</v>
-      </c>
-      <c r="J7" s="58">
+      <c r="F7" s="57">
+        <v>70</v>
+      </c>
+      <c r="G7" s="57">
+        <v>60</v>
+      </c>
+      <c r="H7" s="57">
+        <v>70</v>
+      </c>
+      <c r="I7" s="57">
+        <v>60</v>
+      </c>
+      <c r="J7" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>4</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="57">
         <v>80</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="57">
         <v>80</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="57">
         <v>80</v>
       </c>
-      <c r="H8" s="58">
-        <v>60</v>
-      </c>
-      <c r="I8" s="58">
+      <c r="H8" s="57">
+        <v>60</v>
+      </c>
+      <c r="I8" s="57">
         <v>80</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>5</v>
       </c>
-      <c r="E9" s="58">
-        <v>70</v>
-      </c>
-      <c r="F9" s="58">
+      <c r="E9" s="57">
+        <v>70</v>
+      </c>
+      <c r="F9" s="57">
         <v>80</v>
       </c>
-      <c r="G9" s="58">
-        <v>70</v>
-      </c>
-      <c r="H9" s="58">
-        <v>50</v>
-      </c>
-      <c r="I9" s="58">
-        <v>70</v>
-      </c>
-      <c r="J9" s="58">
+      <c r="G9" s="57">
+        <v>70</v>
+      </c>
+      <c r="H9" s="57">
+        <v>50</v>
+      </c>
+      <c r="I9" s="57">
+        <v>70</v>
+      </c>
+      <c r="J9" s="57">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>6</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>90</v>
       </c>
-      <c r="F10" s="58">
-        <v>60</v>
-      </c>
-      <c r="G10" s="58">
-        <v>70</v>
-      </c>
-      <c r="H10" s="58">
+      <c r="F10" s="57">
+        <v>60</v>
+      </c>
+      <c r="G10" s="57">
+        <v>70</v>
+      </c>
+      <c r="H10" s="57">
         <v>80</v>
       </c>
-      <c r="I10" s="58">
-        <v>70</v>
-      </c>
-      <c r="J10" s="58">
+      <c r="I10" s="57">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>7</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="57">
         <v>95</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="57">
         <v>80</v>
       </c>
-      <c r="G11" s="58">
-        <v>70</v>
-      </c>
-      <c r="H11" s="58">
+      <c r="G11" s="57">
+        <v>70</v>
+      </c>
+      <c r="H11" s="57">
         <v>80</v>
       </c>
-      <c r="I11" s="58">
-        <v>70</v>
-      </c>
-      <c r="J11" s="58">
+      <c r="I11" s="57">
+        <v>70</v>
+      </c>
+      <c r="J11" s="57">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>8</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="57">
         <v>89</v>
       </c>
-      <c r="F12" s="58">
-        <v>50</v>
-      </c>
-      <c r="G12" s="58">
-        <v>70</v>
-      </c>
-      <c r="H12" s="58">
+      <c r="F12" s="57">
+        <v>50</v>
+      </c>
+      <c r="G12" s="57">
+        <v>70</v>
+      </c>
+      <c r="H12" s="57">
         <v>40</v>
       </c>
-      <c r="I12" s="58">
-        <v>70</v>
-      </c>
-      <c r="J12" s="58">
+      <c r="I12" s="57">
+        <v>70</v>
+      </c>
+      <c r="J12" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>9</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="57">
         <v>55</v>
       </c>
-      <c r="F13" s="58">
-        <v>70</v>
-      </c>
-      <c r="G13" s="58">
-        <v>70</v>
-      </c>
-      <c r="H13" s="58">
-        <v>60</v>
-      </c>
-      <c r="I13" s="58">
-        <v>70</v>
-      </c>
-      <c r="J13" s="58">
+      <c r="F13" s="57">
+        <v>70</v>
+      </c>
+      <c r="G13" s="57">
+        <v>70</v>
+      </c>
+      <c r="H13" s="57">
+        <v>60</v>
+      </c>
+      <c r="I13" s="57">
+        <v>70</v>
+      </c>
+      <c r="J13" s="57">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>10</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="57">
         <v>69</v>
       </c>
-      <c r="F14" s="58">
-        <v>50</v>
-      </c>
-      <c r="G14" s="58">
-        <v>70</v>
-      </c>
-      <c r="H14" s="58">
+      <c r="F14" s="57">
+        <v>50</v>
+      </c>
+      <c r="G14" s="57">
+        <v>70</v>
+      </c>
+      <c r="H14" s="57">
         <v>30</v>
       </c>
-      <c r="I14" s="58">
-        <v>70</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="I14" s="57">
+        <v>70</v>
+      </c>
+      <c r="J14" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>11</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="57">
         <v>40</v>
       </c>
-      <c r="F15" s="58">
-        <v>70</v>
-      </c>
-      <c r="G15" s="58">
+      <c r="F15" s="57">
+        <v>70</v>
+      </c>
+      <c r="G15" s="57">
         <v>80</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="57">
         <v>65</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="57">
         <v>80</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="58">
+      <c r="D16" s="57">
         <v>12</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="57">
         <v>30</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="57">
         <v>80</v>
       </c>
-      <c r="G16" s="58">
-        <v>70</v>
-      </c>
-      <c r="H16" s="58">
-        <v>70</v>
-      </c>
-      <c r="I16" s="58">
-        <v>70</v>
-      </c>
-      <c r="J16" s="58">
+      <c r="G16" s="57">
+        <v>70</v>
+      </c>
+      <c r="H16" s="57">
+        <v>70</v>
+      </c>
+      <c r="I16" s="57">
+        <v>70</v>
+      </c>
+      <c r="J16" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>13</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="57">
         <v>20</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="57">
         <v>40</v>
       </c>
-      <c r="G17" s="58">
-        <v>60</v>
-      </c>
-      <c r="H17" s="58">
+      <c r="G17" s="57">
+        <v>60</v>
+      </c>
+      <c r="H17" s="57">
         <v>10</v>
       </c>
-      <c r="I17" s="58">
-        <v>60</v>
-      </c>
-      <c r="J17" s="58">
+      <c r="I17" s="57">
+        <v>60</v>
+      </c>
+      <c r="J17" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="58">
+      <c r="D18" s="57">
         <v>14</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="57">
         <v>99</v>
       </c>
-      <c r="F18" s="58">
-        <v>60</v>
-      </c>
-      <c r="G18" s="58">
-        <v>70</v>
-      </c>
-      <c r="H18" s="58">
-        <v>50</v>
-      </c>
-      <c r="I18" s="58">
-        <v>70</v>
-      </c>
-      <c r="J18" s="58">
+      <c r="F18" s="57">
+        <v>60</v>
+      </c>
+      <c r="G18" s="57">
+        <v>70</v>
+      </c>
+      <c r="H18" s="57">
+        <v>50</v>
+      </c>
+      <c r="I18" s="57">
+        <v>70</v>
+      </c>
+      <c r="J18" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:10">
-      <c r="D19" s="58">
+      <c r="D19" s="57">
         <v>15</v>
       </c>
-      <c r="E19" s="58">
-        <v>50</v>
-      </c>
-      <c r="F19" s="58">
-        <v>50</v>
-      </c>
-      <c r="G19" s="58">
+      <c r="E19" s="57">
+        <v>50</v>
+      </c>
+      <c r="F19" s="57">
+        <v>50</v>
+      </c>
+      <c r="G19" s="57">
         <v>30</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="57">
         <v>30</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="57">
         <v>30</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="57">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="58">
+      <c r="D20" s="57">
         <v>16</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="57">
         <v>40</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="57">
         <v>40</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="57">
         <v>30</v>
       </c>
-      <c r="H20" s="58">
-        <v>50</v>
-      </c>
-      <c r="I20" s="58">
+      <c r="H20" s="57">
+        <v>50</v>
+      </c>
+      <c r="I20" s="57">
         <v>30</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="57">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="58">
+      <c r="D21" s="57">
         <v>17</v>
       </c>
-      <c r="E21" s="58">
-        <v>50</v>
-      </c>
-      <c r="F21" s="58">
-        <v>50</v>
-      </c>
-      <c r="G21" s="58">
-        <v>50</v>
-      </c>
-      <c r="H21" s="58">
-        <v>50</v>
-      </c>
-      <c r="I21" s="58">
-        <v>50</v>
-      </c>
-      <c r="J21" s="58">
+      <c r="E21" s="57">
+        <v>50</v>
+      </c>
+      <c r="F21" s="57">
+        <v>50</v>
+      </c>
+      <c r="G21" s="57">
+        <v>50</v>
+      </c>
+      <c r="H21" s="57">
+        <v>50</v>
+      </c>
+      <c r="I21" s="57">
+        <v>50</v>
+      </c>
+      <c r="J21" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="58">
+      <c r="D22" s="57">
         <v>18</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="57">
         <v>20</v>
       </c>
-      <c r="F22" s="58">
-        <v>50</v>
-      </c>
-      <c r="G22" s="58">
-        <v>70</v>
-      </c>
-      <c r="H22" s="58">
-        <v>50</v>
-      </c>
-      <c r="I22" s="58">
-        <v>70</v>
-      </c>
-      <c r="J22" s="58">
+      <c r="F22" s="57">
+        <v>50</v>
+      </c>
+      <c r="G22" s="57">
+        <v>70</v>
+      </c>
+      <c r="H22" s="57">
+        <v>50</v>
+      </c>
+      <c r="I22" s="57">
+        <v>70</v>
+      </c>
+      <c r="J22" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="58">
+      <c r="D23" s="57">
         <v>19</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="57">
         <v>75</v>
       </c>
-      <c r="F23" s="58">
-        <v>70</v>
-      </c>
-      <c r="G23" s="58">
-        <v>70</v>
-      </c>
-      <c r="H23" s="58">
+      <c r="F23" s="57">
+        <v>70</v>
+      </c>
+      <c r="G23" s="57">
+        <v>70</v>
+      </c>
+      <c r="H23" s="57">
         <v>30</v>
       </c>
-      <c r="I23" s="58">
-        <v>70</v>
-      </c>
-      <c r="J23" s="58">
+      <c r="I23" s="57">
+        <v>70</v>
+      </c>
+      <c r="J23" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="58">
+      <c r="D24" s="57">
         <v>20</v>
       </c>
-      <c r="E24" s="58">
-        <v>70</v>
-      </c>
-      <c r="F24" s="58">
-        <v>70</v>
-      </c>
-      <c r="G24" s="58">
-        <v>70</v>
-      </c>
-      <c r="H24" s="58">
-        <v>70</v>
-      </c>
-      <c r="I24" s="58">
-        <v>70</v>
-      </c>
-      <c r="J24" s="58">
+      <c r="E24" s="57">
+        <v>70</v>
+      </c>
+      <c r="F24" s="57">
+        <v>70</v>
+      </c>
+      <c r="G24" s="57">
+        <v>70</v>
+      </c>
+      <c r="H24" s="57">
+        <v>70</v>
+      </c>
+      <c r="I24" s="57">
+        <v>70</v>
+      </c>
+      <c r="J24" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="58">
+      <c r="D25" s="57">
         <v>21</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="57">
         <v>30</v>
       </c>
-      <c r="F25" s="58">
-        <v>50</v>
-      </c>
-      <c r="G25" s="58">
-        <v>50</v>
-      </c>
-      <c r="H25" s="58">
+      <c r="F25" s="57">
+        <v>50</v>
+      </c>
+      <c r="G25" s="57">
+        <v>50</v>
+      </c>
+      <c r="H25" s="57">
         <v>30</v>
       </c>
-      <c r="I25" s="58">
-        <v>50</v>
-      </c>
-      <c r="J25" s="58">
+      <c r="I25" s="57">
+        <v>50</v>
+      </c>
+      <c r="J25" s="57">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="58">
+      <c r="D26" s="57">
         <v>22</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <v>75</v>
       </c>
-      <c r="F26" s="58">
-        <v>70</v>
-      </c>
-      <c r="G26" s="58">
+      <c r="F26" s="57">
+        <v>70</v>
+      </c>
+      <c r="G26" s="57">
         <v>80</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="57">
         <v>80</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="57">
         <v>80</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="58">
+      <c r="D27" s="57">
         <v>23</v>
       </c>
-      <c r="E27" s="58">
-        <v>50</v>
-      </c>
-      <c r="F27" s="58">
-        <v>50</v>
-      </c>
-      <c r="G27" s="58">
-        <v>50</v>
-      </c>
-      <c r="H27" s="58">
+      <c r="E27" s="57">
+        <v>50</v>
+      </c>
+      <c r="F27" s="57">
+        <v>50</v>
+      </c>
+      <c r="G27" s="57">
+        <v>50</v>
+      </c>
+      <c r="H27" s="57">
         <v>40</v>
       </c>
-      <c r="I27" s="58">
-        <v>50</v>
-      </c>
-      <c r="J27" s="58">
+      <c r="I27" s="57">
+        <v>50</v>
+      </c>
+      <c r="J27" s="57">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="4:10">
-      <c r="D28" s="58">
+      <c r="D28" s="57">
         <v>24</v>
       </c>
-      <c r="E28" s="58">
-        <v>50</v>
-      </c>
-      <c r="F28" s="58">
-        <v>50</v>
-      </c>
-      <c r="G28" s="58">
+      <c r="E28" s="57">
+        <v>50</v>
+      </c>
+      <c r="F28" s="57">
+        <v>50</v>
+      </c>
+      <c r="G28" s="57">
         <v>40</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="57">
         <v>30</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="57">
         <v>40</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="57">
         <v>60</v>
       </c>
     </row>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Planning complete</t>
+  </si>
+  <si>
+    <t>reduce homework on capstone project.</t>
   </si>
 </sst>
 </file>
@@ -1341,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2247,7 +2250,9 @@
       <c r="K20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="M20" s="21"/>
       <c r="N20" s="11" t="s">
         <v>116</v>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -875,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -885,13 +885,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -967,7 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1008,9 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,6 +1021,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1353,12 +1360,12 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24" style="52" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="68" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="68" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="68" customWidth="1"/>
     <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
@@ -1368,1169 +1375,1169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="46"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="130.5" customHeight="1">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>41317</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="65">
         <f>AVERAGE('risk priority (probability)'!D4:I4)/100</f>
         <v>0.5</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="65">
         <f>AVERAGE('risk priority (impact)'!E5:J5)/100</f>
         <v>0.81666666666666676</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="71">
         <f t="shared" ref="I3:I26" si="0">G3*H3</f>
         <v>0.40833333333333338</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="60.75">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>41317</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="65">
         <f>AVERAGE('risk priority (probability)'!D5:I5)/100</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="65">
         <f>AVERAGE('risk priority (impact)'!E6:J6)/100</f>
         <v>0.59166666666666667</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="72">
         <f t="shared" si="0"/>
         <v>0.24652777777777776</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="45.75">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>41317</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="65">
         <f>AVERAGE('risk priority (probability)'!D6:I6)/100</f>
         <v>0.53</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="65">
         <f>AVERAGE('risk priority (impact)'!E7:J7)/100</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="71">
         <f t="shared" si="0"/>
         <v>0.35775000000000007</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="60.75">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>41317</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="13">
+      <c r="F6" s="15"/>
+      <c r="G6" s="65">
         <f>AVERAGE('risk priority (probability)'!D7:I7)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="65">
         <f>AVERAGE('risk priority (impact)'!E8:J8)/100</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="71">
         <f t="shared" si="0"/>
         <v>0.40888888888888891</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="135.75">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>41317</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="65">
         <f>AVERAGE('risk priority (probability)'!D8:I8)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="65">
         <f>AVERAGE('risk priority (impact)'!E9:J9)/100</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="71">
         <f t="shared" si="0"/>
         <v>0.37027777777777776</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="165.75">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>41317</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="65">
         <f>AVERAGE('risk priority (probability)'!D9:I9)/100</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="65">
         <f>AVERAGE('risk priority (impact)'!E10:J10)/100</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="71">
         <f t="shared" si="0"/>
         <v>0.42777777777777776</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="75.75">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>41317</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="65">
         <f>AVERAGE('risk priority (probability)'!D10:I10)/100</f>
         <v>0.30833333333333335</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="65">
         <f>AVERAGE('risk priority (impact)'!E11:J11)/100</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="72">
         <f t="shared" si="0"/>
         <v>0.2492361111111111</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="19"/>
+      <c r="N9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="45.75">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>41317</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="65">
         <f>AVERAGE('risk priority (probability)'!D11:I11)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="65">
         <f>AVERAGE('risk priority (impact)'!E12:J12)/100</f>
         <v>0.6316666666666666</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="71">
         <f t="shared" si="0"/>
         <v>0.29477777777777769</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="16"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="45.75">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>41317</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="65">
         <f>AVERAGE('risk priority (probability)'!D12:I12)/100</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="65">
         <f>AVERAGE('risk priority (impact)'!E13:J13)/100</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="72">
         <f t="shared" si="0"/>
         <v>0.19444444444444448</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="11" t="s">
+      <c r="M11" s="19"/>
+      <c r="N11" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="30.75">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>41317</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="65">
         <f>AVERAGE('risk priority (probability)'!D13:I13)/100</f>
         <v>0.34166666666666662</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="65">
         <f>AVERAGE('risk priority (impact)'!E14:J14)/100</f>
         <v>0.58166666666666667</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="72">
         <f t="shared" si="0"/>
         <v>0.19873611111111109</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="45.75">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>41376</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13">
+      <c r="F13" s="15"/>
+      <c r="G13" s="65">
         <f>AVERAGE('risk priority (probability)'!D14:I14)/100</f>
         <v>0.6</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="65">
         <f>AVERAGE('risk priority (impact)'!E15:J15)/100</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="71">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="11" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="16"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="30.75">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>41376</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="13">
+      <c r="F14" s="15"/>
+      <c r="G14" s="65">
         <f>AVERAGE('risk priority (probability)'!D15:I15)/100</f>
         <v>0.65</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="65">
         <f>AVERAGE('risk priority (impact)'!E16:J16)/100</f>
         <v>0.65</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="71">
         <f t="shared" si="0"/>
         <v>0.42250000000000004</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="11" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O14" s="16"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>41376</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="65">
         <f>AVERAGE('risk priority (probability)'!D16:I16)/100</f>
         <v>0.69166666666666676</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="65">
         <f>AVERAGE('risk priority (impact)'!E17:J17)/100</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="71">
         <f t="shared" si="0"/>
         <v>0.28819444444444448</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="11" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O15" s="16"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="45.75">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>41376</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="65">
         <f>AVERAGE('risk priority (probability)'!D17:I17)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="65">
         <f>AVERAGE('risk priority (impact)'!E18:J18)/100</f>
         <v>0.68166666666666675</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="71">
         <f t="shared" si="0"/>
         <v>0.36355555555555558</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="J16" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="11" t="s">
+      <c r="L16" s="17"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="16"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="30.75">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>41376</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="65">
         <f>AVERAGE('risk priority (probability)'!D18:I18)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="65">
         <f>AVERAGE('risk priority (impact)'!E19:J19)/100</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="72">
         <f t="shared" si="0"/>
         <v>0.20222222222222222</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="11" t="s">
+      <c r="J17" s="54"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="16"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="30.75">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>41376</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="65">
         <f>AVERAGE('risk priority (probability)'!D19:I19)/100</f>
         <v>0.375</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="65">
         <f>AVERAGE('risk priority (impact)'!E20:J20)/100</f>
         <v>0.4</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="73">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="54"/>
+      <c r="K18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="11" t="s">
+      <c r="L18" s="17"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="16"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="30.75">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>41376</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="65">
         <f>AVERAGE('risk priority (probability)'!D20:I20)/100</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="65">
         <f>AVERAGE('risk priority (impact)'!E21:J21)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="72">
         <f t="shared" si="0"/>
         <v>0.32722222222222219</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="54"/>
+      <c r="K19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="11" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="14"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="45.75">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>41376</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="65">
         <f>AVERAGE('risk priority (probability)'!D21:I21)/100</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="65">
         <f>AVERAGE('risk priority (impact)'!E22:J22)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="71">
         <f t="shared" si="0"/>
         <v>0.35555555555555557</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="19"/>
+      <c r="N20" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="16"/>
+      <c r="O20" s="14"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="30.75">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>41376</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="65">
         <f>AVERAGE('risk priority (probability)'!D22:I22)/100</f>
         <v>0.6</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="65">
         <f>AVERAGE('risk priority (impact)'!E23:J23)/100</f>
         <v>0.65833333333333333</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="71">
         <f t="shared" si="0"/>
         <v>0.39499999999999996</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="11" t="s">
+      <c r="L21" s="17"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="16"/>
+      <c r="O21" s="14"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" ht="30.75">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>41376</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="65">
         <f>AVERAGE('risk priority (probability)'!D23:I23)/100</f>
         <v>0.68333333333333324</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="65">
         <f>AVERAGE('risk priority (impact)'!E24:J24)/100</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="71">
         <f t="shared" si="0"/>
         <v>0.48972222222222217</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="11" t="s">
+      <c r="K22" s="14"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O22" s="16"/>
+      <c r="O22" s="14"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" ht="15.75">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>41376</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="65">
         <f>AVERAGE('risk priority (probability)'!D24:I24)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="65">
         <f>AVERAGE('risk priority (impact)'!E25:J25)/100</f>
         <v>0.45</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="72">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="11" t="s">
+      <c r="L23" s="17"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O23" s="16"/>
+      <c r="O23" s="14"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>41376</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="65">
         <f>AVERAGE('risk priority (probability)'!D25:I25)/100</f>
         <v>0.45</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="65">
         <f>AVERAGE('risk priority (impact)'!E26:J26)/100</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="72">
         <f t="shared" si="0"/>
         <v>0.34875</v>
       </c>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="11" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O24" s="16"/>
+      <c r="O24" s="14"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="30.75">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>41376</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="65">
         <f>AVERAGE('risk priority (probability)'!D26:I26)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="65">
         <f>AVERAGE('risk priority (impact)'!E27:J27)/100</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="72">
         <f t="shared" si="0"/>
         <v>0.24972222222222221</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="11" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="16"/>
+      <c r="O25" s="14"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="15.75">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>41376</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="65">
         <f>AVERAGE('risk priority (probability)'!D27:I27)/100</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="65">
         <f>AVERAGE('risk priority (impact)'!E28:J28)/100</f>
         <v>0.45</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="72">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="11" t="s">
+      <c r="J26" s="54"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O26" s="16"/>
+      <c r="O26" s="14"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2538,18 +2545,18 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2557,18 +2564,18 @@
     </row>
     <row r="29" spans="1:17" ht="15.75">
       <c r="A29" s="3"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2576,18 +2583,18 @@
     </row>
     <row r="30" spans="1:17" ht="15.75">
       <c r="A30" s="5"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="54"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="21"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="7"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2600,85 +2607,85 @@
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="55"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="55" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="59" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="55" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="59" t="s">
+      <c r="A41" s="62"/>
+      <c r="B41" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2717,669 +2724,669 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="57">
+      <c r="C4" s="54">
         <v>1</v>
       </c>
-      <c r="D4" s="57">
-        <v>50</v>
-      </c>
-      <c r="E4" s="57">
+      <c r="D4" s="54">
+        <v>50</v>
+      </c>
+      <c r="E4" s="54">
         <v>40</v>
       </c>
-      <c r="F4" s="57">
-        <v>60</v>
-      </c>
-      <c r="G4" s="57">
+      <c r="F4" s="54">
+        <v>60</v>
+      </c>
+      <c r="G4" s="54">
         <v>40</v>
       </c>
-      <c r="H4" s="57">
-        <v>50</v>
-      </c>
-      <c r="I4" s="57">
+      <c r="H4" s="54">
+        <v>50</v>
+      </c>
+      <c r="I4" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <v>2</v>
       </c>
-      <c r="D5" s="57">
-        <v>50</v>
-      </c>
-      <c r="E5" s="57">
+      <c r="D5" s="54">
+        <v>50</v>
+      </c>
+      <c r="E5" s="54">
         <v>40</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="54">
         <v>40</v>
       </c>
-      <c r="G5" s="57">
-        <v>50</v>
-      </c>
-      <c r="H5" s="57">
+      <c r="G5" s="54">
+        <v>50</v>
+      </c>
+      <c r="H5" s="54">
         <v>30</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="54">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="57">
+      <c r="C6" s="54">
         <v>3</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="54">
         <v>68</v>
       </c>
-      <c r="E6" s="57">
-        <v>60</v>
-      </c>
-      <c r="F6" s="57">
+      <c r="E6" s="54">
+        <v>60</v>
+      </c>
+      <c r="F6" s="54">
         <v>40</v>
       </c>
-      <c r="G6" s="57">
-        <v>60</v>
-      </c>
-      <c r="H6" s="57">
-        <v>50</v>
-      </c>
-      <c r="I6" s="57">
+      <c r="G6" s="54">
+        <v>60</v>
+      </c>
+      <c r="H6" s="54">
+        <v>50</v>
+      </c>
+      <c r="I6" s="54">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="57">
+      <c r="C7" s="54">
         <v>4</v>
       </c>
-      <c r="D7" s="57">
-        <v>70</v>
-      </c>
-      <c r="E7" s="57">
+      <c r="D7" s="54">
+        <v>70</v>
+      </c>
+      <c r="E7" s="54">
         <v>40</v>
       </c>
-      <c r="F7" s="57">
-        <v>60</v>
-      </c>
-      <c r="G7" s="57">
+      <c r="F7" s="54">
+        <v>60</v>
+      </c>
+      <c r="G7" s="54">
         <v>30</v>
       </c>
-      <c r="H7" s="57">
-        <v>60</v>
-      </c>
-      <c r="I7" s="57">
+      <c r="H7" s="54">
+        <v>60</v>
+      </c>
+      <c r="I7" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>5</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>80</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>30</v>
       </c>
-      <c r="F8" s="57">
-        <v>50</v>
-      </c>
-      <c r="G8" s="57">
-        <v>50</v>
-      </c>
-      <c r="H8" s="57">
-        <v>50</v>
-      </c>
-      <c r="I8" s="57">
+      <c r="F8" s="54">
+        <v>50</v>
+      </c>
+      <c r="G8" s="54">
+        <v>50</v>
+      </c>
+      <c r="H8" s="54">
+        <v>50</v>
+      </c>
+      <c r="I8" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="57">
+      <c r="C9" s="54">
         <v>6</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="54">
         <v>80</v>
       </c>
-      <c r="E9" s="57">
-        <v>60</v>
-      </c>
-      <c r="F9" s="57">
-        <v>50</v>
-      </c>
-      <c r="G9" s="57">
-        <v>50</v>
-      </c>
-      <c r="H9" s="57">
-        <v>60</v>
-      </c>
-      <c r="I9" s="57">
+      <c r="E9" s="54">
+        <v>60</v>
+      </c>
+      <c r="F9" s="54">
+        <v>50</v>
+      </c>
+      <c r="G9" s="54">
+        <v>50</v>
+      </c>
+      <c r="H9" s="54">
+        <v>60</v>
+      </c>
+      <c r="I9" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="57">
+      <c r="C10" s="54">
         <v>7</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="54">
         <v>25</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <v>30</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="54">
         <v>40</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="54">
         <v>20</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="54">
         <v>30</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="54">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="57">
-        <v>60</v>
-      </c>
-      <c r="E11" s="57">
-        <v>50</v>
-      </c>
-      <c r="F11" s="57">
-        <v>50</v>
-      </c>
-      <c r="G11" s="57">
+      <c r="D11" s="54">
+        <v>60</v>
+      </c>
+      <c r="E11" s="54">
+        <v>50</v>
+      </c>
+      <c r="F11" s="54">
+        <v>50</v>
+      </c>
+      <c r="G11" s="54">
         <v>20</v>
       </c>
-      <c r="H11" s="57">
-        <v>50</v>
-      </c>
-      <c r="I11" s="57">
+      <c r="H11" s="54">
+        <v>50</v>
+      </c>
+      <c r="I11" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="57">
+      <c r="C12" s="54">
         <v>9</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="54">
         <v>5</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>30</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="54">
         <v>45</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="54">
         <v>20</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="54">
         <v>30</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="54">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="57">
+      <c r="C13" s="54">
         <v>10</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="54">
         <v>10</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <v>40</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="54">
         <v>30</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="54">
         <v>25</v>
       </c>
-      <c r="H13" s="57">
-        <v>70</v>
-      </c>
-      <c r="I13" s="57">
+      <c r="H13" s="54">
+        <v>70</v>
+      </c>
+      <c r="I13" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="57">
+      <c r="C14" s="54">
         <v>11</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="54">
         <v>20</v>
       </c>
-      <c r="E14" s="57">
-        <v>50</v>
-      </c>
-      <c r="F14" s="57">
+      <c r="E14" s="54">
+        <v>50</v>
+      </c>
+      <c r="F14" s="54">
         <v>80</v>
       </c>
-      <c r="G14" s="57">
-        <v>70</v>
-      </c>
-      <c r="H14" s="57">
-        <v>60</v>
-      </c>
-      <c r="I14" s="57">
+      <c r="G14" s="54">
+        <v>70</v>
+      </c>
+      <c r="H14" s="54">
+        <v>60</v>
+      </c>
+      <c r="I14" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="57">
+      <c r="C15" s="54">
         <v>12</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="54">
         <v>10</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="54">
         <v>80</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="54">
         <v>85</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="54">
         <v>80</v>
       </c>
-      <c r="H15" s="57">
-        <v>50</v>
-      </c>
-      <c r="I15" s="57">
+      <c r="H15" s="54">
+        <v>50</v>
+      </c>
+      <c r="I15" s="54">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="57">
+      <c r="C16" s="54">
         <v>13</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="54">
         <v>85</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <v>80</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="54">
         <v>80</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="54">
         <v>10</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="54">
         <v>80</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <v>14</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <v>80</v>
       </c>
-      <c r="E17" s="57">
-        <v>60</v>
-      </c>
-      <c r="F17" s="57">
-        <v>60</v>
-      </c>
-      <c r="G17" s="57">
+      <c r="E17" s="54">
+        <v>60</v>
+      </c>
+      <c r="F17" s="54">
+        <v>60</v>
+      </c>
+      <c r="G17" s="54">
         <v>30</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <v>30</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="57">
+      <c r="C18" s="54">
         <v>15</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="54">
         <v>30</v>
       </c>
-      <c r="E18" s="57">
-        <v>50</v>
-      </c>
-      <c r="F18" s="57">
-        <v>70</v>
-      </c>
-      <c r="G18" s="57">
+      <c r="E18" s="54">
+        <v>50</v>
+      </c>
+      <c r="F18" s="54">
+        <v>70</v>
+      </c>
+      <c r="G18" s="54">
         <v>30</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="54">
         <v>30</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="57">
+      <c r="C19" s="54">
         <v>16</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="54">
         <v>30</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="54">
         <v>30</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="54">
         <v>40</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="54">
         <v>55</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="54">
         <v>30</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="54">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="57">
+      <c r="C20" s="54">
         <v>17</v>
       </c>
-      <c r="D20" s="57">
-        <v>50</v>
-      </c>
-      <c r="E20" s="57">
-        <v>50</v>
-      </c>
-      <c r="F20" s="57">
+      <c r="D20" s="54">
+        <v>50</v>
+      </c>
+      <c r="E20" s="54">
+        <v>50</v>
+      </c>
+      <c r="F20" s="54">
         <v>80</v>
       </c>
-      <c r="G20" s="57">
-        <v>60</v>
-      </c>
-      <c r="H20" s="57">
-        <v>60</v>
-      </c>
-      <c r="I20" s="57">
+      <c r="G20" s="54">
+        <v>60</v>
+      </c>
+      <c r="H20" s="54">
+        <v>60</v>
+      </c>
+      <c r="I20" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="57">
+      <c r="C21" s="54">
         <v>18</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="54">
         <v>20</v>
       </c>
-      <c r="E21" s="57">
-        <v>70</v>
-      </c>
-      <c r="F21" s="57">
+      <c r="E21" s="54">
+        <v>70</v>
+      </c>
+      <c r="F21" s="54">
         <v>90</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="54">
         <v>40</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="54">
         <v>90</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="54">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="57">
+      <c r="C22" s="54">
         <v>19</v>
       </c>
-      <c r="D22" s="57">
-        <v>70</v>
-      </c>
-      <c r="E22" s="57">
-        <v>60</v>
-      </c>
-      <c r="F22" s="57">
-        <v>70</v>
-      </c>
-      <c r="G22" s="57">
+      <c r="D22" s="54">
+        <v>70</v>
+      </c>
+      <c r="E22" s="54">
+        <v>60</v>
+      </c>
+      <c r="F22" s="54">
+        <v>70</v>
+      </c>
+      <c r="G22" s="54">
         <v>20</v>
       </c>
-      <c r="H22" s="57">
-        <v>70</v>
-      </c>
-      <c r="I22" s="57">
+      <c r="H22" s="54">
+        <v>70</v>
+      </c>
+      <c r="I22" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="57">
+      <c r="C23" s="54">
         <v>20</v>
       </c>
-      <c r="D23" s="57">
-        <v>60</v>
-      </c>
-      <c r="E23" s="57">
-        <v>60</v>
-      </c>
-      <c r="F23" s="57">
+      <c r="D23" s="54">
+        <v>60</v>
+      </c>
+      <c r="E23" s="54">
+        <v>60</v>
+      </c>
+      <c r="F23" s="54">
         <v>80</v>
       </c>
-      <c r="G23" s="57">
-        <v>50</v>
-      </c>
-      <c r="H23" s="57">
+      <c r="G23" s="54">
+        <v>50</v>
+      </c>
+      <c r="H23" s="54">
         <v>80</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="57">
+      <c r="C24" s="54">
         <v>21</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="54">
         <v>20</v>
       </c>
-      <c r="E24" s="57">
-        <v>60</v>
-      </c>
-      <c r="F24" s="57">
-        <v>70</v>
-      </c>
-      <c r="G24" s="57">
+      <c r="E24" s="54">
+        <v>60</v>
+      </c>
+      <c r="F24" s="54">
+        <v>70</v>
+      </c>
+      <c r="G24" s="54">
         <v>10</v>
       </c>
-      <c r="H24" s="57">
-        <v>50</v>
-      </c>
-      <c r="I24" s="57">
+      <c r="H24" s="54">
+        <v>50</v>
+      </c>
+      <c r="I24" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="57">
+      <c r="C25" s="54">
         <v>22</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="54">
         <v>40</v>
       </c>
-      <c r="E25" s="57">
-        <v>60</v>
-      </c>
-      <c r="F25" s="57">
+      <c r="E25" s="54">
+        <v>60</v>
+      </c>
+      <c r="F25" s="54">
         <v>65</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="54">
         <v>10</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="54">
         <v>30</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="54">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="57">
+      <c r="C26" s="54">
         <v>23</v>
       </c>
-      <c r="D26" s="57">
-        <v>50</v>
-      </c>
-      <c r="E26" s="57">
-        <v>50</v>
-      </c>
-      <c r="F26" s="57">
-        <v>60</v>
-      </c>
-      <c r="G26" s="57">
+      <c r="D26" s="54">
+        <v>50</v>
+      </c>
+      <c r="E26" s="54">
+        <v>50</v>
+      </c>
+      <c r="F26" s="54">
+        <v>60</v>
+      </c>
+      <c r="G26" s="54">
         <v>30</v>
       </c>
-      <c r="H26" s="57">
-        <v>60</v>
-      </c>
-      <c r="I26" s="57">
+      <c r="H26" s="54">
+        <v>60</v>
+      </c>
+      <c r="I26" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="57">
+      <c r="C27" s="54">
         <v>24</v>
       </c>
-      <c r="D27" s="57">
-        <v>60</v>
-      </c>
-      <c r="E27" s="57">
-        <v>60</v>
-      </c>
-      <c r="F27" s="57">
-        <v>70</v>
-      </c>
-      <c r="G27" s="57">
+      <c r="D27" s="54">
+        <v>60</v>
+      </c>
+      <c r="E27" s="54">
+        <v>60</v>
+      </c>
+      <c r="F27" s="54">
+        <v>70</v>
+      </c>
+      <c r="G27" s="54">
         <v>40</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="54">
         <v>40</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3398,577 +3405,577 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="4:10">
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="57">
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <v>90</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="54">
         <v>80</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="54">
         <v>80</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="54">
         <v>80</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="54">
         <v>80</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="57">
+      <c r="D6" s="54">
         <v>2</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <v>75</v>
       </c>
-      <c r="F6" s="57">
-        <v>50</v>
-      </c>
-      <c r="G6" s="57">
-        <v>60</v>
-      </c>
-      <c r="H6" s="57">
-        <v>50</v>
-      </c>
-      <c r="I6" s="57">
-        <v>60</v>
-      </c>
-      <c r="J6" s="57">
+      <c r="F6" s="54">
+        <v>50</v>
+      </c>
+      <c r="G6" s="54">
+        <v>60</v>
+      </c>
+      <c r="H6" s="54">
+        <v>50</v>
+      </c>
+      <c r="I6" s="54">
+        <v>60</v>
+      </c>
+      <c r="J6" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="57">
+      <c r="D7" s="54">
         <v>3</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="54">
         <v>85</v>
       </c>
-      <c r="F7" s="57">
-        <v>70</v>
-      </c>
-      <c r="G7" s="57">
-        <v>60</v>
-      </c>
-      <c r="H7" s="57">
-        <v>70</v>
-      </c>
-      <c r="I7" s="57">
-        <v>60</v>
-      </c>
-      <c r="J7" s="57">
+      <c r="F7" s="54">
+        <v>70</v>
+      </c>
+      <c r="G7" s="54">
+        <v>60</v>
+      </c>
+      <c r="H7" s="54">
+        <v>70</v>
+      </c>
+      <c r="I7" s="54">
+        <v>60</v>
+      </c>
+      <c r="J7" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>4</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>80</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="54">
         <v>80</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="54">
         <v>80</v>
       </c>
-      <c r="H8" s="57">
-        <v>60</v>
-      </c>
-      <c r="I8" s="57">
+      <c r="H8" s="54">
+        <v>60</v>
+      </c>
+      <c r="I8" s="54">
         <v>80</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="57">
+      <c r="D9" s="54">
         <v>5</v>
       </c>
-      <c r="E9" s="57">
-        <v>70</v>
-      </c>
-      <c r="F9" s="57">
+      <c r="E9" s="54">
+        <v>70</v>
+      </c>
+      <c r="F9" s="54">
         <v>80</v>
       </c>
-      <c r="G9" s="57">
-        <v>70</v>
-      </c>
-      <c r="H9" s="57">
-        <v>50</v>
-      </c>
-      <c r="I9" s="57">
-        <v>70</v>
-      </c>
-      <c r="J9" s="57">
+      <c r="G9" s="54">
+        <v>70</v>
+      </c>
+      <c r="H9" s="54">
+        <v>50</v>
+      </c>
+      <c r="I9" s="54">
+        <v>70</v>
+      </c>
+      <c r="J9" s="54">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="57">
+      <c r="D10" s="54">
         <v>6</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <v>90</v>
       </c>
-      <c r="F10" s="57">
-        <v>60</v>
-      </c>
-      <c r="G10" s="57">
-        <v>70</v>
-      </c>
-      <c r="H10" s="57">
+      <c r="F10" s="54">
+        <v>60</v>
+      </c>
+      <c r="G10" s="54">
+        <v>70</v>
+      </c>
+      <c r="H10" s="54">
         <v>80</v>
       </c>
-      <c r="I10" s="57">
-        <v>70</v>
-      </c>
-      <c r="J10" s="57">
+      <c r="I10" s="54">
+        <v>70</v>
+      </c>
+      <c r="J10" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <v>7</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <v>95</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <v>80</v>
       </c>
-      <c r="G11" s="57">
-        <v>70</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="G11" s="54">
+        <v>70</v>
+      </c>
+      <c r="H11" s="54">
         <v>80</v>
       </c>
-      <c r="I11" s="57">
-        <v>70</v>
-      </c>
-      <c r="J11" s="57">
+      <c r="I11" s="54">
+        <v>70</v>
+      </c>
+      <c r="J11" s="54">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="57">
+      <c r="D12" s="54">
         <v>8</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>89</v>
       </c>
-      <c r="F12" s="57">
-        <v>50</v>
-      </c>
-      <c r="G12" s="57">
-        <v>70</v>
-      </c>
-      <c r="H12" s="57">
+      <c r="F12" s="54">
+        <v>50</v>
+      </c>
+      <c r="G12" s="54">
+        <v>70</v>
+      </c>
+      <c r="H12" s="54">
         <v>40</v>
       </c>
-      <c r="I12" s="57">
-        <v>70</v>
-      </c>
-      <c r="J12" s="57">
+      <c r="I12" s="54">
+        <v>70</v>
+      </c>
+      <c r="J12" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="57">
+      <c r="D13" s="54">
         <v>9</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <v>55</v>
       </c>
-      <c r="F13" s="57">
-        <v>70</v>
-      </c>
-      <c r="G13" s="57">
-        <v>70</v>
-      </c>
-      <c r="H13" s="57">
-        <v>60</v>
-      </c>
-      <c r="I13" s="57">
-        <v>70</v>
-      </c>
-      <c r="J13" s="57">
+      <c r="F13" s="54">
+        <v>70</v>
+      </c>
+      <c r="G13" s="54">
+        <v>70</v>
+      </c>
+      <c r="H13" s="54">
+        <v>60</v>
+      </c>
+      <c r="I13" s="54">
+        <v>70</v>
+      </c>
+      <c r="J13" s="54">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="57">
+      <c r="D14" s="54">
         <v>10</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <v>69</v>
       </c>
-      <c r="F14" s="57">
-        <v>50</v>
-      </c>
-      <c r="G14" s="57">
-        <v>70</v>
-      </c>
-      <c r="H14" s="57">
+      <c r="F14" s="54">
+        <v>50</v>
+      </c>
+      <c r="G14" s="54">
+        <v>70</v>
+      </c>
+      <c r="H14" s="54">
         <v>30</v>
       </c>
-      <c r="I14" s="57">
-        <v>70</v>
-      </c>
-      <c r="J14" s="57">
+      <c r="I14" s="54">
+        <v>70</v>
+      </c>
+      <c r="J14" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="57">
+      <c r="D15" s="54">
         <v>11</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="54">
         <v>40</v>
       </c>
-      <c r="F15" s="57">
-        <v>70</v>
-      </c>
-      <c r="G15" s="57">
+      <c r="F15" s="54">
+        <v>70</v>
+      </c>
+      <c r="G15" s="54">
         <v>80</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="54">
         <v>65</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="54">
         <v>80</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="57">
+      <c r="D16" s="54">
         <v>12</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <v>30</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="54">
         <v>80</v>
       </c>
-      <c r="G16" s="57">
-        <v>70</v>
-      </c>
-      <c r="H16" s="57">
-        <v>70</v>
-      </c>
-      <c r="I16" s="57">
-        <v>70</v>
-      </c>
-      <c r="J16" s="57">
+      <c r="G16" s="54">
+        <v>70</v>
+      </c>
+      <c r="H16" s="54">
+        <v>70</v>
+      </c>
+      <c r="I16" s="54">
+        <v>70</v>
+      </c>
+      <c r="J16" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <v>13</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <v>20</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <v>40</v>
       </c>
-      <c r="G17" s="57">
-        <v>60</v>
-      </c>
-      <c r="H17" s="57">
+      <c r="G17" s="54">
+        <v>60</v>
+      </c>
+      <c r="H17" s="54">
         <v>10</v>
       </c>
-      <c r="I17" s="57">
-        <v>60</v>
-      </c>
-      <c r="J17" s="57">
+      <c r="I17" s="54">
+        <v>60</v>
+      </c>
+      <c r="J17" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="57">
+      <c r="D18" s="54">
         <v>14</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="54">
         <v>99</v>
       </c>
-      <c r="F18" s="57">
-        <v>60</v>
-      </c>
-      <c r="G18" s="57">
-        <v>70</v>
-      </c>
-      <c r="H18" s="57">
-        <v>50</v>
-      </c>
-      <c r="I18" s="57">
-        <v>70</v>
-      </c>
-      <c r="J18" s="57">
+      <c r="F18" s="54">
+        <v>60</v>
+      </c>
+      <c r="G18" s="54">
+        <v>70</v>
+      </c>
+      <c r="H18" s="54">
+        <v>50</v>
+      </c>
+      <c r="I18" s="54">
+        <v>70</v>
+      </c>
+      <c r="J18" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:10">
-      <c r="D19" s="57">
+      <c r="D19" s="54">
         <v>15</v>
       </c>
-      <c r="E19" s="57">
-        <v>50</v>
-      </c>
-      <c r="F19" s="57">
-        <v>50</v>
-      </c>
-      <c r="G19" s="57">
+      <c r="E19" s="54">
+        <v>50</v>
+      </c>
+      <c r="F19" s="54">
+        <v>50</v>
+      </c>
+      <c r="G19" s="54">
         <v>30</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="54">
         <v>30</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="54">
         <v>30</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="54">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="57">
+      <c r="D20" s="54">
         <v>16</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <v>40</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="54">
         <v>40</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="54">
         <v>30</v>
       </c>
-      <c r="H20" s="57">
-        <v>50</v>
-      </c>
-      <c r="I20" s="57">
+      <c r="H20" s="54">
+        <v>50</v>
+      </c>
+      <c r="I20" s="54">
         <v>30</v>
       </c>
-      <c r="J20" s="57">
+      <c r="J20" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="57">
+      <c r="D21" s="54">
         <v>17</v>
       </c>
-      <c r="E21" s="57">
-        <v>50</v>
-      </c>
-      <c r="F21" s="57">
-        <v>50</v>
-      </c>
-      <c r="G21" s="57">
-        <v>50</v>
-      </c>
-      <c r="H21" s="57">
-        <v>50</v>
-      </c>
-      <c r="I21" s="57">
-        <v>50</v>
-      </c>
-      <c r="J21" s="57">
+      <c r="E21" s="54">
+        <v>50</v>
+      </c>
+      <c r="F21" s="54">
+        <v>50</v>
+      </c>
+      <c r="G21" s="54">
+        <v>50</v>
+      </c>
+      <c r="H21" s="54">
+        <v>50</v>
+      </c>
+      <c r="I21" s="54">
+        <v>50</v>
+      </c>
+      <c r="J21" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="57">
+      <c r="D22" s="54">
         <v>18</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <v>20</v>
       </c>
-      <c r="F22" s="57">
-        <v>50</v>
-      </c>
-      <c r="G22" s="57">
-        <v>70</v>
-      </c>
-      <c r="H22" s="57">
-        <v>50</v>
-      </c>
-      <c r="I22" s="57">
-        <v>70</v>
-      </c>
-      <c r="J22" s="57">
+      <c r="F22" s="54">
+        <v>50</v>
+      </c>
+      <c r="G22" s="54">
+        <v>70</v>
+      </c>
+      <c r="H22" s="54">
+        <v>50</v>
+      </c>
+      <c r="I22" s="54">
+        <v>70</v>
+      </c>
+      <c r="J22" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="57">
+      <c r="D23" s="54">
         <v>19</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="54">
         <v>75</v>
       </c>
-      <c r="F23" s="57">
-        <v>70</v>
-      </c>
-      <c r="G23" s="57">
-        <v>70</v>
-      </c>
-      <c r="H23" s="57">
+      <c r="F23" s="54">
+        <v>70</v>
+      </c>
+      <c r="G23" s="54">
+        <v>70</v>
+      </c>
+      <c r="H23" s="54">
         <v>30</v>
       </c>
-      <c r="I23" s="57">
-        <v>70</v>
-      </c>
-      <c r="J23" s="57">
+      <c r="I23" s="54">
+        <v>70</v>
+      </c>
+      <c r="J23" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="57">
+      <c r="D24" s="54">
         <v>20</v>
       </c>
-      <c r="E24" s="57">
-        <v>70</v>
-      </c>
-      <c r="F24" s="57">
-        <v>70</v>
-      </c>
-      <c r="G24" s="57">
-        <v>70</v>
-      </c>
-      <c r="H24" s="57">
-        <v>70</v>
-      </c>
-      <c r="I24" s="57">
-        <v>70</v>
-      </c>
-      <c r="J24" s="57">
+      <c r="E24" s="54">
+        <v>70</v>
+      </c>
+      <c r="F24" s="54">
+        <v>70</v>
+      </c>
+      <c r="G24" s="54">
+        <v>70</v>
+      </c>
+      <c r="H24" s="54">
+        <v>70</v>
+      </c>
+      <c r="I24" s="54">
+        <v>70</v>
+      </c>
+      <c r="J24" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="57">
+      <c r="D25" s="54">
         <v>21</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="54">
         <v>30</v>
       </c>
-      <c r="F25" s="57">
-        <v>50</v>
-      </c>
-      <c r="G25" s="57">
-        <v>50</v>
-      </c>
-      <c r="H25" s="57">
+      <c r="F25" s="54">
+        <v>50</v>
+      </c>
+      <c r="G25" s="54">
+        <v>50</v>
+      </c>
+      <c r="H25" s="54">
         <v>30</v>
       </c>
-      <c r="I25" s="57">
-        <v>50</v>
-      </c>
-      <c r="J25" s="57">
+      <c r="I25" s="54">
+        <v>50</v>
+      </c>
+      <c r="J25" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="4:10">
-      <c r="D26" s="57">
+      <c r="D26" s="54">
         <v>22</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="54">
         <v>75</v>
       </c>
-      <c r="F26" s="57">
-        <v>70</v>
-      </c>
-      <c r="G26" s="57">
+      <c r="F26" s="54">
+        <v>70</v>
+      </c>
+      <c r="G26" s="54">
         <v>80</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="54">
         <v>80</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="54">
         <v>80</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="54">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="57">
+      <c r="D27" s="54">
         <v>23</v>
       </c>
-      <c r="E27" s="57">
-        <v>50</v>
-      </c>
-      <c r="F27" s="57">
-        <v>50</v>
-      </c>
-      <c r="G27" s="57">
-        <v>50</v>
-      </c>
-      <c r="H27" s="57">
+      <c r="E27" s="54">
+        <v>50</v>
+      </c>
+      <c r="F27" s="54">
+        <v>50</v>
+      </c>
+      <c r="G27" s="54">
+        <v>50</v>
+      </c>
+      <c r="H27" s="54">
         <v>40</v>
       </c>
-      <c r="I27" s="57">
-        <v>50</v>
-      </c>
-      <c r="J27" s="57">
+      <c r="I27" s="54">
+        <v>50</v>
+      </c>
+      <c r="J27" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="4:10">
-      <c r="D28" s="57">
+      <c r="D28" s="54">
         <v>24</v>
       </c>
-      <c r="E28" s="57">
-        <v>50</v>
-      </c>
-      <c r="F28" s="57">
-        <v>50</v>
-      </c>
-      <c r="G28" s="57">
+      <c r="E28" s="54">
+        <v>50</v>
+      </c>
+      <c r="F28" s="54">
+        <v>50</v>
+      </c>
+      <c r="G28" s="54">
         <v>40</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="54">
         <v>30</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="54">
         <v>40</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="54">
         <v>60</v>
       </c>
     </row>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -125,9 +125,6 @@
     <t xml:space="preserve">Defects &gt; 10 </t>
   </si>
   <si>
-    <t>A few members lose trust in the group</t>
-  </si>
-  <si>
     <t>Too difficult to do or manage
  time is unresonable</t>
   </si>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t>reduce homework on capstone project.</t>
+  </si>
+  <si>
+    <t>A few members not focus on the project</t>
   </si>
 </sst>
 </file>
@@ -1003,24 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1036,6 +1018,24 @@
     <xf numFmtId="2" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,9 +1363,9 @@
     <col min="4" max="4" width="24" style="52" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="68" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="68" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="62" customWidth="1"/>
     <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
@@ -1383,11 +1383,11 @@
       <c r="D1" s="49"/>
       <c r="E1" s="34"/>
       <c r="F1" s="49"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="69"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
       <c r="L1" s="42" t="s">
@@ -1420,13 +1420,13 @@
       <c r="F2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="64" t="s">
+      <c r="G2" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="64" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="21" t="s">
@@ -1461,38 +1461,38 @@
         <v>28</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11">
         <v>41317</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="65">
+        <v>61</v>
+      </c>
+      <c r="G3" s="59">
         <f>AVERAGE('risk priority (probability)'!D4:I4)/100</f>
         <v>0.5</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="59">
         <f>AVERAGE('risk priority (impact)'!E5:J5)/100</f>
         <v>0.81666666666666676</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="65">
         <f t="shared" ref="I3:I26" si="0">G3*H3</f>
         <v>0.40833333333333338</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="5"/>
@@ -1509,36 +1509,36 @@
         <v>29</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="11">
         <v>41317</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="65">
+        <v>62</v>
+      </c>
+      <c r="G4" s="59">
         <f>AVERAGE('risk priority (probability)'!D5:I5)/100</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="59">
         <f>AVERAGE('risk priority (impact)'!E6:J6)/100</f>
         <v>0.59166666666666667</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="66">
         <f t="shared" si="0"/>
         <v>0.24652777777777776</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="5"/>
@@ -1555,38 +1555,38 @@
         <v>30</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="11">
         <v>41317</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="65">
+        <v>63</v>
+      </c>
+      <c r="G5" s="59">
         <f>AVERAGE('risk priority (probability)'!D6:I6)/100</f>
         <v>0.53</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="59">
         <f>AVERAGE('risk priority (impact)'!E7:J7)/100</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="65">
         <f t="shared" si="0"/>
         <v>0.35775000000000007</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="5"/>
@@ -1603,36 +1603,36 @@
         <v>31</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="11">
         <v>41317</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="65">
+      <c r="G6" s="59">
         <f>AVERAGE('risk priority (probability)'!D7:I7)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="59">
         <f>AVERAGE('risk priority (impact)'!E8:J8)/100</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="65">
         <f t="shared" si="0"/>
         <v>0.40888888888888891</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="5"/>
@@ -1646,41 +1646,41 @@
         <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="11">
         <v>41317</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="65">
+        <v>64</v>
+      </c>
+      <c r="G7" s="59">
         <f>AVERAGE('risk priority (probability)'!D8:I8)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="59">
         <f>AVERAGE('risk priority (impact)'!E9:J9)/100</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="65">
         <f t="shared" si="0"/>
         <v>0.37027777777777776</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="5"/>
@@ -1694,39 +1694,39 @@
         <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="11">
         <v>41317</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="65">
+        <v>62</v>
+      </c>
+      <c r="G8" s="59">
         <f>AVERAGE('risk priority (probability)'!D9:I9)/100</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="59">
         <f>AVERAGE('risk priority (impact)'!E10:J10)/100</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="65">
         <f t="shared" si="0"/>
         <v>0.42777777777777776</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="5"/>
@@ -1740,41 +1740,41 @@
         <v>24</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="11">
         <v>41317</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="65">
+        <v>65</v>
+      </c>
+      <c r="G9" s="59">
         <f>AVERAGE('risk priority (probability)'!D10:I10)/100</f>
         <v>0.30833333333333335</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="59">
         <f>AVERAGE('risk priority (impact)'!E11:J11)/100</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="66">
         <f t="shared" si="0"/>
         <v>0.2492361111111111</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="5"/>
@@ -1788,41 +1788,41 @@
         <v>25</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="11">
         <v>41317</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="65">
+        <v>66</v>
+      </c>
+      <c r="G10" s="59">
         <f>AVERAGE('risk priority (probability)'!D11:I11)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="59">
         <f>AVERAGE('risk priority (impact)'!E12:J12)/100</f>
         <v>0.6316666666666666</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="65">
         <f t="shared" si="0"/>
         <v>0.29477777777777769</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="5"/>
@@ -1836,39 +1836,39 @@
         <v>26</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="11">
         <v>41317</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="65">
+        <v>67</v>
+      </c>
+      <c r="G11" s="59">
         <f>AVERAGE('risk priority (probability)'!D12:I12)/100</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="59">
         <f>AVERAGE('risk priority (impact)'!E13:J13)/100</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="66">
         <f t="shared" si="0"/>
         <v>0.19444444444444448</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="5"/>
@@ -1882,39 +1882,39 @@
         <v>27</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="11">
         <v>41317</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="65">
+        <v>62</v>
+      </c>
+      <c r="G12" s="59">
         <f>AVERAGE('risk priority (probability)'!D13:I13)/100</f>
         <v>0.34166666666666662</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="59">
         <f>AVERAGE('risk priority (impact)'!E14:J14)/100</f>
         <v>0.58166666666666667</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="66">
         <f t="shared" si="0"/>
         <v>0.19873611111111109</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="5"/>
@@ -1925,38 +1925,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11">
         <v>41376</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="65">
+      <c r="G13" s="59">
         <f>AVERAGE('risk priority (probability)'!D14:I14)/100</f>
         <v>0.6</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="59">
         <f>AVERAGE('risk priority (impact)'!E15:J15)/100</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="65">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="9"/>
       <c r="M13" s="19"/>
       <c r="N13" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="5"/>
@@ -1967,38 +1967,38 @@
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="11">
         <v>41376</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="65">
+      <c r="G14" s="59">
         <f>AVERAGE('risk priority (probability)'!D15:I15)/100</f>
         <v>0.65</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="59">
         <f>AVERAGE('risk priority (impact)'!E16:J16)/100</f>
         <v>0.65</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="65">
         <f t="shared" si="0"/>
         <v>0.42250000000000004</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="17"/>
       <c r="M14" s="19"/>
       <c r="N14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="5"/>
@@ -2009,29 +2009,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11">
         <v>41376</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="65">
+        <v>62</v>
+      </c>
+      <c r="G15" s="59">
         <f>AVERAGE('risk priority (probability)'!D16:I16)/100</f>
         <v>0.69166666666666676</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="59">
         <f>AVERAGE('risk priority (impact)'!E17:J17)/100</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="65">
         <f t="shared" si="0"/>
         <v>0.28819444444444448</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="19"/>
       <c r="N15" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="5"/>
@@ -2051,42 +2051,42 @@
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="11">
         <v>41376</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="65">
+        <v>66</v>
+      </c>
+      <c r="G16" s="59">
         <f>AVERAGE('risk priority (probability)'!D17:I17)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="59">
         <f>AVERAGE('risk priority (impact)'!E18:J18)/100</f>
         <v>0.68166666666666675</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="65">
         <f t="shared" si="0"/>
         <v>0.36355555555555558</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="19"/>
       <c r="N16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="5"/>
@@ -2097,29 +2097,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="11">
         <v>41376</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="65">
+        <v>68</v>
+      </c>
+      <c r="G17" s="59">
         <f>AVERAGE('risk priority (probability)'!D18:I18)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="59">
         <f>AVERAGE('risk priority (impact)'!E19:J19)/100</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="66">
         <f t="shared" si="0"/>
         <v>0.20222222222222222</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="19"/>
       <c r="N17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="5"/>
@@ -2139,40 +2139,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="11">
         <v>41376</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="65">
+        <v>67</v>
+      </c>
+      <c r="G18" s="59">
         <f>AVERAGE('risk priority (probability)'!D19:I19)/100</f>
         <v>0.375</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="59">
         <f>AVERAGE('risk priority (impact)'!E20:J20)/100</f>
         <v>0.4</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="67">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J18" s="54"/>
       <c r="K18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="19"/>
       <c r="N18" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="5"/>
@@ -2183,38 +2183,38 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="11">
         <v>41376</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="65">
+        <v>69</v>
+      </c>
+      <c r="G19" s="59">
         <f>AVERAGE('risk priority (probability)'!D20:I20)/100</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="59">
         <f>AVERAGE('risk priority (impact)'!E21:J21)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="66">
         <f t="shared" si="0"/>
         <v>0.32722222222222219</v>
       </c>
       <c r="J19" s="54"/>
       <c r="K19" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="19"/>
       <c r="N19" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="5"/>
@@ -2225,44 +2225,44 @@
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="11">
         <v>41376</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="65">
+        <v>61</v>
+      </c>
+      <c r="G20" s="59">
         <f>AVERAGE('risk priority (probability)'!D21:I21)/100</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="59">
         <f>AVERAGE('risk priority (impact)'!E22:J22)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="65">
         <f t="shared" si="0"/>
         <v>0.35555555555555557</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="5"/>
@@ -2273,42 +2273,42 @@
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="11">
         <v>41376</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="65">
+        <v>67</v>
+      </c>
+      <c r="G21" s="59">
         <f>AVERAGE('risk priority (probability)'!D22:I22)/100</f>
         <v>0.6</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="59">
         <f>AVERAGE('risk priority (impact)'!E23:J23)/100</f>
         <v>0.65833333333333333</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="65">
         <f t="shared" si="0"/>
         <v>0.39499999999999996</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="19"/>
       <c r="N21" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="5"/>
@@ -2319,38 +2319,38 @@
         <v>20</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="11">
         <v>41376</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="65">
+        <v>64</v>
+      </c>
+      <c r="G22" s="59">
         <f>AVERAGE('risk priority (probability)'!D23:I23)/100</f>
         <v>0.68333333333333324</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="59">
         <f>AVERAGE('risk priority (impact)'!E24:J24)/100</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="65">
         <f t="shared" si="0"/>
         <v>0.48972222222222217</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="17"/>
       <c r="M22" s="19"/>
       <c r="N22" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="5"/>
@@ -2361,40 +2361,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="11">
         <v>41376</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="65">
+        <v>62</v>
+      </c>
+      <c r="G23" s="59">
         <f>AVERAGE('risk priority (probability)'!D24:I24)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="59">
         <f>AVERAGE('risk priority (impact)'!E25:J25)/100</f>
         <v>0.45</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="66">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
       <c r="J23" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="19"/>
       <c r="N23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="5"/>
@@ -2405,38 +2405,38 @@
         <v>22</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="11">
         <v>41376</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="65">
+        <v>65</v>
+      </c>
+      <c r="G24" s="59">
         <f>AVERAGE('risk priority (probability)'!D25:I25)/100</f>
         <v>0.45</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="59">
         <f>AVERAGE('risk priority (impact)'!E26:J26)/100</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="66">
         <f t="shared" si="0"/>
         <v>0.34875</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="17"/>
       <c r="M24" s="19"/>
       <c r="N24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="5"/>
@@ -2447,29 +2447,29 @@
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="11">
         <v>41376</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="65">
+        <v>70</v>
+      </c>
+      <c r="G25" s="59">
         <f>AVERAGE('risk priority (probability)'!D26:I26)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="59">
         <f>AVERAGE('risk priority (impact)'!E27:J27)/100</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="66">
         <f t="shared" si="0"/>
         <v>0.24972222222222221</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="19"/>
       <c r="N25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="5"/>
@@ -2489,27 +2489,27 @@
         <v>24</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="11">
         <v>41376</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="65">
+        <v>61</v>
+      </c>
+      <c r="G26" s="59">
         <f>AVERAGE('risk priority (probability)'!D27:I27)/100</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="59">
         <f>AVERAGE('risk priority (impact)'!E28:J28)/100</f>
         <v>0.45</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="66">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="L26" s="17"/>
       <c r="M26" s="19"/>
       <c r="N26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="5"/>
@@ -2531,9 +2531,9 @@
       <c r="D27" s="29"/>
       <c r="E27" s="4"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="18"/>
@@ -2550,9 +2550,9 @@
       <c r="D28" s="29"/>
       <c r="E28" s="4"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="18"/>
@@ -2569,9 +2569,9 @@
       <c r="D29" s="29"/>
       <c r="E29" s="4"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="18"/>
@@ -2588,9 +2588,9 @@
       <c r="D30" s="51"/>
       <c r="E30" s="5"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
@@ -2607,86 +2607,86 @@
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="69"/>
+      <c r="B34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="69"/>
+      <c r="B35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="70"/>
+      <c r="B36" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="55"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="55"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="60" t="s">
-        <v>115</v>
-      </c>
       <c r="B37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="72"/>
+      <c r="B38" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C38" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="72"/>
+      <c r="B39" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="72"/>
+      <c r="B40" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="23" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C41" s="55" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2725,25 +2725,25 @@
   <sheetData>
     <row r="3" spans="3:9">
       <c r="C3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="E3" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="I3" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="3:9">
@@ -3406,25 +3406,25 @@
   <sheetData>
     <row r="4" spans="4:10">
       <c r="D4" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="F4" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="H4" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="I4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="J4" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="4:10">

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="risk management" sheetId="1" r:id="rId1"/>
-    <sheet name="risk priority (probability)" sheetId="2" r:id="rId2"/>
-    <sheet name="risk priority (impact)" sheetId="3" r:id="rId3"/>
+    <sheet name="risk priority (probability)" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="risk priority (impact)" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">'risk management'!$L$3</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Concentrate too much to elicit depth of detail requirement stage</t>
   </si>
   <si>
-    <t>Exceeded time for requirement phase</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -290,12 +287,6 @@
   </si>
   <si>
     <t>define risk</t>
-  </si>
-  <si>
-    <t>descrie risk</t>
-  </si>
-  <si>
-    <t>risk wae mitgate</t>
   </si>
   <si>
     <t>planning for control risk</t>
@@ -440,6 +431,39 @@
   </si>
   <si>
     <t>A few members not focus on the project</t>
+  </si>
+  <si>
+    <t>increase time to learn and research test tool</t>
+  </si>
+  <si>
+    <t>go to another place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spend time to relax </t>
+  </si>
+  <si>
+    <t>implement unit test on componant of function</t>
+  </si>
+  <si>
+    <t>report progress daily</t>
+  </si>
+  <si>
+    <t>review with product owner weekly</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>risk was mitgate</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>describe risk</t>
   </si>
 </sst>
 </file>
@@ -499,7 +523,7 @@
       <name val="Segoe"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,8 +578,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -783,19 +813,6 @@
         <color indexed="64"/>
       </left>
       <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -898,9 +915,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -908,15 +922,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,20 +943,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -975,26 +977,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1004,36 +997,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1360,139 +1377,139 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" style="52" customWidth="1"/>
+    <col min="4" max="4" width="24" style="45" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="62" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="62" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="45" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="63" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="43"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="63" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="130.5" customHeight="1">
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>71</v>
+      <c r="D3" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E3" s="11">
         <v>41317</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="59">
+        <v>60</v>
+      </c>
+      <c r="G3" s="50">
         <f>AVERAGE('risk priority (probability)'!D4:I4)/100</f>
         <v>0.5</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="50">
         <f>AVERAGE('risk priority (impact)'!E5:J5)/100</f>
         <v>0.81666666666666676</v>
       </c>
-      <c r="I3" s="65">
-        <f t="shared" ref="I3:I26" si="0">G3*H3</f>
+      <c r="I3" s="55">
+        <f t="shared" ref="I3:I25" si="0">G3*H3</f>
         <v>0.40833333333333338</v>
       </c>
-      <c r="J3" s="55" t="s">
-        <v>98</v>
+      <c r="J3" s="47" t="s">
+        <v>95</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="18"/>
       <c r="N3" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="5"/>
@@ -1502,43 +1519,43 @@
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>71</v>
+      <c r="D4" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="11">
         <v>41317</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="59">
+        <v>61</v>
+      </c>
+      <c r="G4" s="50">
         <f>AVERAGE('risk priority (probability)'!D5:I5)/100</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="50">
         <f>AVERAGE('risk priority (impact)'!E6:J6)/100</f>
         <v>0.59166666666666667</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="56">
         <f t="shared" si="0"/>
         <v>0.24652777777777776</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>99</v>
+      <c r="J4" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="M4" s="18"/>
       <c r="N4" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="5"/>
@@ -1554,39 +1571,39 @@
       <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>71</v>
+      <c r="D5" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E5" s="11">
         <v>41317</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="59">
+        <v>62</v>
+      </c>
+      <c r="G5" s="50">
         <f>AVERAGE('risk priority (probability)'!D6:I6)/100</f>
         <v>0.53</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="50">
         <f>AVERAGE('risk priority (impact)'!E7:J7)/100</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="55">
         <f t="shared" si="0"/>
         <v>0.35775000000000007</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="5"/>
@@ -1602,37 +1619,39 @@
       <c r="C6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>71</v>
+      <c r="D6" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E6" s="11">
         <v>41317</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="59">
+      <c r="F6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="50">
         <f>AVERAGE('risk priority (probability)'!D7:I7)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="50">
         <f>AVERAGE('risk priority (impact)'!E8:J8)/100</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="55">
         <f t="shared" si="0"/>
         <v>0.40888888888888891</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="M6" s="18"/>
       <c r="N6" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="5"/>
@@ -1646,41 +1665,41 @@
         <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>71</v>
+        <v>129</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E7" s="11">
         <v>41317</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="59">
+        <v>63</v>
+      </c>
+      <c r="G7" s="50">
         <f>AVERAGE('risk priority (probability)'!D8:I8)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="50">
         <f>AVERAGE('risk priority (impact)'!E9:J9)/100</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="55">
         <f t="shared" si="0"/>
         <v>0.37027777777777776</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="5"/>
@@ -1696,37 +1715,39 @@
       <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>71</v>
+      <c r="D8" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E8" s="11">
         <v>41317</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="59">
+        <v>61</v>
+      </c>
+      <c r="G8" s="50">
         <f>AVERAGE('risk priority (probability)'!D9:I9)/100</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="50">
         <f>AVERAGE('risk priority (impact)'!E10:J10)/100</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="55">
         <f t="shared" si="0"/>
         <v>0.42777777777777776</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="K8" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="M8" s="18"/>
       <c r="N8" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="5"/>
@@ -1742,39 +1763,39 @@
       <c r="C9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>71</v>
+      <c r="D9" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="11">
         <v>41317</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="59">
+        <v>64</v>
+      </c>
+      <c r="G9" s="50">
         <f>AVERAGE('risk priority (probability)'!D10:I10)/100</f>
         <v>0.30833333333333335</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="50">
         <f>AVERAGE('risk priority (impact)'!E11:J11)/100</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="56">
         <f t="shared" si="0"/>
         <v>0.2492361111111111</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="M9" s="18"/>
       <c r="N9" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="5"/>
@@ -1790,39 +1811,39 @@
       <c r="C10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>71</v>
+      <c r="D10" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="11">
         <v>41317</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="59">
+        <v>65</v>
+      </c>
+      <c r="G10" s="50">
         <f>AVERAGE('risk priority (probability)'!D11:I11)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="50">
         <f>AVERAGE('risk priority (impact)'!E12:J12)/100</f>
         <v>0.6316666666666666</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="55">
         <f t="shared" si="0"/>
         <v>0.29477777777777769</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="5"/>
@@ -1838,37 +1859,37 @@
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>71</v>
+      <c r="D11" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="11">
         <v>41317</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="59">
+        <v>66</v>
+      </c>
+      <c r="G11" s="50">
         <f>AVERAGE('risk priority (probability)'!D12:I12)/100</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="50">
         <f>AVERAGE('risk priority (impact)'!E13:J13)/100</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="56">
         <f t="shared" si="0"/>
         <v>0.19444444444444448</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="M11" s="18"/>
       <c r="N11" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="5"/>
@@ -1878,43 +1899,43 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>71</v>
+      <c r="D12" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="11">
         <v>41317</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="59">
+        <v>61</v>
+      </c>
+      <c r="G12" s="50">
         <f>AVERAGE('risk priority (probability)'!D13:I13)/100</f>
         <v>0.34166666666666662</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="50">
         <f>AVERAGE('risk priority (impact)'!E14:J14)/100</f>
         <v>0.58166666666666667</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="56">
         <f t="shared" si="0"/>
         <v>0.19873611111111109</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="M12" s="18"/>
       <c r="N12" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="5"/>
@@ -1924,39 +1945,43 @@
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>72</v>
+      <c r="D13" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="E13" s="11">
         <v>41376</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="59">
+      <c r="F13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="50">
         <f>AVERAGE('risk priority (probability)'!D14:I14)/100</f>
         <v>0.6</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="50">
         <f>AVERAGE('risk priority (impact)'!E15:J15)/100</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="55">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="J13" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="14"/>
+      <c r="J13" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="5"/>
@@ -1966,39 +1991,43 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>72</v>
+      <c r="D14" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="11">
         <v>41376</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="59">
+      <c r="F14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="50">
         <f>AVERAGE('risk priority (probability)'!D15:I15)/100</f>
         <v>0.65</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="50">
         <f>AVERAGE('risk priority (impact)'!E16:J16)/100</f>
         <v>0.65</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="55">
         <f t="shared" si="0"/>
         <v>0.42250000000000004</v>
       </c>
-      <c r="J14" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="19"/>
+      <c r="J14" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="5"/>
@@ -2008,39 +2037,43 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>72</v>
+      <c r="D15" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="11">
         <v>41376</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="59">
+        <v>61</v>
+      </c>
+      <c r="G15" s="50">
         <f>AVERAGE('risk priority (probability)'!D16:I16)/100</f>
         <v>0.69166666666666676</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="50">
         <f>AVERAGE('risk priority (impact)'!E17:J17)/100</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="55">
         <f t="shared" si="0"/>
         <v>0.28819444444444448</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="19"/>
+      <c r="J15" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="5"/>
@@ -2050,43 +2083,43 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>72</v>
+      <c r="D16" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="11">
         <v>41376</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="59">
+        <v>65</v>
+      </c>
+      <c r="G16" s="50">
         <f>AVERAGE('risk priority (probability)'!D17:I17)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="50">
         <f>AVERAGE('risk priority (impact)'!E18:J18)/100</f>
         <v>0.68166666666666675</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="55">
         <f t="shared" si="0"/>
         <v>0.36355555555555558</v>
       </c>
-      <c r="J16" s="54" t="s">
-        <v>108</v>
+      <c r="J16" s="46" t="s">
+        <v>105</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="5"/>
@@ -2096,39 +2129,41 @@
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="11">
         <v>41376</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="59">
+        <v>67</v>
+      </c>
+      <c r="G17" s="50">
         <f>AVERAGE('risk priority (probability)'!D18:I18)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="50">
         <f>AVERAGE('risk priority (impact)'!E19:J19)/100</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="56">
         <f t="shared" si="0"/>
         <v>0.20222222222222222</v>
       </c>
-      <c r="J17" s="54"/>
+      <c r="J17" s="46" t="s">
+        <v>130</v>
+      </c>
       <c r="K17" s="14"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="5"/>
@@ -2138,41 +2173,43 @@
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="E18" s="11">
         <v>41376</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="59">
+        <v>66</v>
+      </c>
+      <c r="G18" s="50">
         <f>AVERAGE('risk priority (probability)'!D19:I19)/100</f>
         <v>0.375</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="50">
         <f>AVERAGE('risk priority (impact)'!E20:J20)/100</f>
         <v>0.4</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="57">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J18" s="54"/>
+      <c r="J18" s="46" t="s">
+        <v>134</v>
+      </c>
       <c r="K18" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="5"/>
@@ -2182,39 +2219,41 @@
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>77</v>
+      <c r="B19" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="48" t="s">
-        <v>73</v>
+      <c r="D19" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="11">
         <v>41376</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="59">
+        <v>68</v>
+      </c>
+      <c r="G19" s="50">
         <f>AVERAGE('risk priority (probability)'!D20:I20)/100</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="50">
         <f>AVERAGE('risk priority (impact)'!E21:J21)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="56">
         <f t="shared" si="0"/>
         <v>0.32722222222222219</v>
       </c>
-      <c r="J19" s="54"/>
+      <c r="J19" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="K19" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="5"/>
@@ -2224,45 +2263,45 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="11">
         <v>41376</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="59">
+        <v>60</v>
+      </c>
+      <c r="G20" s="50">
         <f>AVERAGE('risk priority (probability)'!D21:I21)/100</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="50">
         <f>AVERAGE('risk priority (impact)'!E22:J22)/100</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="55">
         <f t="shared" si="0"/>
         <v>0.35555555555555557</v>
       </c>
-      <c r="J20" s="55" t="s">
-        <v>109</v>
+      <c r="J20" s="47" t="s">
+        <v>106</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="18"/>
       <c r="N20" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="5"/>
@@ -2272,43 +2311,43 @@
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="E21" s="11">
         <v>41376</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="59">
+        <v>66</v>
+      </c>
+      <c r="G21" s="50">
         <f>AVERAGE('risk priority (probability)'!D22:I22)/100</f>
         <v>0.6</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="50">
         <f>AVERAGE('risk priority (impact)'!E23:J23)/100</f>
         <v>0.65833333333333333</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="55">
         <f t="shared" si="0"/>
         <v>0.39499999999999996</v>
       </c>
-      <c r="J21" s="54" t="s">
-        <v>99</v>
+      <c r="J21" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="5"/>
@@ -2318,39 +2357,41 @@
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="48" t="s">
-        <v>74</v>
+      <c r="D22" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="11">
         <v>41376</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="59">
+        <v>63</v>
+      </c>
+      <c r="G22" s="50">
         <f>AVERAGE('risk priority (probability)'!D23:I23)/100</f>
         <v>0.68333333333333324</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="50">
         <f>AVERAGE('risk priority (impact)'!E24:J24)/100</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="55">
         <f t="shared" si="0"/>
         <v>0.48972222222222217</v>
       </c>
-      <c r="J22" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="19"/>
+      <c r="J22" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="5"/>
@@ -2360,41 +2401,41 @@
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="48" t="s">
-        <v>74</v>
+      <c r="D23" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="E23" s="11">
         <v>41376</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="59">
+        <v>61</v>
+      </c>
+      <c r="G23" s="50">
         <f>AVERAGE('risk priority (probability)'!D24:I24)/100</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="50">
         <f>AVERAGE('risk priority (impact)'!E25:J25)/100</f>
         <v>0.45</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="56">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="J23" s="54" t="s">
-        <v>111</v>
+      <c r="J23" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="5"/>
@@ -2404,39 +2445,41 @@
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="48" t="s">
-        <v>74</v>
+      <c r="D24" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="E24" s="11">
         <v>41376</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="59">
+        <v>64</v>
+      </c>
+      <c r="G24" s="50">
         <f>AVERAGE('risk priority (probability)'!D25:I25)/100</f>
         <v>0.45</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="50">
         <f>AVERAGE('risk priority (impact)'!E26:J26)/100</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="56">
         <f t="shared" si="0"/>
         <v>0.34875</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="5"/>
@@ -2446,247 +2489,211 @@
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="E25" s="11">
         <v>41376</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="59">
+        <v>69</v>
+      </c>
+      <c r="G25" s="50">
         <f>AVERAGE('risk priority (probability)'!D26:I26)/100</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="50">
         <f>AVERAGE('risk priority (impact)'!E27:J27)/100</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="56">
         <f t="shared" si="0"/>
         <v>0.24972222222222221</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="19"/>
+      <c r="J25" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75">
-      <c r="A26" s="14">
-        <v>24</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="11">
-        <v>41376</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="59">
-        <f>AVERAGE('risk priority (probability)'!D27:I27)/100</f>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="H26" s="59">
-        <f>AVERAGE('risk priority (impact)'!E28:J28)/100</f>
-        <v>0.45</v>
-      </c>
-      <c r="I26" s="66">
-        <f t="shared" si="0"/>
-        <v>0.255</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="14"/>
+    <row r="26" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O26" s="14"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="30"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
       <c r="N27" s="7"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="16.5" customHeight="1">
+    <row r="28" spans="1:17" ht="15.75">
       <c r="A28" s="3"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="7"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="18"/>
       <c r="N29" s="7"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
-      <c r="A30" s="5"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+    <row r="30" spans="1:17">
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:17">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="23" t="s">
+    <row r="32" spans="1:17" ht="15" customHeight="1">
+      <c r="A32" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C32" s="47" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="69"/>
+      <c r="B33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="69"/>
-      <c r="B34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>41</v>
+      <c r="B34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>42</v>
-      </c>
+      <c r="A35" s="70"/>
+      <c r="B35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="47"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="55"/>
+      <c r="A36" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="55" t="s">
-        <v>86</v>
+      <c r="C37" s="47" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="72"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="55" t="s">
-        <v>90</v>
+      <c r="C38" s="47" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="72"/>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="55" t="s">
-        <v>89</v>
+      <c r="C39" s="47" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="72"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="73"/>
-      <c r="B41" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>88</v>
+      <c r="C40" s="47" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2694,14 +2701,14 @@
     <sortCondition sortBy="cellColor" ref="F3" dxfId="0"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A40"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N29">
       <formula1>"Identified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K29">
       <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
@@ -2717,676 +2724,676 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="G3" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="H3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="I3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="54">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="54">
-        <v>50</v>
-      </c>
-      <c r="E4" s="54">
+      <c r="D4" s="46">
+        <v>50</v>
+      </c>
+      <c r="E4" s="46">
         <v>40</v>
       </c>
-      <c r="F4" s="54">
-        <v>60</v>
-      </c>
-      <c r="G4" s="54">
+      <c r="F4" s="46">
+        <v>60</v>
+      </c>
+      <c r="G4" s="46">
         <v>40</v>
       </c>
-      <c r="H4" s="54">
-        <v>50</v>
-      </c>
-      <c r="I4" s="54">
+      <c r="H4" s="46">
+        <v>50</v>
+      </c>
+      <c r="I4" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="54">
+      <c r="C5" s="46">
         <v>2</v>
       </c>
-      <c r="D5" s="54">
-        <v>50</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="D5" s="46">
+        <v>50</v>
+      </c>
+      <c r="E5" s="46">
         <v>40</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="46">
         <v>40</v>
       </c>
-      <c r="G5" s="54">
-        <v>50</v>
-      </c>
-      <c r="H5" s="54">
+      <c r="G5" s="46">
+        <v>50</v>
+      </c>
+      <c r="H5" s="46">
         <v>30</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="54">
+      <c r="C6" s="46">
         <v>3</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <v>68</v>
       </c>
-      <c r="E6" s="54">
-        <v>60</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="E6" s="46">
+        <v>60</v>
+      </c>
+      <c r="F6" s="46">
         <v>40</v>
       </c>
-      <c r="G6" s="54">
-        <v>60</v>
-      </c>
-      <c r="H6" s="54">
-        <v>50</v>
-      </c>
-      <c r="I6" s="54">
+      <c r="G6" s="46">
+        <v>60</v>
+      </c>
+      <c r="H6" s="46">
+        <v>50</v>
+      </c>
+      <c r="I6" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="54">
+      <c r="C7" s="46">
         <v>4</v>
       </c>
-      <c r="D7" s="54">
-        <v>70</v>
-      </c>
-      <c r="E7" s="54">
+      <c r="D7" s="46">
+        <v>70</v>
+      </c>
+      <c r="E7" s="46">
         <v>40</v>
       </c>
-      <c r="F7" s="54">
-        <v>60</v>
-      </c>
-      <c r="G7" s="54">
+      <c r="F7" s="46">
+        <v>60</v>
+      </c>
+      <c r="G7" s="46">
         <v>30</v>
       </c>
-      <c r="H7" s="54">
-        <v>60</v>
-      </c>
-      <c r="I7" s="54">
+      <c r="H7" s="46">
+        <v>60</v>
+      </c>
+      <c r="I7" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="54">
+      <c r="C8" s="46">
         <v>5</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="46">
         <v>80</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="46">
         <v>30</v>
       </c>
-      <c r="F8" s="54">
-        <v>50</v>
-      </c>
-      <c r="G8" s="54">
-        <v>50</v>
-      </c>
-      <c r="H8" s="54">
-        <v>50</v>
-      </c>
-      <c r="I8" s="54">
+      <c r="F8" s="46">
+        <v>50</v>
+      </c>
+      <c r="G8" s="46">
+        <v>50</v>
+      </c>
+      <c r="H8" s="46">
+        <v>50</v>
+      </c>
+      <c r="I8" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="54">
+      <c r="C9" s="46">
         <v>6</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="46">
         <v>80</v>
       </c>
-      <c r="E9" s="54">
-        <v>60</v>
-      </c>
-      <c r="F9" s="54">
-        <v>50</v>
-      </c>
-      <c r="G9" s="54">
-        <v>50</v>
-      </c>
-      <c r="H9" s="54">
-        <v>60</v>
-      </c>
-      <c r="I9" s="54">
+      <c r="E9" s="46">
+        <v>60</v>
+      </c>
+      <c r="F9" s="46">
+        <v>50</v>
+      </c>
+      <c r="G9" s="46">
+        <v>50</v>
+      </c>
+      <c r="H9" s="46">
+        <v>60</v>
+      </c>
+      <c r="I9" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="54">
+      <c r="C10" s="46">
         <v>7</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="46">
         <v>25</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="46">
         <v>30</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="46">
         <v>40</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="46">
         <v>20</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="46">
         <v>30</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="54">
+      <c r="C11" s="46">
         <v>8</v>
       </c>
-      <c r="D11" s="54">
-        <v>60</v>
-      </c>
-      <c r="E11" s="54">
-        <v>50</v>
-      </c>
-      <c r="F11" s="54">
-        <v>50</v>
-      </c>
-      <c r="G11" s="54">
+      <c r="D11" s="46">
+        <v>60</v>
+      </c>
+      <c r="E11" s="46">
+        <v>50</v>
+      </c>
+      <c r="F11" s="46">
+        <v>50</v>
+      </c>
+      <c r="G11" s="46">
         <v>20</v>
       </c>
-      <c r="H11" s="54">
-        <v>50</v>
-      </c>
-      <c r="I11" s="54">
+      <c r="H11" s="46">
+        <v>50</v>
+      </c>
+      <c r="I11" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="54">
+      <c r="C12" s="46">
         <v>9</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="46">
         <v>5</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="46">
         <v>30</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="46">
         <v>45</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="46">
         <v>20</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="46">
         <v>30</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="46">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="54">
+      <c r="C13" s="46">
         <v>10</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="46">
         <v>10</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="46">
         <v>40</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="46">
         <v>30</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="46">
         <v>25</v>
       </c>
-      <c r="H13" s="54">
-        <v>70</v>
-      </c>
-      <c r="I13" s="54">
+      <c r="H13" s="46">
+        <v>70</v>
+      </c>
+      <c r="I13" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="54">
+      <c r="C14" s="46">
         <v>11</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="46">
         <v>20</v>
       </c>
-      <c r="E14" s="54">
-        <v>50</v>
-      </c>
-      <c r="F14" s="54">
+      <c r="E14" s="46">
+        <v>50</v>
+      </c>
+      <c r="F14" s="46">
         <v>80</v>
       </c>
-      <c r="G14" s="54">
-        <v>70</v>
-      </c>
-      <c r="H14" s="54">
-        <v>60</v>
-      </c>
-      <c r="I14" s="54">
+      <c r="G14" s="46">
+        <v>70</v>
+      </c>
+      <c r="H14" s="46">
+        <v>60</v>
+      </c>
+      <c r="I14" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="54">
+      <c r="C15" s="46">
         <v>12</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="46">
         <v>10</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="46">
         <v>80</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="46">
         <v>85</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="46">
         <v>80</v>
       </c>
-      <c r="H15" s="54">
-        <v>50</v>
-      </c>
-      <c r="I15" s="54">
+      <c r="H15" s="46">
+        <v>50</v>
+      </c>
+      <c r="I15" s="46">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="54">
+      <c r="C16" s="46">
         <v>13</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="46">
         <v>85</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="46">
         <v>80</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="46">
         <v>80</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="46">
         <v>10</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="46">
         <v>80</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="54">
+      <c r="C17" s="46">
         <v>14</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="46">
         <v>80</v>
       </c>
-      <c r="E17" s="54">
-        <v>60</v>
-      </c>
-      <c r="F17" s="54">
-        <v>60</v>
-      </c>
-      <c r="G17" s="54">
+      <c r="E17" s="46">
+        <v>60</v>
+      </c>
+      <c r="F17" s="46">
+        <v>60</v>
+      </c>
+      <c r="G17" s="46">
         <v>30</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="46">
         <v>30</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="54">
+      <c r="C18" s="46">
         <v>15</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="46">
         <v>30</v>
       </c>
-      <c r="E18" s="54">
-        <v>50</v>
-      </c>
-      <c r="F18" s="54">
-        <v>70</v>
-      </c>
-      <c r="G18" s="54">
+      <c r="E18" s="46">
+        <v>50</v>
+      </c>
+      <c r="F18" s="46">
+        <v>70</v>
+      </c>
+      <c r="G18" s="46">
         <v>30</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="46">
         <v>30</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="46">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="54">
+      <c r="C19" s="46">
         <v>16</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="46">
         <v>30</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="46">
         <v>30</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="46">
         <v>40</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="46">
         <v>55</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="46">
         <v>30</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="54">
+      <c r="C20" s="46">
         <v>17</v>
       </c>
-      <c r="D20" s="54">
-        <v>50</v>
-      </c>
-      <c r="E20" s="54">
-        <v>50</v>
-      </c>
-      <c r="F20" s="54">
+      <c r="D20" s="46">
+        <v>50</v>
+      </c>
+      <c r="E20" s="46">
+        <v>50</v>
+      </c>
+      <c r="F20" s="46">
         <v>80</v>
       </c>
-      <c r="G20" s="54">
-        <v>60</v>
-      </c>
-      <c r="H20" s="54">
-        <v>60</v>
-      </c>
-      <c r="I20" s="54">
+      <c r="G20" s="46">
+        <v>60</v>
+      </c>
+      <c r="H20" s="46">
+        <v>60</v>
+      </c>
+      <c r="I20" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="54">
+      <c r="C21" s="46">
         <v>18</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="46">
         <v>20</v>
       </c>
-      <c r="E21" s="54">
-        <v>70</v>
-      </c>
-      <c r="F21" s="54">
+      <c r="E21" s="46">
+        <v>70</v>
+      </c>
+      <c r="F21" s="46">
         <v>90</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="46">
         <v>40</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="46">
         <v>90</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="46">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="54">
+      <c r="C22" s="46">
         <v>19</v>
       </c>
-      <c r="D22" s="54">
-        <v>70</v>
-      </c>
-      <c r="E22" s="54">
-        <v>60</v>
-      </c>
-      <c r="F22" s="54">
-        <v>70</v>
-      </c>
-      <c r="G22" s="54">
+      <c r="D22" s="46">
+        <v>70</v>
+      </c>
+      <c r="E22" s="46">
+        <v>60</v>
+      </c>
+      <c r="F22" s="46">
+        <v>70</v>
+      </c>
+      <c r="G22" s="46">
         <v>20</v>
       </c>
-      <c r="H22" s="54">
-        <v>70</v>
-      </c>
-      <c r="I22" s="54">
+      <c r="H22" s="46">
+        <v>70</v>
+      </c>
+      <c r="I22" s="46">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="54">
+      <c r="C23" s="46">
         <v>20</v>
       </c>
-      <c r="D23" s="54">
-        <v>60</v>
-      </c>
-      <c r="E23" s="54">
-        <v>60</v>
-      </c>
-      <c r="F23" s="54">
+      <c r="D23" s="46">
+        <v>60</v>
+      </c>
+      <c r="E23" s="46">
+        <v>60</v>
+      </c>
+      <c r="F23" s="46">
         <v>80</v>
       </c>
-      <c r="G23" s="54">
-        <v>50</v>
-      </c>
-      <c r="H23" s="54">
+      <c r="G23" s="46">
+        <v>50</v>
+      </c>
+      <c r="H23" s="46">
         <v>80</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="54">
+      <c r="C24" s="46">
         <v>21</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="46">
         <v>20</v>
       </c>
-      <c r="E24" s="54">
-        <v>60</v>
-      </c>
-      <c r="F24" s="54">
-        <v>70</v>
-      </c>
-      <c r="G24" s="54">
+      <c r="E24" s="46">
+        <v>60</v>
+      </c>
+      <c r="F24" s="46">
+        <v>70</v>
+      </c>
+      <c r="G24" s="46">
         <v>10</v>
       </c>
-      <c r="H24" s="54">
-        <v>50</v>
-      </c>
-      <c r="I24" s="54">
+      <c r="H24" s="46">
+        <v>50</v>
+      </c>
+      <c r="I24" s="46">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="54">
+      <c r="C25" s="46">
         <v>22</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="46">
         <v>40</v>
       </c>
-      <c r="E25" s="54">
-        <v>60</v>
-      </c>
-      <c r="F25" s="54">
+      <c r="E25" s="46">
+        <v>60</v>
+      </c>
+      <c r="F25" s="46">
         <v>65</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="46">
         <v>10</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="46">
         <v>30</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="46">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="54">
+      <c r="C26" s="46">
         <v>23</v>
       </c>
-      <c r="D26" s="54">
-        <v>50</v>
-      </c>
-      <c r="E26" s="54">
-        <v>50</v>
-      </c>
-      <c r="F26" s="54">
-        <v>60</v>
-      </c>
-      <c r="G26" s="54">
+      <c r="D26" s="46">
+        <v>50</v>
+      </c>
+      <c r="E26" s="46">
+        <v>50</v>
+      </c>
+      <c r="F26" s="46">
+        <v>60</v>
+      </c>
+      <c r="G26" s="46">
         <v>30</v>
       </c>
-      <c r="H26" s="54">
-        <v>60</v>
-      </c>
-      <c r="I26" s="54">
+      <c r="H26" s="46">
+        <v>60</v>
+      </c>
+      <c r="I26" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="54">
+      <c r="C27" s="46">
         <v>24</v>
       </c>
-      <c r="D27" s="54">
-        <v>60</v>
-      </c>
-      <c r="E27" s="54">
-        <v>60</v>
-      </c>
-      <c r="F27" s="54">
-        <v>70</v>
-      </c>
-      <c r="G27" s="54">
+      <c r="D27" s="46">
+        <v>60</v>
+      </c>
+      <c r="E27" s="46">
+        <v>60</v>
+      </c>
+      <c r="F27" s="46">
+        <v>70</v>
+      </c>
+      <c r="G27" s="46">
         <v>40</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="46">
         <v>40</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="46">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3398,584 +3405,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="4:10">
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="H4" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="I4" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="J4" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="54" t="s">
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" s="46">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46">
+        <v>90</v>
+      </c>
+      <c r="F5" s="46">
+        <v>80</v>
+      </c>
+      <c r="G5" s="46">
+        <v>80</v>
+      </c>
+      <c r="H5" s="46">
+        <v>80</v>
+      </c>
+      <c r="I5" s="46">
+        <v>80</v>
+      </c>
+      <c r="J5" s="46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="46">
+        <v>2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>75</v>
+      </c>
+      <c r="F6" s="46">
+        <v>50</v>
+      </c>
+      <c r="G6" s="46">
+        <v>60</v>
+      </c>
+      <c r="H6" s="46">
+        <v>50</v>
+      </c>
+      <c r="I6" s="46">
+        <v>60</v>
+      </c>
+      <c r="J6" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="46">
+        <v>3</v>
+      </c>
+      <c r="E7" s="46">
+        <v>85</v>
+      </c>
+      <c r="F7" s="46">
+        <v>70</v>
+      </c>
+      <c r="G7" s="46">
+        <v>60</v>
+      </c>
+      <c r="H7" s="46">
+        <v>70</v>
+      </c>
+      <c r="I7" s="46">
+        <v>60</v>
+      </c>
+      <c r="J7" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="46">
+        <v>4</v>
+      </c>
+      <c r="E8" s="46">
+        <v>80</v>
+      </c>
+      <c r="F8" s="46">
+        <v>80</v>
+      </c>
+      <c r="G8" s="46">
+        <v>80</v>
+      </c>
+      <c r="H8" s="46">
+        <v>60</v>
+      </c>
+      <c r="I8" s="46">
+        <v>80</v>
+      </c>
+      <c r="J8" s="46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="46">
+        <v>5</v>
+      </c>
+      <c r="E9" s="46">
+        <v>70</v>
+      </c>
+      <c r="F9" s="46">
+        <v>80</v>
+      </c>
+      <c r="G9" s="46">
+        <v>70</v>
+      </c>
+      <c r="H9" s="46">
+        <v>50</v>
+      </c>
+      <c r="I9" s="46">
+        <v>70</v>
+      </c>
+      <c r="J9" s="46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="46">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46">
+        <v>90</v>
+      </c>
+      <c r="F10" s="46">
+        <v>60</v>
+      </c>
+      <c r="G10" s="46">
+        <v>70</v>
+      </c>
+      <c r="H10" s="46">
+        <v>80</v>
+      </c>
+      <c r="I10" s="46">
+        <v>70</v>
+      </c>
+      <c r="J10" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="46">
+        <v>7</v>
+      </c>
+      <c r="E11" s="46">
         <v>95</v>
       </c>
-      <c r="I4" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10">
-      <c r="D5" s="54">
-        <v>1</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="F11" s="46">
+        <v>80</v>
+      </c>
+      <c r="G11" s="46">
+        <v>70</v>
+      </c>
+      <c r="H11" s="46">
+        <v>80</v>
+      </c>
+      <c r="I11" s="46">
+        <v>70</v>
+      </c>
+      <c r="J11" s="46">
         <v>90</v>
       </c>
-      <c r="F5" s="54">
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="46">
+        <v>8</v>
+      </c>
+      <c r="E12" s="46">
+        <v>89</v>
+      </c>
+      <c r="F12" s="46">
+        <v>50</v>
+      </c>
+      <c r="G12" s="46">
+        <v>70</v>
+      </c>
+      <c r="H12" s="46">
+        <v>40</v>
+      </c>
+      <c r="I12" s="46">
+        <v>70</v>
+      </c>
+      <c r="J12" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="46">
+        <v>9</v>
+      </c>
+      <c r="E13" s="46">
+        <v>55</v>
+      </c>
+      <c r="F13" s="46">
+        <v>70</v>
+      </c>
+      <c r="G13" s="46">
+        <v>70</v>
+      </c>
+      <c r="H13" s="46">
+        <v>60</v>
+      </c>
+      <c r="I13" s="46">
+        <v>70</v>
+      </c>
+      <c r="J13" s="46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="46">
+        <v>10</v>
+      </c>
+      <c r="E14" s="46">
+        <v>69</v>
+      </c>
+      <c r="F14" s="46">
+        <v>50</v>
+      </c>
+      <c r="G14" s="46">
+        <v>70</v>
+      </c>
+      <c r="H14" s="46">
+        <v>30</v>
+      </c>
+      <c r="I14" s="46">
+        <v>70</v>
+      </c>
+      <c r="J14" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="46">
+        <v>11</v>
+      </c>
+      <c r="E15" s="46">
+        <v>40</v>
+      </c>
+      <c r="F15" s="46">
+        <v>70</v>
+      </c>
+      <c r="G15" s="46">
         <v>80</v>
       </c>
-      <c r="G5" s="54">
+      <c r="H15" s="46">
+        <v>65</v>
+      </c>
+      <c r="I15" s="46">
         <v>80</v>
       </c>
-      <c r="H5" s="54">
+      <c r="J15" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="46">
+        <v>12</v>
+      </c>
+      <c r="E16" s="46">
+        <v>30</v>
+      </c>
+      <c r="F16" s="46">
         <v>80</v>
       </c>
-      <c r="I5" s="54">
+      <c r="G16" s="46">
+        <v>70</v>
+      </c>
+      <c r="H16" s="46">
+        <v>70</v>
+      </c>
+      <c r="I16" s="46">
+        <v>70</v>
+      </c>
+      <c r="J16" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="46">
+        <v>13</v>
+      </c>
+      <c r="E17" s="46">
+        <v>20</v>
+      </c>
+      <c r="F17" s="46">
+        <v>40</v>
+      </c>
+      <c r="G17" s="46">
+        <v>60</v>
+      </c>
+      <c r="H17" s="46">
+        <v>10</v>
+      </c>
+      <c r="I17" s="46">
+        <v>60</v>
+      </c>
+      <c r="J17" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="46">
+        <v>14</v>
+      </c>
+      <c r="E18" s="46">
+        <v>99</v>
+      </c>
+      <c r="F18" s="46">
+        <v>60</v>
+      </c>
+      <c r="G18" s="46">
+        <v>70</v>
+      </c>
+      <c r="H18" s="46">
+        <v>50</v>
+      </c>
+      <c r="I18" s="46">
+        <v>70</v>
+      </c>
+      <c r="J18" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="46">
+        <v>15</v>
+      </c>
+      <c r="E19" s="46">
+        <v>50</v>
+      </c>
+      <c r="F19" s="46">
+        <v>50</v>
+      </c>
+      <c r="G19" s="46">
+        <v>30</v>
+      </c>
+      <c r="H19" s="46">
+        <v>30</v>
+      </c>
+      <c r="I19" s="46">
+        <v>30</v>
+      </c>
+      <c r="J19" s="46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="46">
+        <v>16</v>
+      </c>
+      <c r="E20" s="46">
+        <v>40</v>
+      </c>
+      <c r="F20" s="46">
+        <v>40</v>
+      </c>
+      <c r="G20" s="46">
+        <v>30</v>
+      </c>
+      <c r="H20" s="46">
+        <v>50</v>
+      </c>
+      <c r="I20" s="46">
+        <v>30</v>
+      </c>
+      <c r="J20" s="46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="46">
+        <v>17</v>
+      </c>
+      <c r="E21" s="46">
+        <v>50</v>
+      </c>
+      <c r="F21" s="46">
+        <v>50</v>
+      </c>
+      <c r="G21" s="46">
+        <v>50</v>
+      </c>
+      <c r="H21" s="46">
+        <v>50</v>
+      </c>
+      <c r="I21" s="46">
+        <v>50</v>
+      </c>
+      <c r="J21" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="46">
+        <v>18</v>
+      </c>
+      <c r="E22" s="46">
+        <v>20</v>
+      </c>
+      <c r="F22" s="46">
+        <v>50</v>
+      </c>
+      <c r="G22" s="46">
+        <v>70</v>
+      </c>
+      <c r="H22" s="46">
+        <v>50</v>
+      </c>
+      <c r="I22" s="46">
+        <v>70</v>
+      </c>
+      <c r="J22" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="46">
+        <v>19</v>
+      </c>
+      <c r="E23" s="46">
+        <v>75</v>
+      </c>
+      <c r="F23" s="46">
+        <v>70</v>
+      </c>
+      <c r="G23" s="46">
+        <v>70</v>
+      </c>
+      <c r="H23" s="46">
+        <v>30</v>
+      </c>
+      <c r="I23" s="46">
+        <v>70</v>
+      </c>
+      <c r="J23" s="46">
         <v>80</v>
       </c>
-      <c r="J5" s="54">
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="46">
+        <v>20</v>
+      </c>
+      <c r="E24" s="46">
+        <v>70</v>
+      </c>
+      <c r="F24" s="46">
+        <v>70</v>
+      </c>
+      <c r="G24" s="46">
+        <v>70</v>
+      </c>
+      <c r="H24" s="46">
+        <v>70</v>
+      </c>
+      <c r="I24" s="46">
+        <v>70</v>
+      </c>
+      <c r="J24" s="46">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="4:10">
-      <c r="D6" s="54">
-        <v>2</v>
-      </c>
-      <c r="E6" s="54">
+    <row r="25" spans="4:10">
+      <c r="D25" s="46">
+        <v>21</v>
+      </c>
+      <c r="E25" s="46">
+        <v>30</v>
+      </c>
+      <c r="F25" s="46">
+        <v>50</v>
+      </c>
+      <c r="G25" s="46">
+        <v>50</v>
+      </c>
+      <c r="H25" s="46">
+        <v>30</v>
+      </c>
+      <c r="I25" s="46">
+        <v>50</v>
+      </c>
+      <c r="J25" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="46">
+        <v>22</v>
+      </c>
+      <c r="E26" s="46">
         <v>75</v>
       </c>
-      <c r="F6" s="54">
-        <v>50</v>
-      </c>
-      <c r="G6" s="54">
-        <v>60</v>
-      </c>
-      <c r="H6" s="54">
-        <v>50</v>
-      </c>
-      <c r="I6" s="54">
-        <v>60</v>
-      </c>
-      <c r="J6" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
-      <c r="D7" s="54">
-        <v>3</v>
-      </c>
-      <c r="E7" s="54">
-        <v>85</v>
-      </c>
-      <c r="F7" s="54">
-        <v>70</v>
-      </c>
-      <c r="G7" s="54">
-        <v>60</v>
-      </c>
-      <c r="H7" s="54">
-        <v>70</v>
-      </c>
-      <c r="I7" s="54">
-        <v>60</v>
-      </c>
-      <c r="J7" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
-      <c r="D8" s="54">
-        <v>4</v>
-      </c>
-      <c r="E8" s="54">
+      <c r="F26" s="46">
+        <v>70</v>
+      </c>
+      <c r="G26" s="46">
         <v>80</v>
       </c>
-      <c r="F8" s="54">
+      <c r="H26" s="46">
         <v>80</v>
       </c>
-      <c r="G8" s="54">
+      <c r="I26" s="46">
         <v>80</v>
       </c>
-      <c r="H8" s="54">
-        <v>60</v>
-      </c>
-      <c r="I8" s="54">
+      <c r="J26" s="46">
         <v>80</v>
       </c>
-      <c r="J8" s="54">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10">
-      <c r="D9" s="54">
-        <v>5</v>
-      </c>
-      <c r="E9" s="54">
-        <v>70</v>
-      </c>
-      <c r="F9" s="54">
-        <v>80</v>
-      </c>
-      <c r="G9" s="54">
-        <v>70</v>
-      </c>
-      <c r="H9" s="54">
-        <v>50</v>
-      </c>
-      <c r="I9" s="54">
-        <v>70</v>
-      </c>
-      <c r="J9" s="54">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
-      <c r="D10" s="54">
-        <v>6</v>
-      </c>
-      <c r="E10" s="54">
-        <v>90</v>
-      </c>
-      <c r="F10" s="54">
-        <v>60</v>
-      </c>
-      <c r="G10" s="54">
-        <v>70</v>
-      </c>
-      <c r="H10" s="54">
-        <v>80</v>
-      </c>
-      <c r="I10" s="54">
-        <v>70</v>
-      </c>
-      <c r="J10" s="54">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
-      <c r="D11" s="54">
-        <v>7</v>
-      </c>
-      <c r="E11" s="54">
-        <v>95</v>
-      </c>
-      <c r="F11" s="54">
-        <v>80</v>
-      </c>
-      <c r="G11" s="54">
-        <v>70</v>
-      </c>
-      <c r="H11" s="54">
-        <v>80</v>
-      </c>
-      <c r="I11" s="54">
-        <v>70</v>
-      </c>
-      <c r="J11" s="54">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10">
-      <c r="D12" s="54">
-        <v>8</v>
-      </c>
-      <c r="E12" s="54">
-        <v>89</v>
-      </c>
-      <c r="F12" s="54">
-        <v>50</v>
-      </c>
-      <c r="G12" s="54">
-        <v>70</v>
-      </c>
-      <c r="H12" s="54">
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="46">
+        <v>23</v>
+      </c>
+      <c r="E27" s="46">
+        <v>50</v>
+      </c>
+      <c r="F27" s="46">
+        <v>50</v>
+      </c>
+      <c r="G27" s="46">
+        <v>50</v>
+      </c>
+      <c r="H27" s="46">
         <v>40</v>
       </c>
-      <c r="I12" s="54">
-        <v>70</v>
-      </c>
-      <c r="J12" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10">
-      <c r="D13" s="54">
-        <v>9</v>
-      </c>
-      <c r="E13" s="54">
-        <v>55</v>
-      </c>
-      <c r="F13" s="54">
-        <v>70</v>
-      </c>
-      <c r="G13" s="54">
-        <v>70</v>
-      </c>
-      <c r="H13" s="54">
-        <v>60</v>
-      </c>
-      <c r="I13" s="54">
-        <v>70</v>
-      </c>
-      <c r="J13" s="54">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10">
-      <c r="D14" s="54">
-        <v>10</v>
-      </c>
-      <c r="E14" s="54">
-        <v>69</v>
-      </c>
-      <c r="F14" s="54">
-        <v>50</v>
-      </c>
-      <c r="G14" s="54">
-        <v>70</v>
-      </c>
-      <c r="H14" s="54">
+      <c r="I27" s="46">
+        <v>50</v>
+      </c>
+      <c r="J27" s="46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="46">
+        <v>24</v>
+      </c>
+      <c r="E28" s="46">
+        <v>50</v>
+      </c>
+      <c r="F28" s="46">
+        <v>50</v>
+      </c>
+      <c r="G28" s="46">
+        <v>40</v>
+      </c>
+      <c r="H28" s="46">
         <v>30</v>
       </c>
-      <c r="I14" s="54">
-        <v>70</v>
-      </c>
-      <c r="J14" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10">
-      <c r="D15" s="54">
-        <v>11</v>
-      </c>
-      <c r="E15" s="54">
+      <c r="I28" s="46">
         <v>40</v>
       </c>
-      <c r="F15" s="54">
-        <v>70</v>
-      </c>
-      <c r="G15" s="54">
-        <v>80</v>
-      </c>
-      <c r="H15" s="54">
-        <v>65</v>
-      </c>
-      <c r="I15" s="54">
-        <v>80</v>
-      </c>
-      <c r="J15" s="54">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10">
-      <c r="D16" s="54">
-        <v>12</v>
-      </c>
-      <c r="E16" s="54">
-        <v>30</v>
-      </c>
-      <c r="F16" s="54">
-        <v>80</v>
-      </c>
-      <c r="G16" s="54">
-        <v>70</v>
-      </c>
-      <c r="H16" s="54">
-        <v>70</v>
-      </c>
-      <c r="I16" s="54">
-        <v>70</v>
-      </c>
-      <c r="J16" s="54">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10">
-      <c r="D17" s="54">
-        <v>13</v>
-      </c>
-      <c r="E17" s="54">
-        <v>20</v>
-      </c>
-      <c r="F17" s="54">
-        <v>40</v>
-      </c>
-      <c r="G17" s="54">
-        <v>60</v>
-      </c>
-      <c r="H17" s="54">
-        <v>10</v>
-      </c>
-      <c r="I17" s="54">
-        <v>60</v>
-      </c>
-      <c r="J17" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10">
-      <c r="D18" s="54">
-        <v>14</v>
-      </c>
-      <c r="E18" s="54">
-        <v>99</v>
-      </c>
-      <c r="F18" s="54">
-        <v>60</v>
-      </c>
-      <c r="G18" s="54">
-        <v>70</v>
-      </c>
-      <c r="H18" s="54">
-        <v>50</v>
-      </c>
-      <c r="I18" s="54">
-        <v>70</v>
-      </c>
-      <c r="J18" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10">
-      <c r="D19" s="54">
-        <v>15</v>
-      </c>
-      <c r="E19" s="54">
-        <v>50</v>
-      </c>
-      <c r="F19" s="54">
-        <v>50</v>
-      </c>
-      <c r="G19" s="54">
-        <v>30</v>
-      </c>
-      <c r="H19" s="54">
-        <v>30</v>
-      </c>
-      <c r="I19" s="54">
-        <v>30</v>
-      </c>
-      <c r="J19" s="54">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10">
-      <c r="D20" s="54">
-        <v>16</v>
-      </c>
-      <c r="E20" s="54">
-        <v>40</v>
-      </c>
-      <c r="F20" s="54">
-        <v>40</v>
-      </c>
-      <c r="G20" s="54">
-        <v>30</v>
-      </c>
-      <c r="H20" s="54">
-        <v>50</v>
-      </c>
-      <c r="I20" s="54">
-        <v>30</v>
-      </c>
-      <c r="J20" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="54">
-        <v>17</v>
-      </c>
-      <c r="E21" s="54">
-        <v>50</v>
-      </c>
-      <c r="F21" s="54">
-        <v>50</v>
-      </c>
-      <c r="G21" s="54">
-        <v>50</v>
-      </c>
-      <c r="H21" s="54">
-        <v>50</v>
-      </c>
-      <c r="I21" s="54">
-        <v>50</v>
-      </c>
-      <c r="J21" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10">
-      <c r="D22" s="54">
-        <v>18</v>
-      </c>
-      <c r="E22" s="54">
-        <v>20</v>
-      </c>
-      <c r="F22" s="54">
-        <v>50</v>
-      </c>
-      <c r="G22" s="54">
-        <v>70</v>
-      </c>
-      <c r="H22" s="54">
-        <v>50</v>
-      </c>
-      <c r="I22" s="54">
-        <v>70</v>
-      </c>
-      <c r="J22" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10">
-      <c r="D23" s="54">
-        <v>19</v>
-      </c>
-      <c r="E23" s="54">
-        <v>75</v>
-      </c>
-      <c r="F23" s="54">
-        <v>70</v>
-      </c>
-      <c r="G23" s="54">
-        <v>70</v>
-      </c>
-      <c r="H23" s="54">
-        <v>30</v>
-      </c>
-      <c r="I23" s="54">
-        <v>70</v>
-      </c>
-      <c r="J23" s="54">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10">
-      <c r="D24" s="54">
-        <v>20</v>
-      </c>
-      <c r="E24" s="54">
-        <v>70</v>
-      </c>
-      <c r="F24" s="54">
-        <v>70</v>
-      </c>
-      <c r="G24" s="54">
-        <v>70</v>
-      </c>
-      <c r="H24" s="54">
-        <v>70</v>
-      </c>
-      <c r="I24" s="54">
-        <v>70</v>
-      </c>
-      <c r="J24" s="54">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10">
-      <c r="D25" s="54">
-        <v>21</v>
-      </c>
-      <c r="E25" s="54">
-        <v>30</v>
-      </c>
-      <c r="F25" s="54">
-        <v>50</v>
-      </c>
-      <c r="G25" s="54">
-        <v>50</v>
-      </c>
-      <c r="H25" s="54">
-        <v>30</v>
-      </c>
-      <c r="I25" s="54">
-        <v>50</v>
-      </c>
-      <c r="J25" s="54">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10">
-      <c r="D26" s="54">
-        <v>22</v>
-      </c>
-      <c r="E26" s="54">
-        <v>75</v>
-      </c>
-      <c r="F26" s="54">
-        <v>70</v>
-      </c>
-      <c r="G26" s="54">
-        <v>80</v>
-      </c>
-      <c r="H26" s="54">
-        <v>80</v>
-      </c>
-      <c r="I26" s="54">
-        <v>80</v>
-      </c>
-      <c r="J26" s="54">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10">
-      <c r="D27" s="54">
-        <v>23</v>
-      </c>
-      <c r="E27" s="54">
-        <v>50</v>
-      </c>
-      <c r="F27" s="54">
-        <v>50</v>
-      </c>
-      <c r="G27" s="54">
-        <v>50</v>
-      </c>
-      <c r="H27" s="54">
-        <v>40</v>
-      </c>
-      <c r="I27" s="54">
-        <v>50</v>
-      </c>
-      <c r="J27" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10">
-      <c r="D28" s="54">
-        <v>24</v>
-      </c>
-      <c r="E28" s="54">
-        <v>50</v>
-      </c>
-      <c r="F28" s="54">
-        <v>50</v>
-      </c>
-      <c r="G28" s="54">
-        <v>40</v>
-      </c>
-      <c r="H28" s="54">
-        <v>30</v>
-      </c>
-      <c r="I28" s="54">
-        <v>40</v>
-      </c>
-      <c r="J28" s="54">
+      <c r="J28" s="46">
         <v>60</v>
       </c>
     </row>

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -150,9 +150,6 @@
     <t>accept</t>
   </si>
   <si>
-    <t>go away far from that risk</t>
-  </si>
-  <si>
     <t>use some method to control that risk</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
   </si>
   <si>
     <t>Team members working not complete, working on time deadline</t>
-  </si>
-  <si>
-    <t>Team members have illness, need a few days to rest</t>
   </si>
   <si>
     <t>Identify the scope unclear of project</t>
@@ -392,9 +386,6 @@
 face with difficult</t>
   </si>
   <si>
-    <t>Make the meeting for re-estimation</t>
-  </si>
-  <si>
     <t xml:space="preserve">.Make more effort for testing
 .Give module for customer using after each interation relase for collect feedback from customers continuous </t>
   </si>
@@ -464,6 +455,19 @@
   </si>
   <si>
     <t>describe risk</t>
+  </si>
+  <si>
+    <t>go away too far from that risk</t>
+  </si>
+  <si>
+    <t>Make the meeting for re-estimation
+Refer idea of experts</t>
+  </si>
+  <si>
+    <t>Lack of team members</t>
+  </si>
+  <si>
+    <t>Team members have illness, need a few days to rest…</t>
   </si>
 </sst>
 </file>
@@ -585,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -888,11 +892,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1052,6 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1478,13 +1496,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="11">
         <v>41317</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="50">
         <f>AVERAGE('risk priority (probability)'!D4:I4)/100</f>
@@ -1499,17 +1517,17 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="5"/>
@@ -1526,13 +1544,13 @@
         <v>29</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="11">
         <v>41317</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="50">
         <f>AVERAGE('risk priority (probability)'!D5:I5)/100</f>
@@ -1547,15 +1565,15 @@
         <v>0.24652777777777776</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="5"/>
@@ -1572,13 +1590,13 @@
         <v>30</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="11">
         <v>41317</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="50">
         <f>AVERAGE('risk priority (probability)'!D6:I6)/100</f>
@@ -1593,17 +1611,17 @@
         <v>0.35775000000000007</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>119</v>
+      <c r="L5" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="5"/>
@@ -1620,13 +1638,13 @@
         <v>31</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="11">
         <v>41317</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G6" s="50">
         <f>AVERAGE('risk priority (probability)'!D7:I7)/100</f>
@@ -1641,17 +1659,17 @@
         <v>0.40888888888888891</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="5"/>
@@ -1665,16 +1683,16 @@
         <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="11">
         <v>41317</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="50">
         <f>AVERAGE('risk priority (probability)'!D8:I8)/100</f>
@@ -1689,17 +1707,17 @@
         <v>0.37027777777777776</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="5"/>
@@ -1716,13 +1734,13 @@
         <v>32</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11">
         <v>41317</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="50">
         <f>AVERAGE('risk priority (probability)'!D9:I9)/100</f>
@@ -1737,17 +1755,17 @@
         <v>0.42777777777777776</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="5"/>
@@ -1764,13 +1782,13 @@
         <v>33</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="11">
         <v>41317</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="50">
         <f>AVERAGE('risk priority (probability)'!D10:I10)/100</f>
@@ -1785,17 +1803,17 @@
         <v>0.2492361111111111</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="5"/>
@@ -1809,16 +1827,16 @@
         <v>25</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="11">
         <v>41317</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="50">
         <f>AVERAGE('risk priority (probability)'!D11:I11)/100</f>
@@ -1833,17 +1851,17 @@
         <v>0.29477777777777769</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>113</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="5"/>
@@ -1860,13 +1878,13 @@
         <v>34</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="11">
         <v>41317</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="50">
         <f>AVERAGE('risk priority (probability)'!D12:I12)/100</f>
@@ -1881,15 +1899,15 @@
         <v>0.19444444444444448</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="5"/>
@@ -1906,13 +1924,13 @@
         <v>35</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="11">
         <v>41317</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="50">
         <f>AVERAGE('risk priority (probability)'!D13:I13)/100</f>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="5"/>
@@ -1946,19 +1964,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="11">
         <v>41376</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" s="50">
         <f>AVERAGE('risk priority (probability)'!D14:I14)/100</f>
@@ -1973,15 +1991,15 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="18"/>
       <c r="N13" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="5"/>
@@ -1992,19 +2010,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="11">
         <v>41376</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G14" s="50">
         <f>AVERAGE('risk priority (probability)'!D15:I15)/100</f>
@@ -2019,15 +2037,15 @@
         <v>0.42250000000000004</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="18"/>
       <c r="N14" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="5"/>
@@ -2038,19 +2056,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="11">
         <v>41376</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="50">
         <f>AVERAGE('risk priority (probability)'!D16:I16)/100</f>
@@ -2065,15 +2083,15 @@
         <v>0.28819444444444448</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="18"/>
       <c r="N15" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="5"/>
@@ -2084,19 +2102,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="11">
         <v>41376</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="50">
         <f>AVERAGE('risk priority (probability)'!D17:I17)/100</f>
@@ -2111,15 +2129,15 @@
         <v>0.36355555555555558</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="18"/>
       <c r="N16" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="5"/>
@@ -2130,19 +2148,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="11">
         <v>41376</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="50">
         <f>AVERAGE('risk priority (probability)'!D18:I18)/100</f>
@@ -2157,13 +2175,13 @@
         <v>0.20222222222222222</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="16"/>
       <c r="M17" s="18"/>
       <c r="N17" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="5"/>
@@ -2174,19 +2192,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="11">
         <v>41376</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="50">
         <f>AVERAGE('risk priority (probability)'!D19:I19)/100</f>
@@ -2201,15 +2219,15 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="18"/>
       <c r="N18" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="5"/>
@@ -2220,17 +2238,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="11">
         <v>41376</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="50">
         <f>AVERAGE('risk priority (probability)'!D20:I20)/100</f>
@@ -2245,15 +2263,15 @@
         <v>0.32722222222222219</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="18"/>
       <c r="N19" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="5"/>
@@ -2264,19 +2282,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="11">
         <v>41376</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="50">
         <f>AVERAGE('risk priority (probability)'!D21:I21)/100</f>
@@ -2291,17 +2309,17 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="5"/>
@@ -2312,19 +2330,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="11">
         <v>41376</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" s="50">
         <f>AVERAGE('risk priority (probability)'!D22:I22)/100</f>
@@ -2339,15 +2357,15 @@
         <v>0.39499999999999996</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="18"/>
       <c r="N21" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="5"/>
@@ -2358,17 +2376,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="11">
         <v>41376</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="50">
         <f>AVERAGE('risk priority (probability)'!D23:I23)/100</f>
@@ -2383,36 +2401,38 @@
         <v>0.48972222222222217</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="18"/>
       <c r="N22" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75">
+    <row r="23" spans="1:17" ht="30.75">
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="15"/>
+      <c r="B23" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>141</v>
+      </c>
       <c r="D23" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="11">
         <v>41376</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="50">
         <f>AVERAGE('risk priority (probability)'!D24:I24)/100</f>
@@ -2427,15 +2447,15 @@
         <v>0.21</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="18"/>
       <c r="N23" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="5"/>
@@ -2446,17 +2466,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="11">
         <v>41376</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G24" s="50">
         <f>AVERAGE('risk priority (probability)'!D25:I25)/100</f>
@@ -2471,15 +2491,15 @@
         <v>0.34875</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="18"/>
       <c r="N24" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="5"/>
@@ -2490,19 +2510,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="11">
         <v>41376</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="50">
         <f>AVERAGE('risk priority (probability)'!D26:I26)/100</f>
@@ -2517,15 +2537,15 @@
         <v>0.24972222222222221</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="18"/>
       <c r="N25" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="5"/>
@@ -2615,13 +2635,13 @@
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2630,7 +2650,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2639,61 +2659,61 @@
         <v>39</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="70"/>
       <c r="B35" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="47"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="72"/>
       <c r="B37" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="72"/>
       <c r="B38" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="72"/>
       <c r="B39" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="73"/>
       <c r="B40" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2732,25 +2752,25 @@
   <sheetData>
     <row r="3" spans="3:9">
       <c r="C3" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="F3" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="G3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="H3" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="I3" s="46" t="s">
         <v>92</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="3:9">
@@ -3413,25 +3433,25 @@
   <sheetData>
     <row r="4" spans="4:10">
       <c r="D4" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="H4" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="I4" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="J4" s="46" t="s">
         <v>92</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="4:10">

--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -9,25 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" tabRatio="826" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="4" r:id="rId1"/>
-    <sheet name="Risk management" sheetId="1" r:id="rId2"/>
-    <sheet name="Recorded" sheetId="5" r:id="rId3"/>
-    <sheet name="risk priority (probability)" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="risk priority (impact)" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Le Ngoc Chau" sheetId="6" r:id="rId2"/>
+    <sheet name="Khau Thanh Dao" sheetId="8" r:id="rId3"/>
+    <sheet name="Ngo Quang Huy" sheetId="9" r:id="rId4"/>
+    <sheet name="Nguyen Phan Xuan Huy" sheetId="10" r:id="rId5"/>
+    <sheet name="Huynh Trong Khang" sheetId="11" r:id="rId6"/>
+    <sheet name="Ta Ngoc Thien Phu" sheetId="12" r:id="rId7"/>
+    <sheet name="Risk management list" sheetId="1" r:id="rId8"/>
+    <sheet name="Recorded" sheetId="5" r:id="rId9"/>
+    <sheet name="risk priority (probability)" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="risk priority (impact)" sheetId="3" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="1">'Risk management'!$L$7</definedName>
-    <definedName name="Mung">'Risk management'!$F$7:$F$7</definedName>
+    <definedName name="_GoBack" localSheetId="7">'Risk management list'!$L$7</definedName>
+    <definedName name="Mung">'Risk management list'!$F$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="172">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -499,13 +505,73 @@
   </si>
   <si>
     <t>Team member list</t>
+  </si>
+  <si>
+    <t>RISK ID</t>
+  </si>
+  <si>
+    <t>LIST RISK</t>
+  </si>
+  <si>
+    <t>PROBABILITY</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>Team members have illness, need a few days to rest</t>
+  </si>
+  <si>
+    <t>Exceeded time for requirement phase</t>
+  </si>
+  <si>
+    <t>MITIGATE METHOD</t>
+  </si>
+  <si>
+    <t>Risk priority list</t>
+  </si>
+  <si>
+    <t>Member: Khau Thanh Dao</t>
+  </si>
+  <si>
+    <t>Member: Le Ngoc Chau</t>
+  </si>
+  <si>
+    <t>Member: Ngo Quang Huy</t>
+  </si>
+  <si>
+    <t>Member: Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Member: Huynh Trong Khang</t>
+  </si>
+  <si>
+    <t>Member: Ta Ngoc Thien Phu</t>
+  </si>
+  <si>
+    <t>Use other estimation method</t>
+  </si>
+  <si>
+    <t>Motivate team member</t>
+  </si>
+  <si>
+    <t>Trainning  for all member every week</t>
+  </si>
+  <si>
+    <t>Negotiate with customers about the functionality that is not complete</t>
+  </si>
+  <si>
+    <t>Planning work time between capstone and semester</t>
+  </si>
+  <si>
+    <t>Sanction base on the law of group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,8 +638,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,6 +1029,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -987,69 +1120,1311 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1102,176 +2477,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1286,24 +2491,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:B11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:B11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A5:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="No" dataDxfId="3"/>
-    <tableColumn id="2" name="Name" dataDxfId="2"/>
+    <tableColumn id="1" name="No" dataDxfId="63"/>
+    <tableColumn id="2" name="Name" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table6" displayName="Table6" ref="A5:D26" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A5:E29" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="52" tableBorderDxfId="53">
+  <autoFilter ref="A5:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RISK ID" dataDxfId="49"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="48"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="47"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="45"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="46"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A5:E29" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowBorderDxfId="41" tableBorderDxfId="42">
+  <autoFilter ref="A5:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RISK ID" dataDxfId="40"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="7"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="6"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="4"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table467" displayName="Table467" ref="A5:E29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37">
+  <autoFilter ref="A5:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RISK ID" dataDxfId="35"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="34"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="33"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="32"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table468" displayName="Table468" ref="A5:E29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28">
+  <autoFilter ref="A5:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RISK ID" dataDxfId="26"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="15"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="14"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="12"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4689" displayName="Table4689" ref="A5:E29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="A5:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RISK ID" dataDxfId="21"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="11"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="10"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="8"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table468910" displayName="Table468910" ref="A5:E29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="A5:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RISK ID" dataDxfId="18"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="3"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="2"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="0"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table6" displayName="Table6" ref="A5:D26" totalsRowShown="0" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A5:D26"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Week" dataDxfId="6"/>
-    <tableColumn id="3" name="Risk" dataDxfId="5"/>
-    <tableColumn id="4" name="Plan/Methods" dataDxfId="4"/>
+    <tableColumn id="1" name="ID" dataDxfId="57"/>
+    <tableColumn id="2" name="Week" dataDxfId="56"/>
+    <tableColumn id="3" name="Risk" dataDxfId="55"/>
+    <tableColumn id="4" name="Plan/Methods" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1604,86 +2893,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" style="68" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="5.7109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="53" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="49" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="53" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+      <c r="A6" s="53">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
+      <c r="A7" s="53">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="53" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="53">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="53" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="53">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="53">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="68">
+      <c r="A11" s="53">
         <v>6</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="53" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1699,12 +2988,6026 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>70</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1">
+        <v>90</v>
+      </c>
+      <c r="I21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1">
+        <v>60</v>
+      </c>
+      <c r="G26" s="1">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1">
+        <v>60</v>
+      </c>
+      <c r="I26" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1">
+        <v>40</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1">
+        <v>80</v>
+      </c>
+      <c r="J5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1">
+        <v>70</v>
+      </c>
+      <c r="J14" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1">
+        <v>80</v>
+      </c>
+      <c r="J15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1">
+        <v>70</v>
+      </c>
+      <c r="H16" s="1">
+        <v>70</v>
+      </c>
+      <c r="I16" s="1">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>60</v>
+      </c>
+      <c r="J17" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>99</v>
+      </c>
+      <c r="F18" s="1">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50</v>
+      </c>
+      <c r="G22" s="1">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1">
+        <v>70</v>
+      </c>
+      <c r="J22" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1">
+        <v>70</v>
+      </c>
+      <c r="J24" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1">
+        <v>80</v>
+      </c>
+      <c r="H26" s="1">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1">
+        <v>80</v>
+      </c>
+      <c r="J26" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1">
+        <v>40</v>
+      </c>
+      <c r="H28" s="1">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19" style="71" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="71"/>
+    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
+    <col min="260" max="260" width="19" style="71" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="71"/>
+    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
+    <col min="516" max="516" width="19" style="71" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="71"/>
+    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
+    <col min="772" max="772" width="19" style="71" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="71"/>
+    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="71"/>
+    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="71"/>
+    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="71"/>
+    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="71"/>
+    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="71"/>
+    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="71"/>
+    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="71"/>
+    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="71"/>
+    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="71"/>
+    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="71"/>
+    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="71"/>
+    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="71"/>
+    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="71"/>
+    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="71"/>
+    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="71"/>
+    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="71"/>
+    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="71"/>
+    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="71"/>
+    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="71"/>
+    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="71"/>
+    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="71"/>
+    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="71"/>
+    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="71"/>
+    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="71"/>
+    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="71"/>
+    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="71"/>
+    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="71"/>
+    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="71"/>
+    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="71"/>
+    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="71"/>
+    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="71"/>
+    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="71"/>
+    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="71"/>
+    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="71"/>
+    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="71"/>
+    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="71"/>
+    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="71"/>
+    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="71"/>
+    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="71"/>
+    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="71"/>
+    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="71"/>
+    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="71"/>
+    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="71"/>
+    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="71"/>
+    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="71"/>
+    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="71"/>
+    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="71"/>
+    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="71"/>
+    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="71"/>
+    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="71"/>
+    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="71"/>
+    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="71"/>
+    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="71"/>
+    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="71"/>
+    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="71"/>
+    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="71"/>
+    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="71"/>
+    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="71"/>
+    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="71"/>
+    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="86">
+        <v>50</v>
+      </c>
+      <c r="D6" s="86">
+        <v>90</v>
+      </c>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="86">
+        <v>50</v>
+      </c>
+      <c r="D7" s="86">
+        <v>75</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="86">
+        <v>68</v>
+      </c>
+      <c r="D8" s="86">
+        <v>85</v>
+      </c>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="86">
+        <v>70</v>
+      </c>
+      <c r="D9" s="86">
+        <v>80</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="86">
+        <v>80</v>
+      </c>
+      <c r="D10" s="86">
+        <v>70</v>
+      </c>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="86">
+        <v>80</v>
+      </c>
+      <c r="D11" s="86">
+        <v>90</v>
+      </c>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="86">
+        <v>25</v>
+      </c>
+      <c r="D12" s="86">
+        <v>95</v>
+      </c>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="86">
+        <v>60</v>
+      </c>
+      <c r="D13" s="86">
+        <v>89</v>
+      </c>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="86">
+        <v>5</v>
+      </c>
+      <c r="D14" s="86">
+        <v>55</v>
+      </c>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="86">
+        <v>10</v>
+      </c>
+      <c r="D15" s="86">
+        <v>69</v>
+      </c>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="86">
+        <v>20</v>
+      </c>
+      <c r="D16" s="86">
+        <v>40</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="86">
+        <v>10</v>
+      </c>
+      <c r="D17" s="86">
+        <v>30</v>
+      </c>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="86">
+        <v>85</v>
+      </c>
+      <c r="D18" s="86">
+        <v>20</v>
+      </c>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="86">
+        <v>80</v>
+      </c>
+      <c r="D19" s="86">
+        <v>99</v>
+      </c>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84">
+        <v>15</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="86">
+        <v>30</v>
+      </c>
+      <c r="D20" s="86">
+        <v>50</v>
+      </c>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="86">
+        <v>30</v>
+      </c>
+      <c r="D21" s="86">
+        <v>40</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>17</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="86">
+        <v>50</v>
+      </c>
+      <c r="D22" s="86">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="86">
+        <v>20</v>
+      </c>
+      <c r="D23" s="86">
+        <v>20</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="86">
+        <v>70</v>
+      </c>
+      <c r="D24" s="86">
+        <v>75</v>
+      </c>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="86">
+        <v>60</v>
+      </c>
+      <c r="D25" s="86">
+        <v>70</v>
+      </c>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="86">
+        <v>20</v>
+      </c>
+      <c r="D26" s="86">
+        <v>30</v>
+      </c>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="86">
+        <v>40</v>
+      </c>
+      <c r="D27" s="86">
+        <v>75</v>
+      </c>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84">
+        <v>23</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="86">
+        <v>50</v>
+      </c>
+      <c r="D28" s="86">
+        <v>50</v>
+      </c>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="86">
+        <v>60</v>
+      </c>
+      <c r="D29" s="86">
+        <v>50</v>
+      </c>
+      <c r="E29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19" style="71" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="71"/>
+    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
+    <col min="260" max="260" width="19" style="71" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="71"/>
+    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
+    <col min="516" max="516" width="19" style="71" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="71"/>
+    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
+    <col min="772" max="772" width="19" style="71" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="71"/>
+    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="71"/>
+    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="71"/>
+    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="71"/>
+    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="71"/>
+    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="71"/>
+    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="71"/>
+    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="71"/>
+    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="71"/>
+    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="71"/>
+    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="71"/>
+    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="71"/>
+    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="71"/>
+    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="71"/>
+    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="71"/>
+    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="71"/>
+    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="71"/>
+    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="71"/>
+    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="71"/>
+    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="71"/>
+    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="71"/>
+    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="71"/>
+    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="71"/>
+    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="71"/>
+    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="71"/>
+    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="71"/>
+    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="71"/>
+    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="71"/>
+    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="71"/>
+    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="71"/>
+    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="71"/>
+    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="71"/>
+    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="71"/>
+    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="71"/>
+    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="71"/>
+    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="71"/>
+    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="71"/>
+    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="71"/>
+    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="71"/>
+    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="71"/>
+    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="71"/>
+    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="71"/>
+    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="71"/>
+    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="71"/>
+    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="71"/>
+    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="71"/>
+    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="71"/>
+    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="71"/>
+    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="71"/>
+    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="71"/>
+    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="71"/>
+    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="71"/>
+    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="71"/>
+    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="71"/>
+    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="71"/>
+    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="71"/>
+    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="71"/>
+    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="71"/>
+    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="71"/>
+    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="71"/>
+    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="86">
+        <v>40</v>
+      </c>
+      <c r="D6" s="86">
+        <v>80</v>
+      </c>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="86">
+        <v>40</v>
+      </c>
+      <c r="D7" s="86">
+        <v>50</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="86">
+        <v>60</v>
+      </c>
+      <c r="D8" s="86">
+        <v>70</v>
+      </c>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="86">
+        <v>40</v>
+      </c>
+      <c r="D9" s="86">
+        <v>80</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="86">
+        <v>30</v>
+      </c>
+      <c r="D10" s="86">
+        <v>80</v>
+      </c>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="86">
+        <v>60</v>
+      </c>
+      <c r="D11" s="86">
+        <v>60</v>
+      </c>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="86">
+        <v>30</v>
+      </c>
+      <c r="D12" s="86">
+        <v>80</v>
+      </c>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="86">
+        <v>50</v>
+      </c>
+      <c r="D13" s="86">
+        <v>50</v>
+      </c>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="86">
+        <v>30</v>
+      </c>
+      <c r="D14" s="86">
+        <v>70</v>
+      </c>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="86">
+        <v>40</v>
+      </c>
+      <c r="D15" s="86">
+        <v>50</v>
+      </c>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="86">
+        <v>50</v>
+      </c>
+      <c r="D16" s="86">
+        <v>70</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="86">
+        <v>80</v>
+      </c>
+      <c r="D17" s="86">
+        <v>80</v>
+      </c>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="86">
+        <v>80</v>
+      </c>
+      <c r="D18" s="86">
+        <v>40</v>
+      </c>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="86">
+        <v>60</v>
+      </c>
+      <c r="D19" s="86">
+        <v>60</v>
+      </c>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84">
+        <v>15</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="86">
+        <v>50</v>
+      </c>
+      <c r="D20" s="86">
+        <v>50</v>
+      </c>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="86">
+        <v>30</v>
+      </c>
+      <c r="D21" s="86">
+        <v>40</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>17</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="86">
+        <v>50</v>
+      </c>
+      <c r="D22" s="86">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="86">
+        <v>70</v>
+      </c>
+      <c r="D23" s="86">
+        <v>50</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="86">
+        <v>60</v>
+      </c>
+      <c r="D24" s="86">
+        <v>70</v>
+      </c>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="86">
+        <v>60</v>
+      </c>
+      <c r="D25" s="86">
+        <v>70</v>
+      </c>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="86">
+        <v>60</v>
+      </c>
+      <c r="D26" s="86">
+        <v>50</v>
+      </c>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="86">
+        <v>60</v>
+      </c>
+      <c r="D27" s="86">
+        <v>70</v>
+      </c>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84">
+        <v>23</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="86">
+        <v>50</v>
+      </c>
+      <c r="D28" s="86">
+        <v>50</v>
+      </c>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="86">
+        <v>60</v>
+      </c>
+      <c r="D29" s="86">
+        <v>50</v>
+      </c>
+      <c r="E29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19" style="71" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="71"/>
+    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
+    <col min="260" max="260" width="19" style="71" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="71"/>
+    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
+    <col min="516" max="516" width="19" style="71" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="71"/>
+    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
+    <col min="772" max="772" width="19" style="71" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="71"/>
+    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="71"/>
+    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="71"/>
+    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="71"/>
+    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="71"/>
+    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="71"/>
+    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="71"/>
+    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="71"/>
+    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="71"/>
+    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="71"/>
+    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="71"/>
+    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="71"/>
+    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="71"/>
+    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="71"/>
+    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="71"/>
+    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="71"/>
+    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="71"/>
+    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="71"/>
+    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="71"/>
+    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="71"/>
+    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="71"/>
+    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="71"/>
+    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="71"/>
+    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="71"/>
+    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="71"/>
+    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="71"/>
+    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="71"/>
+    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="71"/>
+    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="71"/>
+    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="71"/>
+    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="71"/>
+    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="71"/>
+    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="71"/>
+    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="71"/>
+    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="71"/>
+    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="71"/>
+    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="71"/>
+    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="71"/>
+    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="71"/>
+    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="71"/>
+    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="71"/>
+    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="71"/>
+    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="71"/>
+    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="71"/>
+    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="71"/>
+    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="71"/>
+    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="71"/>
+    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="71"/>
+    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="71"/>
+    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="71"/>
+    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="71"/>
+    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="71"/>
+    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="71"/>
+    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="71"/>
+    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="71"/>
+    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="71"/>
+    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="71"/>
+    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="71"/>
+    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="71"/>
+    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="71"/>
+    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="87">
+        <v>40</v>
+      </c>
+      <c r="D6" s="87">
+        <v>80</v>
+      </c>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="87">
+        <v>40</v>
+      </c>
+      <c r="D7" s="87">
+        <v>50</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="87">
+        <v>60</v>
+      </c>
+      <c r="D8" s="87">
+        <v>70</v>
+      </c>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="87">
+        <v>40</v>
+      </c>
+      <c r="D9" s="87">
+        <v>80</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="87">
+        <v>30</v>
+      </c>
+      <c r="D10" s="87">
+        <v>80</v>
+      </c>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="87">
+        <v>60</v>
+      </c>
+      <c r="D11" s="87">
+        <v>60</v>
+      </c>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="87">
+        <v>30</v>
+      </c>
+      <c r="D12" s="87">
+        <v>80</v>
+      </c>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="87">
+        <v>50</v>
+      </c>
+      <c r="D13" s="87">
+        <v>50</v>
+      </c>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="87">
+        <v>30</v>
+      </c>
+      <c r="D14" s="87">
+        <v>70</v>
+      </c>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="87">
+        <v>40</v>
+      </c>
+      <c r="D15" s="87">
+        <v>50</v>
+      </c>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="87">
+        <v>50</v>
+      </c>
+      <c r="D16" s="87">
+        <v>70</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="87">
+        <v>80</v>
+      </c>
+      <c r="D17" s="87">
+        <v>80</v>
+      </c>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="87">
+        <v>80</v>
+      </c>
+      <c r="D18" s="87">
+        <v>40</v>
+      </c>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="87">
+        <v>60</v>
+      </c>
+      <c r="D19" s="87">
+        <v>60</v>
+      </c>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84">
+        <v>15</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="87">
+        <v>50</v>
+      </c>
+      <c r="D20" s="87">
+        <v>50</v>
+      </c>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="87">
+        <v>30</v>
+      </c>
+      <c r="D21" s="87">
+        <v>40</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>17</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="87">
+        <v>50</v>
+      </c>
+      <c r="D22" s="87">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="87">
+        <v>70</v>
+      </c>
+      <c r="D23" s="87">
+        <v>50</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="87">
+        <v>60</v>
+      </c>
+      <c r="D24" s="87">
+        <v>70</v>
+      </c>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="87">
+        <v>60</v>
+      </c>
+      <c r="D25" s="87">
+        <v>70</v>
+      </c>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="87">
+        <v>60</v>
+      </c>
+      <c r="D26" s="87">
+        <v>50</v>
+      </c>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="87">
+        <v>60</v>
+      </c>
+      <c r="D27" s="87">
+        <v>70</v>
+      </c>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84">
+        <v>23</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="87">
+        <v>50</v>
+      </c>
+      <c r="D28" s="87">
+        <v>50</v>
+      </c>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="87">
+        <v>60</v>
+      </c>
+      <c r="D29" s="87">
+        <v>50</v>
+      </c>
+      <c r="E29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19" style="71" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="71"/>
+    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
+    <col min="260" max="260" width="19" style="71" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="71"/>
+    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
+    <col min="516" max="516" width="19" style="71" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="71"/>
+    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
+    <col min="772" max="772" width="19" style="71" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="71"/>
+    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="71"/>
+    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="71"/>
+    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="71"/>
+    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="71"/>
+    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="71"/>
+    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="71"/>
+    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="71"/>
+    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="71"/>
+    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="71"/>
+    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="71"/>
+    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="71"/>
+    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="71"/>
+    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="71"/>
+    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="71"/>
+    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="71"/>
+    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="71"/>
+    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="71"/>
+    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="71"/>
+    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="71"/>
+    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="71"/>
+    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="71"/>
+    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="71"/>
+    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="71"/>
+    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="71"/>
+    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="71"/>
+    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="71"/>
+    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="71"/>
+    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="71"/>
+    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="71"/>
+    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="71"/>
+    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="71"/>
+    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="71"/>
+    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="71"/>
+    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="71"/>
+    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="71"/>
+    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="71"/>
+    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="71"/>
+    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="71"/>
+    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="71"/>
+    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="71"/>
+    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="71"/>
+    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="71"/>
+    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="71"/>
+    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="71"/>
+    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="71"/>
+    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="71"/>
+    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="71"/>
+    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="71"/>
+    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="71"/>
+    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="71"/>
+    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="71"/>
+    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="71"/>
+    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="71"/>
+    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="71"/>
+    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="71"/>
+    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="71"/>
+    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="71"/>
+    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="71"/>
+    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="71"/>
+    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="86">
+        <v>40</v>
+      </c>
+      <c r="D6" s="86">
+        <v>80</v>
+      </c>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="86">
+        <v>50</v>
+      </c>
+      <c r="D7" s="86">
+        <v>50</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="86">
+        <v>60</v>
+      </c>
+      <c r="D8" s="86">
+        <v>70</v>
+      </c>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="86">
+        <v>30</v>
+      </c>
+      <c r="D9" s="86">
+        <v>60</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="86">
+        <v>50</v>
+      </c>
+      <c r="D10" s="86">
+        <v>50</v>
+      </c>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="86">
+        <v>50</v>
+      </c>
+      <c r="D11" s="86">
+        <v>80</v>
+      </c>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="86">
+        <v>20</v>
+      </c>
+      <c r="D12" s="86">
+        <v>80</v>
+      </c>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="86">
+        <v>20</v>
+      </c>
+      <c r="D13" s="86">
+        <v>40</v>
+      </c>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="86">
+        <v>20</v>
+      </c>
+      <c r="D14" s="86">
+        <v>60</v>
+      </c>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="86">
+        <v>25</v>
+      </c>
+      <c r="D15" s="86">
+        <v>30</v>
+      </c>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="86">
+        <v>70</v>
+      </c>
+      <c r="D16" s="86">
+        <v>65</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="86">
+        <v>80</v>
+      </c>
+      <c r="D17" s="86">
+        <v>70</v>
+      </c>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="86">
+        <v>10</v>
+      </c>
+      <c r="D18" s="86">
+        <v>10</v>
+      </c>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="86">
+        <v>30</v>
+      </c>
+      <c r="D19" s="86">
+        <v>50</v>
+      </c>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84">
+        <v>15</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="86">
+        <v>30</v>
+      </c>
+      <c r="D20" s="86">
+        <v>30</v>
+      </c>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="86">
+        <v>55</v>
+      </c>
+      <c r="D21" s="86">
+        <v>50</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>17</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="86">
+        <v>60</v>
+      </c>
+      <c r="D22" s="86">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="86">
+        <v>40</v>
+      </c>
+      <c r="D23" s="86">
+        <v>50</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="86">
+        <v>20</v>
+      </c>
+      <c r="D24" s="86">
+        <v>30</v>
+      </c>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="86">
+        <v>50</v>
+      </c>
+      <c r="D25" s="86">
+        <v>70</v>
+      </c>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="86">
+        <v>10</v>
+      </c>
+      <c r="D26" s="86">
+        <v>30</v>
+      </c>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="86">
+        <v>10</v>
+      </c>
+      <c r="D27" s="86">
+        <v>80</v>
+      </c>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84">
+        <v>23</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="86">
+        <v>30</v>
+      </c>
+      <c r="D28" s="86">
+        <v>40</v>
+      </c>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="86">
+        <v>40</v>
+      </c>
+      <c r="D29" s="86">
+        <v>30</v>
+      </c>
+      <c r="E29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19" style="71" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="71"/>
+    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
+    <col min="260" max="260" width="19" style="71" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="71"/>
+    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
+    <col min="516" max="516" width="19" style="71" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="71"/>
+    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
+    <col min="772" max="772" width="19" style="71" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="71"/>
+    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="71"/>
+    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="71"/>
+    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="71"/>
+    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="71"/>
+    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="71"/>
+    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="71"/>
+    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="71"/>
+    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="71"/>
+    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="71"/>
+    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="71"/>
+    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="71"/>
+    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="71"/>
+    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="71"/>
+    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="71"/>
+    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="71"/>
+    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="71"/>
+    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="71"/>
+    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="71"/>
+    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="71"/>
+    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="71"/>
+    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="71"/>
+    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="71"/>
+    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="71"/>
+    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="71"/>
+    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="71"/>
+    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="71"/>
+    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="71"/>
+    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="71"/>
+    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="71"/>
+    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="71"/>
+    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="71"/>
+    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="71"/>
+    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="71"/>
+    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="71"/>
+    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="71"/>
+    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="71"/>
+    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="71"/>
+    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="71"/>
+    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="71"/>
+    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="71"/>
+    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="71"/>
+    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="71"/>
+    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="71"/>
+    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="71"/>
+    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="71"/>
+    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="71"/>
+    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="71"/>
+    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="71"/>
+    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="71"/>
+    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="71"/>
+    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="71"/>
+    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="71"/>
+    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="71"/>
+    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="71"/>
+    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="71"/>
+    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="71"/>
+    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="71"/>
+    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="71"/>
+    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="71"/>
+    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="86">
+        <v>50</v>
+      </c>
+      <c r="D6" s="86">
+        <v>80</v>
+      </c>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="86">
+        <v>30</v>
+      </c>
+      <c r="D7" s="86">
+        <v>60</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="86">
+        <v>50</v>
+      </c>
+      <c r="D8" s="86">
+        <v>60</v>
+      </c>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="86">
+        <v>60</v>
+      </c>
+      <c r="D9" s="86">
+        <v>80</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="86">
+        <v>50</v>
+      </c>
+      <c r="D10" s="86">
+        <v>70</v>
+      </c>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="86">
+        <v>60</v>
+      </c>
+      <c r="D11" s="86">
+        <v>70</v>
+      </c>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="86">
+        <v>30</v>
+      </c>
+      <c r="D12" s="86">
+        <v>70</v>
+      </c>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="86">
+        <v>50</v>
+      </c>
+      <c r="D13" s="86">
+        <v>70</v>
+      </c>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="86">
+        <v>30</v>
+      </c>
+      <c r="D14" s="86">
+        <v>70</v>
+      </c>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="86">
+        <v>70</v>
+      </c>
+      <c r="D15" s="86">
+        <v>70</v>
+      </c>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="86">
+        <v>60</v>
+      </c>
+      <c r="D16" s="86">
+        <v>80</v>
+      </c>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="86">
+        <v>50</v>
+      </c>
+      <c r="D17" s="86">
+        <v>70</v>
+      </c>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="86">
+        <v>80</v>
+      </c>
+      <c r="D18" s="86">
+        <v>60</v>
+      </c>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="86">
+        <v>30</v>
+      </c>
+      <c r="D19" s="86">
+        <v>70</v>
+      </c>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84">
+        <v>15</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="86">
+        <v>30</v>
+      </c>
+      <c r="D20" s="86">
+        <v>30</v>
+      </c>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="86">
+        <v>30</v>
+      </c>
+      <c r="D21" s="86">
+        <v>30</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>17</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="86">
+        <v>60</v>
+      </c>
+      <c r="D22" s="86">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="86">
+        <v>90</v>
+      </c>
+      <c r="D23" s="86">
+        <v>70</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="86">
+        <v>70</v>
+      </c>
+      <c r="D24" s="86">
+        <v>70</v>
+      </c>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="86">
+        <v>80</v>
+      </c>
+      <c r="D25" s="86">
+        <v>70</v>
+      </c>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="86">
+        <v>50</v>
+      </c>
+      <c r="D26" s="86">
+        <v>50</v>
+      </c>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="86">
+        <v>30</v>
+      </c>
+      <c r="D27" s="86">
+        <v>80</v>
+      </c>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84">
+        <v>23</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="86">
+        <v>60</v>
+      </c>
+      <c r="D28" s="86">
+        <v>50</v>
+      </c>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="86">
+        <v>40</v>
+      </c>
+      <c r="D29" s="86">
+        <v>40</v>
+      </c>
+      <c r="E29" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19" style="71" customWidth="1"/>
+    <col min="5" max="5" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="71"/>
+    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
+    <col min="260" max="260" width="19" style="71" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="71"/>
+    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
+    <col min="516" max="516" width="19" style="71" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="71"/>
+    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
+    <col min="772" max="772" width="19" style="71" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="71"/>
+    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="71"/>
+    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="71"/>
+    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="71"/>
+    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="71"/>
+    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="71"/>
+    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="71"/>
+    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="71"/>
+    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="71"/>
+    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="71"/>
+    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="71"/>
+    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="71"/>
+    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="71"/>
+    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="71"/>
+    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="71"/>
+    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="71"/>
+    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="71"/>
+    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="71"/>
+    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="71"/>
+    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="71"/>
+    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="71"/>
+    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="71"/>
+    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="71"/>
+    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="71"/>
+    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="71"/>
+    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="71"/>
+    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="71"/>
+    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="71"/>
+    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="71"/>
+    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="71"/>
+    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="71"/>
+    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="71"/>
+    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="71"/>
+    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="71"/>
+    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="71"/>
+    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="71"/>
+    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="71"/>
+    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="71"/>
+    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="71"/>
+    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="71"/>
+    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="71"/>
+    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="71"/>
+    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="71"/>
+    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="71"/>
+    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="71"/>
+    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="71"/>
+    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="71"/>
+    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="71"/>
+    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="71"/>
+    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="71"/>
+    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="71"/>
+    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="71"/>
+    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="71"/>
+    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="71"/>
+    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="71"/>
+    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="71"/>
+    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="71"/>
+    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="71"/>
+    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="71"/>
+    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="71"/>
+    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="5" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="86">
+        <v>60</v>
+      </c>
+      <c r="D6" s="86">
+        <v>80</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="53" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="86">
+        <v>40</v>
+      </c>
+      <c r="D7" s="86">
+        <v>60</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="86">
+        <v>40</v>
+      </c>
+      <c r="D8" s="86">
+        <v>60</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="86">
+        <v>60</v>
+      </c>
+      <c r="D9" s="86">
+        <v>80</v>
+      </c>
+      <c r="E9" s="85"/>
+    </row>
+    <row r="10" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="86">
+        <v>50</v>
+      </c>
+      <c r="D10" s="86">
+        <v>90</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="86">
+        <v>50</v>
+      </c>
+      <c r="D11" s="86">
+        <v>70</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="86">
+        <v>40</v>
+      </c>
+      <c r="D12" s="86">
+        <v>90</v>
+      </c>
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="86">
+        <v>50</v>
+      </c>
+      <c r="D13" s="86">
+        <v>60</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="84">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="86">
+        <v>45</v>
+      </c>
+      <c r="D14" s="86">
+        <v>75</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="86">
+        <v>30</v>
+      </c>
+      <c r="D15" s="86">
+        <v>60</v>
+      </c>
+      <c r="E15" s="85"/>
+    </row>
+    <row r="16" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="84">
+        <v>11</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="86">
+        <v>80</v>
+      </c>
+      <c r="D16" s="86">
+        <v>70</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="86">
+        <v>85</v>
+      </c>
+      <c r="D17" s="86">
+        <v>70</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="86">
+        <v>80</v>
+      </c>
+      <c r="D18" s="86">
+        <v>60</v>
+      </c>
+      <c r="E18" s="85"/>
+    </row>
+    <row r="19" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>14</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="86">
+        <v>60</v>
+      </c>
+      <c r="D19" s="86">
+        <v>60</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="84">
+        <v>15</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="86">
+        <v>70</v>
+      </c>
+      <c r="D20" s="86">
+        <v>70</v>
+      </c>
+      <c r="E20" s="85"/>
+    </row>
+    <row r="21" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="86">
+        <v>40</v>
+      </c>
+      <c r="D21" s="86">
+        <v>50</v>
+      </c>
+      <c r="E21" s="85"/>
+      <c r="G21" s="76"/>
+    </row>
+    <row r="22" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>17</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="86">
+        <v>80</v>
+      </c>
+      <c r="D22" s="86">
+        <v>60</v>
+      </c>
+      <c r="E22" s="85"/>
+    </row>
+    <row r="23" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="86">
+        <v>90</v>
+      </c>
+      <c r="D23" s="86">
+        <v>60</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="84">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="86">
+        <v>70</v>
+      </c>
+      <c r="D24" s="86">
+        <v>80</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="53" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="86">
+        <v>80</v>
+      </c>
+      <c r="D25" s="86">
+        <v>80</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="84">
+        <v>21</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="86">
+        <v>70</v>
+      </c>
+      <c r="D26" s="86">
+        <v>60</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="86">
+        <v>65</v>
+      </c>
+      <c r="D27" s="86">
+        <v>80</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="84">
+        <v>23</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="86">
+        <v>60</v>
+      </c>
+      <c r="D28" s="86">
+        <v>50</v>
+      </c>
+      <c r="E28" s="85"/>
+    </row>
+    <row r="29" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="86">
+        <v>70</v>
+      </c>
+      <c r="D29" s="86">
+        <v>60</v>
+      </c>
+      <c r="E29" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,64 +9032,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="41" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2986,7 +10289,7 @@
       <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -2997,7 +10300,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="32" t="s">
         <v>94</v>
       </c>
@@ -3006,7 +10309,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="32" t="s">
         <v>96</v>
       </c>
@@ -3015,14 +10318,14 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="32" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="33"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="61" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -3033,7 +10336,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="34" t="s">
         <v>125</v>
       </c>
@@ -3042,7 +10345,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="34" t="s">
         <v>106</v>
       </c>
@@ -3051,7 +10354,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="32" t="s">
         <v>126</v>
       </c>
@@ -3060,7 +10363,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="34" t="s">
         <v>115</v>
       </c>
@@ -3070,7 +10373,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:L16">
-    <sortCondition sortBy="cellColor" ref="F3" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F3" dxfId="61"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A2:B2"/>
@@ -3102,257 +10405,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="64" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:4" s="50" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-    </row>
-    <row r="2" spans="1:4" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+    </row>
+    <row r="2" spans="1:4" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-    </row>
-    <row r="3" spans="1:4" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:4" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-    </row>
-    <row r="4" spans="1:4" s="64" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:4" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="37" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39">
         <v>1</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39">
         <v>6</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39">
         <v>7</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39">
         <v>8</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39">
         <v>9</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39">
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39">
         <v>11</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39">
         <v>12</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39">
         <v>13</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39">
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39">
         <v>15</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="38">
         <v>21</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="39">
         <v>16</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+    <row r="22" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>8</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="39">
         <v>17</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+    <row r="23" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>3</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="39">
         <v>17</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="42" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39">
         <v>18</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="38">
         <v>14</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="39">
         <v>19</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45">
         <v>20</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3366,1275 +10669,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>80</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
-        <v>60</v>
-      </c>
-      <c r="I9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1">
-        <v>70</v>
-      </c>
-      <c r="I13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1">
-        <v>80</v>
-      </c>
-      <c r="G14" s="1">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1">
-        <v>60</v>
-      </c>
-      <c r="I14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>80</v>
-      </c>
-      <c r="F15" s="1">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1">
-        <v>80</v>
-      </c>
-      <c r="H15" s="1">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>85</v>
-      </c>
-      <c r="E16" s="1">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1">
-        <v>80</v>
-      </c>
-      <c r="I16" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1">
-        <v>60</v>
-      </c>
-      <c r="F17" s="1">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
-      </c>
-      <c r="I17" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1">
-        <v>70</v>
-      </c>
-      <c r="G18" s="1">
-        <v>30</v>
-      </c>
-      <c r="H18" s="1">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1">
-        <v>55</v>
-      </c>
-      <c r="H19" s="1">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1">
-        <v>80</v>
-      </c>
-      <c r="G20" s="1">
-        <v>60</v>
-      </c>
-      <c r="H20" s="1">
-        <v>60</v>
-      </c>
-      <c r="I20" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1">
-        <v>90</v>
-      </c>
-      <c r="G21" s="1">
-        <v>40</v>
-      </c>
-      <c r="H21" s="1">
-        <v>90</v>
-      </c>
-      <c r="I21" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>70</v>
-      </c>
-      <c r="E22" s="1">
-        <v>60</v>
-      </c>
-      <c r="F22" s="1">
-        <v>70</v>
-      </c>
-      <c r="G22" s="1">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1">
-        <v>70</v>
-      </c>
-      <c r="I22" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>60</v>
-      </c>
-      <c r="E23" s="1">
-        <v>60</v>
-      </c>
-      <c r="F23" s="1">
-        <v>80</v>
-      </c>
-      <c r="G23" s="1">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1">
-        <v>80</v>
-      </c>
-      <c r="I23" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>60</v>
-      </c>
-      <c r="F24" s="1">
-        <v>70</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1">
-        <v>50</v>
-      </c>
-      <c r="I24" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1">
-        <v>65</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1">
-        <v>30</v>
-      </c>
-      <c r="I25" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1">
-        <v>60</v>
-      </c>
-      <c r="G26" s="1">
-        <v>30</v>
-      </c>
-      <c r="H26" s="1">
-        <v>60</v>
-      </c>
-      <c r="I26" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1">
-        <v>60</v>
-      </c>
-      <c r="F27" s="1">
-        <v>70</v>
-      </c>
-      <c r="G27" s="1">
-        <v>40</v>
-      </c>
-      <c r="H27" s="1">
-        <v>40</v>
-      </c>
-      <c r="I27" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:J28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>90</v>
-      </c>
-      <c r="F5" s="1">
-        <v>80</v>
-      </c>
-      <c r="G5" s="1">
-        <v>80</v>
-      </c>
-      <c r="H5" s="1">
-        <v>80</v>
-      </c>
-      <c r="I5" s="1">
-        <v>80</v>
-      </c>
-      <c r="J5" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>75</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>60</v>
-      </c>
-      <c r="J6" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>85</v>
-      </c>
-      <c r="F7" s="1">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1">
-        <v>70</v>
-      </c>
-      <c r="I7" s="1">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1">
-        <v>80</v>
-      </c>
-      <c r="J8" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1">
-        <v>80</v>
-      </c>
-      <c r="G9" s="1">
-        <v>70</v>
-      </c>
-      <c r="H9" s="1">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1">
-        <v>80</v>
-      </c>
-      <c r="I10" s="1">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>95</v>
-      </c>
-      <c r="F11" s="1">
-        <v>80</v>
-      </c>
-      <c r="G11" s="1">
-        <v>70</v>
-      </c>
-      <c r="H11" s="1">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>89</v>
-      </c>
-      <c r="F12" s="1">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1">
-        <v>70</v>
-      </c>
-      <c r="H12" s="1">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1">
-        <v>70</v>
-      </c>
-      <c r="J12" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1">
-        <v>70</v>
-      </c>
-      <c r="H13" s="1">
-        <v>60</v>
-      </c>
-      <c r="I13" s="1">
-        <v>70</v>
-      </c>
-      <c r="J13" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50</v>
-      </c>
-      <c r="G14" s="1">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1">
-        <v>70</v>
-      </c>
-      <c r="J14" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1">
-        <v>70</v>
-      </c>
-      <c r="G15" s="1">
-        <v>80</v>
-      </c>
-      <c r="H15" s="1">
-        <v>65</v>
-      </c>
-      <c r="I15" s="1">
-        <v>80</v>
-      </c>
-      <c r="J15" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1">
-        <v>70</v>
-      </c>
-      <c r="H16" s="1">
-        <v>70</v>
-      </c>
-      <c r="I16" s="1">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1">
-        <v>60</v>
-      </c>
-      <c r="J17" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="1">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>99</v>
-      </c>
-      <c r="F18" s="1">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1">
-        <v>70</v>
-      </c>
-      <c r="H18" s="1">
-        <v>50</v>
-      </c>
-      <c r="I18" s="1">
-        <v>70</v>
-      </c>
-      <c r="J18" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="1">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>50</v>
-      </c>
-      <c r="F19" s="1">
-        <v>50</v>
-      </c>
-      <c r="G19" s="1">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1">
-        <v>50</v>
-      </c>
-      <c r="I20" s="1">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1">
-        <v>50</v>
-      </c>
-      <c r="F21" s="1">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1">
-        <v>50</v>
-      </c>
-      <c r="J21" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
-        <v>18</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>50</v>
-      </c>
-      <c r="G22" s="1">
-        <v>70</v>
-      </c>
-      <c r="H22" s="1">
-        <v>50</v>
-      </c>
-      <c r="I22" s="1">
-        <v>70</v>
-      </c>
-      <c r="J22" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1">
-        <v>75</v>
-      </c>
-      <c r="F23" s="1">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1">
-        <v>70</v>
-      </c>
-      <c r="H23" s="1">
-        <v>30</v>
-      </c>
-      <c r="I23" s="1">
-        <v>70</v>
-      </c>
-      <c r="J23" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>70</v>
-      </c>
-      <c r="F24" s="1">
-        <v>70</v>
-      </c>
-      <c r="G24" s="1">
-        <v>70</v>
-      </c>
-      <c r="H24" s="1">
-        <v>70</v>
-      </c>
-      <c r="I24" s="1">
-        <v>70</v>
-      </c>
-      <c r="J24" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="1">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1">
-        <v>50</v>
-      </c>
-      <c r="G25" s="1">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1">
-        <v>30</v>
-      </c>
-      <c r="I25" s="1">
-        <v>50</v>
-      </c>
-      <c r="J25" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="1">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1">
-        <v>75</v>
-      </c>
-      <c r="F26" s="1">
-        <v>70</v>
-      </c>
-      <c r="G26" s="1">
-        <v>80</v>
-      </c>
-      <c r="H26" s="1">
-        <v>80</v>
-      </c>
-      <c r="I26" s="1">
-        <v>80</v>
-      </c>
-      <c r="J26" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="1">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1">
-        <v>50</v>
-      </c>
-      <c r="H27" s="1">
-        <v>40</v>
-      </c>
-      <c r="I27" s="1">
-        <v>50</v>
-      </c>
-      <c r="J27" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="1">
-        <v>24</v>
-      </c>
-      <c r="E28" s="1">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1">
-        <v>40</v>
-      </c>
-      <c r="H28" s="1">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1">
-        <v>40</v>
-      </c>
-      <c r="J28" s="1">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
+++ b/1. Project management/6. Risk management plan/AS_PM_RiskManagement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AS project\Admission System\1. Project management\6. Risk management plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\6. Risk management plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" tabRatio="826" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" tabRatio="826" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -1072,57 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1173,6 +1122,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,17 +1180,54 @@
   <dxfs count="66">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1203,7 +1240,113 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1270,79 +1413,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1377,241 +1447,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1636,58 +1471,6 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1717,6 +1500,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1737,6 +1527,106 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1761,13 +1651,6 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1797,6 +1680,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1851,6 +1741,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -1878,6 +1769,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -1939,13 +1831,6 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1975,6 +1860,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1995,6 +1887,104 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -2019,13 +2009,6 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -2055,6 +2038,13 @@
       </font>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2088,14 +2078,11 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2112,14 +2099,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2136,6 +2127,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -2201,6 +2193,19 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2211,6 +2216,13 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2236,7 +2248,123 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2257,173 +2385,45 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2502,97 +2502,97 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A5:E29" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="52" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A5:E29" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="A5:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="RISK ID" dataDxfId="49"/>
-    <tableColumn id="2" name="LIST RISK" dataDxfId="48"/>
-    <tableColumn id="3" name="PROBABILITY" dataDxfId="47"/>
-    <tableColumn id="4" name="IMPACT" dataDxfId="45"/>
-    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="46"/>
+    <tableColumn id="1" name="RISK ID" dataDxfId="57"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="56"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="55"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="54"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A5:E29" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowBorderDxfId="41" tableBorderDxfId="42">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A5:E28" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="RISK ID" dataDxfId="40"/>
-    <tableColumn id="2" name="LIST RISK" dataDxfId="7"/>
-    <tableColumn id="3" name="PROBABILITY" dataDxfId="6"/>
-    <tableColumn id="4" name="IMPACT" dataDxfId="4"/>
-    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="5"/>
+    <tableColumn id="1" name="RISK ID" dataDxfId="48"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="47"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="46"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="45"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table467" displayName="Table467" ref="A5:E29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table467" displayName="Table467" ref="A5:E28" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="RISK ID" dataDxfId="35"/>
-    <tableColumn id="2" name="LIST RISK" dataDxfId="34"/>
-    <tableColumn id="3" name="PROBABILITY" dataDxfId="33"/>
-    <tableColumn id="4" name="IMPACT" dataDxfId="32"/>
-    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="31"/>
+    <tableColumn id="1" name="RISK ID" dataDxfId="39"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="38"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="37"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="36"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table468" displayName="Table468" ref="A5:E29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table468" displayName="Table468" ref="A5:E28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="RISK ID" dataDxfId="26"/>
-    <tableColumn id="2" name="LIST RISK" dataDxfId="15"/>
-    <tableColumn id="3" name="PROBABILITY" dataDxfId="14"/>
-    <tableColumn id="4" name="IMPACT" dataDxfId="12"/>
-    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="13"/>
+    <tableColumn id="1" name="RISK ID" dataDxfId="30"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="29"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="28"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="27"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4689" displayName="Table4689" ref="A5:E29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4689" displayName="Table4689" ref="A5:E28" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="RISK ID" dataDxfId="21"/>
-    <tableColumn id="2" name="LIST RISK" dataDxfId="11"/>
-    <tableColumn id="3" name="PROBABILITY" dataDxfId="10"/>
-    <tableColumn id="4" name="IMPACT" dataDxfId="8"/>
-    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="9"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="20"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="19"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="18"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table468910" displayName="Table468910" ref="A5:E29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="19" tableBorderDxfId="20">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table468910" displayName="Table468910" ref="A5:E28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="RISK ID" dataDxfId="18"/>
-    <tableColumn id="2" name="LIST RISK" dataDxfId="3"/>
-    <tableColumn id="3" name="PROBABILITY" dataDxfId="2"/>
-    <tableColumn id="4" name="IMPACT" dataDxfId="0"/>
-    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="1"/>
+    <tableColumn id="1" name="RISK ID" dataDxfId="12"/>
+    <tableColumn id="2" name="LIST RISK" dataDxfId="11"/>
+    <tableColumn id="3" name="PROBABILITY" dataDxfId="10"/>
+    <tableColumn id="4" name="IMPACT" dataDxfId="9"/>
+    <tableColumn id="5" name="MITIGATE METHOD" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table6" displayName="Table6" ref="A5:D26" totalsRowShown="0" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table6" displayName="Table6" ref="A5:D26" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A5:D26"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="57"/>
-    <tableColumn id="2" name="Week" dataDxfId="56"/>
-    <tableColumn id="3" name="Risk" dataDxfId="55"/>
-    <tableColumn id="4" name="Plan/Methods" dataDxfId="54"/>
+    <tableColumn id="1" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" name="Week" dataDxfId="2"/>
+    <tableColumn id="3" name="Risk" dataDxfId="1"/>
+    <tableColumn id="4" name="Plan/Methods" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2905,16 +2905,16 @@
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -4269,337 +4269,337 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19" style="71" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="257" width="9.140625" style="71"/>
-    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
-    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
-    <col min="260" max="260" width="19" style="71" customWidth="1"/>
-    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="262" max="513" width="9.140625" style="71"/>
-    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
-    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
-    <col min="516" max="516" width="19" style="71" customWidth="1"/>
-    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="518" max="769" width="9.140625" style="71"/>
-    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
-    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
-    <col min="772" max="772" width="19" style="71" customWidth="1"/>
-    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="774" max="1025" width="9.140625" style="71"/>
-    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1281" width="9.140625" style="71"/>
-    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1537" width="9.140625" style="71"/>
-    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1793" width="9.140625" style="71"/>
-    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2049" width="9.140625" style="71"/>
-    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2305" width="9.140625" style="71"/>
-    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2561" width="9.140625" style="71"/>
-    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2817" width="9.140625" style="71"/>
-    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3073" width="9.140625" style="71"/>
-    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3329" width="9.140625" style="71"/>
-    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3585" width="9.140625" style="71"/>
-    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3841" width="9.140625" style="71"/>
-    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4097" width="9.140625" style="71"/>
-    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4353" width="9.140625" style="71"/>
-    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4609" width="9.140625" style="71"/>
-    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4865" width="9.140625" style="71"/>
-    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5121" width="9.140625" style="71"/>
-    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5377" width="9.140625" style="71"/>
-    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5633" width="9.140625" style="71"/>
-    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5889" width="9.140625" style="71"/>
-    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6145" width="9.140625" style="71"/>
-    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6401" width="9.140625" style="71"/>
-    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6657" width="9.140625" style="71"/>
-    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6913" width="9.140625" style="71"/>
-    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7169" width="9.140625" style="71"/>
-    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7425" width="9.140625" style="71"/>
-    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7681" width="9.140625" style="71"/>
-    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7937" width="9.140625" style="71"/>
-    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8193" width="9.140625" style="71"/>
-    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8449" width="9.140625" style="71"/>
-    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8705" width="9.140625" style="71"/>
-    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8961" width="9.140625" style="71"/>
-    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9217" width="9.140625" style="71"/>
-    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9473" width="9.140625" style="71"/>
-    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9729" width="9.140625" style="71"/>
-    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9985" width="9.140625" style="71"/>
-    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10241" width="9.140625" style="71"/>
-    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10497" width="9.140625" style="71"/>
-    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10753" width="9.140625" style="71"/>
-    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11009" width="9.140625" style="71"/>
-    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11265" width="9.140625" style="71"/>
-    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11521" width="9.140625" style="71"/>
-    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11777" width="9.140625" style="71"/>
-    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12033" width="9.140625" style="71"/>
-    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12289" width="9.140625" style="71"/>
-    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12545" width="9.140625" style="71"/>
-    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12801" width="9.140625" style="71"/>
-    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13057" width="9.140625" style="71"/>
-    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13313" width="9.140625" style="71"/>
-    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13569" width="9.140625" style="71"/>
-    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13825" width="9.140625" style="71"/>
-    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14081" width="9.140625" style="71"/>
-    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14337" width="9.140625" style="71"/>
-    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14593" width="9.140625" style="71"/>
-    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14849" width="9.140625" style="71"/>
-    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15105" width="9.140625" style="71"/>
-    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15361" width="9.140625" style="71"/>
-    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15617" width="9.140625" style="71"/>
-    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15873" width="9.140625" style="71"/>
-    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16129" width="9.140625" style="71"/>
-    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
-    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="9.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="54"/>
+    <col min="258" max="258" width="30.42578125" style="54" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="54" customWidth="1"/>
+    <col min="260" max="260" width="19" style="54" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="54"/>
+    <col min="514" max="514" width="30.42578125" style="54" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="54" customWidth="1"/>
+    <col min="516" max="516" width="19" style="54" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="54"/>
+    <col min="770" max="770" width="30.42578125" style="54" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="54" customWidth="1"/>
+    <col min="772" max="772" width="19" style="54" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="54"/>
+    <col min="1026" max="1026" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="54" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="54"/>
+    <col min="1282" max="1282" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="54" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="54"/>
+    <col min="1538" max="1538" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="54" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="54"/>
+    <col min="1794" max="1794" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="54" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="54"/>
+    <col min="2050" max="2050" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="54" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="54"/>
+    <col min="2306" max="2306" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="54" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="54"/>
+    <col min="2562" max="2562" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="54" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="54"/>
+    <col min="2818" max="2818" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="54" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="54"/>
+    <col min="3074" max="3074" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="54" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="54"/>
+    <col min="3330" max="3330" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="54" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="54"/>
+    <col min="3586" max="3586" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="54" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="54"/>
+    <col min="3842" max="3842" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="54" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="54"/>
+    <col min="4098" max="4098" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="54" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="54"/>
+    <col min="4354" max="4354" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="54" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="54"/>
+    <col min="4610" max="4610" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="54" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="54"/>
+    <col min="4866" max="4866" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="54" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="54"/>
+    <col min="5122" max="5122" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="54" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="54"/>
+    <col min="5378" max="5378" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="54" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="54"/>
+    <col min="5634" max="5634" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="54" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="54"/>
+    <col min="5890" max="5890" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="54" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="54"/>
+    <col min="6146" max="6146" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="54" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="54"/>
+    <col min="6402" max="6402" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="54" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="54"/>
+    <col min="6658" max="6658" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="54" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="54"/>
+    <col min="6914" max="6914" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="54" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="54"/>
+    <col min="7170" max="7170" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="54" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="54"/>
+    <col min="7426" max="7426" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="54" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="54"/>
+    <col min="7682" max="7682" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="54" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="54"/>
+    <col min="7938" max="7938" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="54" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="54"/>
+    <col min="8194" max="8194" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="54" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="54"/>
+    <col min="8450" max="8450" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="54" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="54"/>
+    <col min="8706" max="8706" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="54" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="54"/>
+    <col min="8962" max="8962" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="54" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="54"/>
+    <col min="9218" max="9218" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="54" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="54"/>
+    <col min="9474" max="9474" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="54" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="54"/>
+    <col min="9730" max="9730" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="54" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="54"/>
+    <col min="9986" max="9986" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="54" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="54"/>
+    <col min="10242" max="10242" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="54" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="54"/>
+    <col min="10498" max="10498" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="54" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="54"/>
+    <col min="10754" max="10754" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="54" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="54"/>
+    <col min="11010" max="11010" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="54" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="54"/>
+    <col min="11266" max="11266" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="54" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="54"/>
+    <col min="11522" max="11522" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="54" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="54"/>
+    <col min="11778" max="11778" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="54" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="54"/>
+    <col min="12034" max="12034" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="54" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="54"/>
+    <col min="12290" max="12290" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="54" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="54"/>
+    <col min="12546" max="12546" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="54" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="54"/>
+    <col min="12802" max="12802" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="54" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="54"/>
+    <col min="13058" max="13058" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="54" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="54"/>
+    <col min="13314" max="13314" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="54" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="54"/>
+    <col min="13570" max="13570" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="54" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="54"/>
+    <col min="13826" max="13826" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="54" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="54"/>
+    <col min="14082" max="14082" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="54" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="54"/>
+    <col min="14338" max="14338" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="54" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="54"/>
+    <col min="14594" max="14594" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="54" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="54"/>
+    <col min="14850" max="14850" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="54" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="54"/>
+    <col min="15106" max="15106" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="54" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="54"/>
+    <col min="15362" max="15362" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="54" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="54"/>
+    <col min="15618" max="15618" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="54" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="54"/>
+    <col min="15874" max="15874" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="54" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="54"/>
+    <col min="16130" max="16130" width="30.42578125" style="54" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="54" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="54" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -4613,13 +4613,13 @@
       <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -4633,13 +4633,13 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -4653,382 +4653,382 @@
       <c r="P3" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="86">
-        <v>50</v>
-      </c>
-      <c r="D6" s="86">
+      <c r="C6" s="69">
+        <v>50</v>
+      </c>
+      <c r="D6" s="69">
         <v>90</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="86">
-        <v>50</v>
-      </c>
-      <c r="D7" s="86">
+      <c r="C7" s="69">
+        <v>50</v>
+      </c>
+      <c r="D7" s="69">
         <v>75</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="69">
         <v>68</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="69">
         <v>85</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="69">
         <v>70</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="69">
         <v>80</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="69">
         <v>80</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="69">
         <v>70</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="69">
         <v>80</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="69">
         <v>90</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="69">
         <v>25</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="69">
         <v>95</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="67">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="69">
         <v>60</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="69">
         <v>89</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="67">
         <v>9</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="69">
         <v>5</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="69">
         <v>55</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="69">
         <v>10</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="69">
         <v>69</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="67">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="69">
         <v>20</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="69">
         <v>40</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="67">
         <v>12</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="69">
         <v>10</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="69">
         <v>30</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="67">
         <v>13</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="69">
         <v>85</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="69">
         <v>20</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="67">
         <v>14</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="69">
         <v>80</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="69">
         <v>99</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="67">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="69">
         <v>30</v>
       </c>
-      <c r="D20" s="86">
-        <v>50</v>
-      </c>
-      <c r="E20" s="83"/>
+      <c r="D20" s="69">
+        <v>50</v>
+      </c>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="67">
         <v>16</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="69">
         <v>30</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="69">
         <v>40</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="G21" s="76"/>
+      <c r="E21" s="66"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="67">
         <v>17</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="86">
-        <v>50</v>
-      </c>
-      <c r="D22" s="86">
-        <v>50</v>
-      </c>
-      <c r="E22" s="83"/>
+      <c r="C22" s="69">
+        <v>50</v>
+      </c>
+      <c r="D22" s="69">
+        <v>50</v>
+      </c>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="67">
         <v>18</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="69">
         <v>20</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="69">
         <v>20</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="67">
         <v>19</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="69">
         <v>70</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="69">
         <v>75</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="67">
         <v>20</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="69">
         <v>60</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="69">
         <v>70</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="69">
         <v>20</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="69">
         <v>30</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="67">
         <v>22</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="69">
         <v>40</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="69">
         <v>75</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="86">
-        <v>50</v>
-      </c>
-      <c r="D28" s="86">
-        <v>50</v>
-      </c>
-      <c r="E28" s="83"/>
+      <c r="B28" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="69">
+        <v>50</v>
+      </c>
+      <c r="D28" s="69">
+        <v>50</v>
+      </c>
+      <c r="E28" s="66"/>
     </row>
     <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
+      <c r="A29" s="67">
         <v>24</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="69">
         <v>60</v>
       </c>
-      <c r="D29" s="86">
-        <v>50</v>
-      </c>
-      <c r="E29" s="83"/>
+      <c r="D29" s="69">
+        <v>50</v>
+      </c>
+      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5046,345 +5046,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19" style="71" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="257" width="9.140625" style="71"/>
-    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
-    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
-    <col min="260" max="260" width="19" style="71" customWidth="1"/>
-    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="262" max="513" width="9.140625" style="71"/>
-    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
-    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
-    <col min="516" max="516" width="19" style="71" customWidth="1"/>
-    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="518" max="769" width="9.140625" style="71"/>
-    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
-    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
-    <col min="772" max="772" width="19" style="71" customWidth="1"/>
-    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="774" max="1025" width="9.140625" style="71"/>
-    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1281" width="9.140625" style="71"/>
-    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1537" width="9.140625" style="71"/>
-    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1793" width="9.140625" style="71"/>
-    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2049" width="9.140625" style="71"/>
-    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2305" width="9.140625" style="71"/>
-    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2561" width="9.140625" style="71"/>
-    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2817" width="9.140625" style="71"/>
-    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3073" width="9.140625" style="71"/>
-    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3329" width="9.140625" style="71"/>
-    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3585" width="9.140625" style="71"/>
-    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3841" width="9.140625" style="71"/>
-    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4097" width="9.140625" style="71"/>
-    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4353" width="9.140625" style="71"/>
-    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4609" width="9.140625" style="71"/>
-    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4865" width="9.140625" style="71"/>
-    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5121" width="9.140625" style="71"/>
-    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5377" width="9.140625" style="71"/>
-    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5633" width="9.140625" style="71"/>
-    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5889" width="9.140625" style="71"/>
-    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6145" width="9.140625" style="71"/>
-    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6401" width="9.140625" style="71"/>
-    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6657" width="9.140625" style="71"/>
-    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6913" width="9.140625" style="71"/>
-    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7169" width="9.140625" style="71"/>
-    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7425" width="9.140625" style="71"/>
-    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7681" width="9.140625" style="71"/>
-    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7937" width="9.140625" style="71"/>
-    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8193" width="9.140625" style="71"/>
-    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8449" width="9.140625" style="71"/>
-    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8705" width="9.140625" style="71"/>
-    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8961" width="9.140625" style="71"/>
-    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9217" width="9.140625" style="71"/>
-    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9473" width="9.140625" style="71"/>
-    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9729" width="9.140625" style="71"/>
-    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9985" width="9.140625" style="71"/>
-    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10241" width="9.140625" style="71"/>
-    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10497" width="9.140625" style="71"/>
-    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10753" width="9.140625" style="71"/>
-    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11009" width="9.140625" style="71"/>
-    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11265" width="9.140625" style="71"/>
-    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11521" width="9.140625" style="71"/>
-    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11777" width="9.140625" style="71"/>
-    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12033" width="9.140625" style="71"/>
-    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12289" width="9.140625" style="71"/>
-    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12545" width="9.140625" style="71"/>
-    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12801" width="9.140625" style="71"/>
-    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13057" width="9.140625" style="71"/>
-    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13313" width="9.140625" style="71"/>
-    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13569" width="9.140625" style="71"/>
-    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13825" width="9.140625" style="71"/>
-    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14081" width="9.140625" style="71"/>
-    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14337" width="9.140625" style="71"/>
-    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14593" width="9.140625" style="71"/>
-    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14849" width="9.140625" style="71"/>
-    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15105" width="9.140625" style="71"/>
-    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15361" width="9.140625" style="71"/>
-    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15617" width="9.140625" style="71"/>
-    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15873" width="9.140625" style="71"/>
-    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16129" width="9.140625" style="71"/>
-    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
-    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="9.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="54"/>
+    <col min="258" max="258" width="30.42578125" style="54" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="54" customWidth="1"/>
+    <col min="260" max="260" width="19" style="54" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="54"/>
+    <col min="514" max="514" width="30.42578125" style="54" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="54" customWidth="1"/>
+    <col min="516" max="516" width="19" style="54" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="54"/>
+    <col min="770" max="770" width="30.42578125" style="54" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="54" customWidth="1"/>
+    <col min="772" max="772" width="19" style="54" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="54"/>
+    <col min="1026" max="1026" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="54" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="54"/>
+    <col min="1282" max="1282" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="54" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="54"/>
+    <col min="1538" max="1538" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="54" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="54"/>
+    <col min="1794" max="1794" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="54" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="54"/>
+    <col min="2050" max="2050" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="54" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="54"/>
+    <col min="2306" max="2306" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="54" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="54"/>
+    <col min="2562" max="2562" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="54" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="54"/>
+    <col min="2818" max="2818" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="54" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="54"/>
+    <col min="3074" max="3074" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="54" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="54"/>
+    <col min="3330" max="3330" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="54" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="54"/>
+    <col min="3586" max="3586" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="54" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="54"/>
+    <col min="3842" max="3842" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="54" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="54"/>
+    <col min="4098" max="4098" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="54" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="54"/>
+    <col min="4354" max="4354" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="54" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="54"/>
+    <col min="4610" max="4610" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="54" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="54"/>
+    <col min="4866" max="4866" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="54" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="54"/>
+    <col min="5122" max="5122" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="54" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="54"/>
+    <col min="5378" max="5378" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="54" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="54"/>
+    <col min="5634" max="5634" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="54" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="54"/>
+    <col min="5890" max="5890" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="54" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="54"/>
+    <col min="6146" max="6146" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="54" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="54"/>
+    <col min="6402" max="6402" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="54" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="54"/>
+    <col min="6658" max="6658" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="54" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="54"/>
+    <col min="6914" max="6914" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="54" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="54"/>
+    <col min="7170" max="7170" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="54" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="54"/>
+    <col min="7426" max="7426" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="54" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="54"/>
+    <col min="7682" max="7682" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="54" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="54"/>
+    <col min="7938" max="7938" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="54" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="54"/>
+    <col min="8194" max="8194" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="54" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="54"/>
+    <col min="8450" max="8450" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="54" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="54"/>
+    <col min="8706" max="8706" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="54" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="54"/>
+    <col min="8962" max="8962" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="54" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="54"/>
+    <col min="9218" max="9218" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="54" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="54"/>
+    <col min="9474" max="9474" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="54" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="54"/>
+    <col min="9730" max="9730" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="54" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="54"/>
+    <col min="9986" max="9986" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="54" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="54"/>
+    <col min="10242" max="10242" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="54" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="54"/>
+    <col min="10498" max="10498" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="54" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="54"/>
+    <col min="10754" max="10754" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="54" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="54"/>
+    <col min="11010" max="11010" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="54" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="54"/>
+    <col min="11266" max="11266" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="54" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="54"/>
+    <col min="11522" max="11522" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="54" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="54"/>
+    <col min="11778" max="11778" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="54" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="54"/>
+    <col min="12034" max="12034" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="54" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="54"/>
+    <col min="12290" max="12290" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="54" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="54"/>
+    <col min="12546" max="12546" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="54" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="54"/>
+    <col min="12802" max="12802" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="54" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="54"/>
+    <col min="13058" max="13058" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="54" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="54"/>
+    <col min="13314" max="13314" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="54" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="54"/>
+    <col min="13570" max="13570" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="54" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="54"/>
+    <col min="13826" max="13826" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="54" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="54"/>
+    <col min="14082" max="14082" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="54" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="54"/>
+    <col min="14338" max="14338" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="54" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="54"/>
+    <col min="14594" max="14594" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="54" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="54"/>
+    <col min="14850" max="14850" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="54" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="54"/>
+    <col min="15106" max="15106" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="54" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="54"/>
+    <col min="15362" max="15362" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="54" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="54"/>
+    <col min="15618" max="15618" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="54" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="54"/>
+    <col min="15874" max="15874" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="54" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="54"/>
+    <col min="16130" max="16130" width="30.42578125" style="54" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="54" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="54" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -5398,13 +5398,13 @@
       <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -5418,13 +5418,13 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -5438,382 +5438,367 @@
       <c r="P3" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="69">
         <v>40</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="69">
         <v>80</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="69">
         <v>40</v>
       </c>
-      <c r="D7" s="86">
-        <v>50</v>
-      </c>
-      <c r="E7" s="83"/>
+      <c r="D7" s="69">
+        <v>50</v>
+      </c>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="69">
         <v>60</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="69">
         <v>70</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="69">
         <v>40</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="69">
         <v>80</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="69">
         <v>30</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="69">
         <v>80</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="69">
         <v>60</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="69">
         <v>60</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="69">
         <v>30</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="69">
         <v>80</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="67">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="86">
-        <v>50</v>
-      </c>
-      <c r="D13" s="86">
-        <v>50</v>
-      </c>
-      <c r="E13" s="83"/>
+      <c r="C13" s="69">
+        <v>50</v>
+      </c>
+      <c r="D13" s="69">
+        <v>50</v>
+      </c>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="67">
         <v>9</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="69">
         <v>30</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="69">
         <v>70</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="69">
         <v>40</v>
       </c>
-      <c r="D15" s="86">
-        <v>50</v>
-      </c>
-      <c r="E15" s="83"/>
+      <c r="D15" s="69">
+        <v>50</v>
+      </c>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="67">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="86">
-        <v>50</v>
-      </c>
-      <c r="D16" s="86">
+      <c r="C16" s="69">
+        <v>50</v>
+      </c>
+      <c r="D16" s="69">
         <v>70</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="67">
         <v>12</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="69">
         <v>80</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="69">
         <v>80</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="67">
         <v>13</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="69">
         <v>80</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="69">
         <v>40</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="67">
         <v>14</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="69">
         <v>60</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="69">
         <v>60</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="67">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="86">
-        <v>50</v>
-      </c>
-      <c r="D20" s="86">
-        <v>50</v>
-      </c>
-      <c r="E20" s="83"/>
+      <c r="C20" s="69">
+        <v>50</v>
+      </c>
+      <c r="D20" s="69">
+        <v>50</v>
+      </c>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="67">
         <v>16</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="69">
         <v>30</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="69">
         <v>40</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="G21" s="76"/>
+      <c r="E21" s="66"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="67">
         <v>17</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="86">
-        <v>50</v>
-      </c>
-      <c r="D22" s="86">
-        <v>50</v>
-      </c>
-      <c r="E22" s="83"/>
+      <c r="C22" s="69">
+        <v>50</v>
+      </c>
+      <c r="D22" s="69">
+        <v>50</v>
+      </c>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="67">
         <v>18</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="69">
         <v>70</v>
       </c>
-      <c r="D23" s="86">
-        <v>50</v>
-      </c>
-      <c r="E23" s="83"/>
+      <c r="D23" s="69">
+        <v>50</v>
+      </c>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="67">
         <v>19</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="69">
         <v>60</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="69">
         <v>70</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="67">
         <v>20</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="69">
         <v>60</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="69">
         <v>70</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="69">
         <v>60</v>
       </c>
-      <c r="D26" s="86">
-        <v>50</v>
-      </c>
-      <c r="E26" s="83"/>
+      <c r="D26" s="69">
+        <v>50</v>
+      </c>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="67">
         <v>22</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="69">
         <v>60</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="69">
         <v>70</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="86">
-        <v>50</v>
-      </c>
-      <c r="D28" s="86">
-        <v>50</v>
-      </c>
-      <c r="E28" s="83"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
-        <v>24</v>
-      </c>
-      <c r="B29" s="78" t="s">
+      <c r="B28" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C28" s="69">
         <v>60</v>
       </c>
-      <c r="D29" s="86">
-        <v>50</v>
-      </c>
-      <c r="E29" s="83"/>
+      <c r="D28" s="69">
+        <v>50</v>
+      </c>
+      <c r="E28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5834,345 +5819,345 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19" style="71" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="257" width="9.140625" style="71"/>
-    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
-    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
-    <col min="260" max="260" width="19" style="71" customWidth="1"/>
-    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="262" max="513" width="9.140625" style="71"/>
-    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
-    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
-    <col min="516" max="516" width="19" style="71" customWidth="1"/>
-    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="518" max="769" width="9.140625" style="71"/>
-    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
-    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
-    <col min="772" max="772" width="19" style="71" customWidth="1"/>
-    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="774" max="1025" width="9.140625" style="71"/>
-    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1281" width="9.140625" style="71"/>
-    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1537" width="9.140625" style="71"/>
-    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1793" width="9.140625" style="71"/>
-    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2049" width="9.140625" style="71"/>
-    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2305" width="9.140625" style="71"/>
-    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2561" width="9.140625" style="71"/>
-    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2817" width="9.140625" style="71"/>
-    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3073" width="9.140625" style="71"/>
-    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3329" width="9.140625" style="71"/>
-    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3585" width="9.140625" style="71"/>
-    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3841" width="9.140625" style="71"/>
-    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4097" width="9.140625" style="71"/>
-    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4353" width="9.140625" style="71"/>
-    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4609" width="9.140625" style="71"/>
-    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4865" width="9.140625" style="71"/>
-    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5121" width="9.140625" style="71"/>
-    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5377" width="9.140625" style="71"/>
-    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5633" width="9.140625" style="71"/>
-    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5889" width="9.140625" style="71"/>
-    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6145" width="9.140625" style="71"/>
-    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6401" width="9.140625" style="71"/>
-    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6657" width="9.140625" style="71"/>
-    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6913" width="9.140625" style="71"/>
-    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7169" width="9.140625" style="71"/>
-    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7425" width="9.140625" style="71"/>
-    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7681" width="9.140625" style="71"/>
-    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7937" width="9.140625" style="71"/>
-    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8193" width="9.140625" style="71"/>
-    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8449" width="9.140625" style="71"/>
-    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8705" width="9.140625" style="71"/>
-    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8961" width="9.140625" style="71"/>
-    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9217" width="9.140625" style="71"/>
-    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9473" width="9.140625" style="71"/>
-    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9729" width="9.140625" style="71"/>
-    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9985" width="9.140625" style="71"/>
-    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10241" width="9.140625" style="71"/>
-    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10497" width="9.140625" style="71"/>
-    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10753" width="9.140625" style="71"/>
-    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11009" width="9.140625" style="71"/>
-    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11265" width="9.140625" style="71"/>
-    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11521" width="9.140625" style="71"/>
-    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11777" width="9.140625" style="71"/>
-    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12033" width="9.140625" style="71"/>
-    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12289" width="9.140625" style="71"/>
-    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12545" width="9.140625" style="71"/>
-    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12801" width="9.140625" style="71"/>
-    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13057" width="9.140625" style="71"/>
-    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13313" width="9.140625" style="71"/>
-    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13569" width="9.140625" style="71"/>
-    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13825" width="9.140625" style="71"/>
-    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14081" width="9.140625" style="71"/>
-    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14337" width="9.140625" style="71"/>
-    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14593" width="9.140625" style="71"/>
-    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14849" width="9.140625" style="71"/>
-    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15105" width="9.140625" style="71"/>
-    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15361" width="9.140625" style="71"/>
-    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15617" width="9.140625" style="71"/>
-    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15873" width="9.140625" style="71"/>
-    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16129" width="9.140625" style="71"/>
-    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
-    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="9.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="54"/>
+    <col min="258" max="258" width="30.42578125" style="54" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="54" customWidth="1"/>
+    <col min="260" max="260" width="19" style="54" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="54"/>
+    <col min="514" max="514" width="30.42578125" style="54" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="54" customWidth="1"/>
+    <col min="516" max="516" width="19" style="54" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="54"/>
+    <col min="770" max="770" width="30.42578125" style="54" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="54" customWidth="1"/>
+    <col min="772" max="772" width="19" style="54" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="54"/>
+    <col min="1026" max="1026" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="54" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="54"/>
+    <col min="1282" max="1282" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="54" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="54"/>
+    <col min="1538" max="1538" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="54" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="54"/>
+    <col min="1794" max="1794" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="54" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="54"/>
+    <col min="2050" max="2050" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="54" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="54"/>
+    <col min="2306" max="2306" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="54" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="54"/>
+    <col min="2562" max="2562" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="54" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="54"/>
+    <col min="2818" max="2818" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="54" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="54"/>
+    <col min="3074" max="3074" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="54" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="54"/>
+    <col min="3330" max="3330" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="54" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="54"/>
+    <col min="3586" max="3586" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="54" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="54"/>
+    <col min="3842" max="3842" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="54" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="54"/>
+    <col min="4098" max="4098" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="54" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="54"/>
+    <col min="4354" max="4354" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="54" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="54"/>
+    <col min="4610" max="4610" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="54" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="54"/>
+    <col min="4866" max="4866" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="54" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="54"/>
+    <col min="5122" max="5122" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="54" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="54"/>
+    <col min="5378" max="5378" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="54" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="54"/>
+    <col min="5634" max="5634" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="54" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="54"/>
+    <col min="5890" max="5890" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="54" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="54"/>
+    <col min="6146" max="6146" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="54" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="54"/>
+    <col min="6402" max="6402" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="54" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="54"/>
+    <col min="6658" max="6658" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="54" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="54"/>
+    <col min="6914" max="6914" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="54" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="54"/>
+    <col min="7170" max="7170" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="54" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="54"/>
+    <col min="7426" max="7426" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="54" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="54"/>
+    <col min="7682" max="7682" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="54" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="54"/>
+    <col min="7938" max="7938" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="54" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="54"/>
+    <col min="8194" max="8194" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="54" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="54"/>
+    <col min="8450" max="8450" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="54" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="54"/>
+    <col min="8706" max="8706" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="54" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="54"/>
+    <col min="8962" max="8962" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="54" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="54"/>
+    <col min="9218" max="9218" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="54" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="54"/>
+    <col min="9474" max="9474" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="54" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="54"/>
+    <col min="9730" max="9730" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="54" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="54"/>
+    <col min="9986" max="9986" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="54" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="54"/>
+    <col min="10242" max="10242" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="54" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="54"/>
+    <col min="10498" max="10498" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="54" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="54"/>
+    <col min="10754" max="10754" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="54" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="54"/>
+    <col min="11010" max="11010" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="54" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="54"/>
+    <col min="11266" max="11266" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="54" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="54"/>
+    <col min="11522" max="11522" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="54" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="54"/>
+    <col min="11778" max="11778" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="54" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="54"/>
+    <col min="12034" max="12034" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="54" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="54"/>
+    <col min="12290" max="12290" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="54" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="54"/>
+    <col min="12546" max="12546" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="54" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="54"/>
+    <col min="12802" max="12802" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="54" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="54"/>
+    <col min="13058" max="13058" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="54" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="54"/>
+    <col min="13314" max="13314" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="54" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="54"/>
+    <col min="13570" max="13570" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="54" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="54"/>
+    <col min="13826" max="13826" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="54" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="54"/>
+    <col min="14082" max="14082" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="54" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="54"/>
+    <col min="14338" max="14338" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="54" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="54"/>
+    <col min="14594" max="14594" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="54" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="54"/>
+    <col min="14850" max="14850" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="54" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="54"/>
+    <col min="15106" max="15106" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="54" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="54"/>
+    <col min="15362" max="15362" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="54" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="54"/>
+    <col min="15618" max="15618" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="54" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="54"/>
+    <col min="15874" max="15874" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="54" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="54"/>
+    <col min="16130" max="16130" width="30.42578125" style="54" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="54" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="54" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -6186,13 +6171,13 @@
       <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -6206,13 +6191,13 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -6226,382 +6211,367 @@
       <c r="P3" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="70">
         <v>40</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="70">
         <v>80</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="70">
         <v>40</v>
       </c>
-      <c r="D7" s="87">
-        <v>50</v>
-      </c>
-      <c r="E7" s="83"/>
+      <c r="D7" s="70">
+        <v>50</v>
+      </c>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="70">
         <v>60</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="70">
         <v>70</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="70">
         <v>40</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="70">
         <v>80</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="70">
         <v>30</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="70">
         <v>80</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="70">
         <v>60</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="70">
         <v>60</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="70">
         <v>30</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="70">
         <v>80</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="67">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="87">
-        <v>50</v>
-      </c>
-      <c r="D13" s="87">
-        <v>50</v>
-      </c>
-      <c r="E13" s="83"/>
+      <c r="C13" s="70">
+        <v>50</v>
+      </c>
+      <c r="D13" s="70">
+        <v>50</v>
+      </c>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="67">
         <v>9</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="70">
         <v>30</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="70">
         <v>70</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="70">
         <v>40</v>
       </c>
-      <c r="D15" s="87">
-        <v>50</v>
-      </c>
-      <c r="E15" s="83"/>
+      <c r="D15" s="70">
+        <v>50</v>
+      </c>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="67">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="87">
-        <v>50</v>
-      </c>
-      <c r="D16" s="87">
+      <c r="C16" s="70">
+        <v>50</v>
+      </c>
+      <c r="D16" s="70">
         <v>70</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="67">
         <v>12</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="70">
         <v>80</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="70">
         <v>80</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="67">
         <v>13</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="70">
         <v>80</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="70">
         <v>40</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="67">
         <v>14</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="70">
         <v>60</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="70">
         <v>60</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="67">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="87">
-        <v>50</v>
-      </c>
-      <c r="D20" s="87">
-        <v>50</v>
-      </c>
-      <c r="E20" s="83"/>
+      <c r="C20" s="70">
+        <v>50</v>
+      </c>
+      <c r="D20" s="70">
+        <v>50</v>
+      </c>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="67">
         <v>16</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="70">
         <v>30</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="70">
         <v>40</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="G21" s="76"/>
+      <c r="E21" s="66"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="67">
         <v>17</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="87">
-        <v>50</v>
-      </c>
-      <c r="D22" s="87">
-        <v>50</v>
-      </c>
-      <c r="E22" s="83"/>
+      <c r="C22" s="70">
+        <v>50</v>
+      </c>
+      <c r="D22" s="70">
+        <v>50</v>
+      </c>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="67">
         <v>18</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="70">
         <v>70</v>
       </c>
-      <c r="D23" s="87">
-        <v>50</v>
-      </c>
-      <c r="E23" s="83"/>
+      <c r="D23" s="70">
+        <v>50</v>
+      </c>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="67">
         <v>19</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="70">
         <v>60</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="70">
         <v>70</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="67">
         <v>20</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="70">
         <v>60</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="70">
         <v>70</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="70">
         <v>60</v>
       </c>
-      <c r="D26" s="87">
-        <v>50</v>
-      </c>
-      <c r="E26" s="83"/>
+      <c r="D26" s="70">
+        <v>50</v>
+      </c>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="67">
         <v>22</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="70">
         <v>60</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="70">
         <v>70</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="87">
-        <v>50</v>
-      </c>
-      <c r="D28" s="87">
-        <v>50</v>
-      </c>
-      <c r="E28" s="83"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
-        <v>24</v>
-      </c>
-      <c r="B29" s="78" t="s">
+      <c r="B28" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C28" s="70">
         <v>60</v>
       </c>
-      <c r="D29" s="87">
-        <v>50</v>
-      </c>
-      <c r="E29" s="83"/>
+      <c r="D28" s="70">
+        <v>50</v>
+      </c>
+      <c r="E28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6619,345 +6589,345 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19" style="71" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="257" width="9.140625" style="71"/>
-    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
-    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
-    <col min="260" max="260" width="19" style="71" customWidth="1"/>
-    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="262" max="513" width="9.140625" style="71"/>
-    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
-    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
-    <col min="516" max="516" width="19" style="71" customWidth="1"/>
-    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="518" max="769" width="9.140625" style="71"/>
-    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
-    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
-    <col min="772" max="772" width="19" style="71" customWidth="1"/>
-    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="774" max="1025" width="9.140625" style="71"/>
-    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1281" width="9.140625" style="71"/>
-    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1537" width="9.140625" style="71"/>
-    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1793" width="9.140625" style="71"/>
-    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2049" width="9.140625" style="71"/>
-    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2305" width="9.140625" style="71"/>
-    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2561" width="9.140625" style="71"/>
-    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2817" width="9.140625" style="71"/>
-    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3073" width="9.140625" style="71"/>
-    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3329" width="9.140625" style="71"/>
-    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3585" width="9.140625" style="71"/>
-    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3841" width="9.140625" style="71"/>
-    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4097" width="9.140625" style="71"/>
-    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4353" width="9.140625" style="71"/>
-    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4609" width="9.140625" style="71"/>
-    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4865" width="9.140625" style="71"/>
-    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5121" width="9.140625" style="71"/>
-    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5377" width="9.140625" style="71"/>
-    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5633" width="9.140625" style="71"/>
-    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5889" width="9.140625" style="71"/>
-    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6145" width="9.140625" style="71"/>
-    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6401" width="9.140625" style="71"/>
-    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6657" width="9.140625" style="71"/>
-    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6913" width="9.140625" style="71"/>
-    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7169" width="9.140625" style="71"/>
-    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7425" width="9.140625" style="71"/>
-    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7681" width="9.140625" style="71"/>
-    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7937" width="9.140625" style="71"/>
-    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8193" width="9.140625" style="71"/>
-    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8449" width="9.140625" style="71"/>
-    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8705" width="9.140625" style="71"/>
-    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8961" width="9.140625" style="71"/>
-    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9217" width="9.140625" style="71"/>
-    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9473" width="9.140625" style="71"/>
-    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9729" width="9.140625" style="71"/>
-    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9985" width="9.140625" style="71"/>
-    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10241" width="9.140625" style="71"/>
-    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10497" width="9.140625" style="71"/>
-    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10753" width="9.140625" style="71"/>
-    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11009" width="9.140625" style="71"/>
-    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11265" width="9.140625" style="71"/>
-    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11521" width="9.140625" style="71"/>
-    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11777" width="9.140625" style="71"/>
-    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12033" width="9.140625" style="71"/>
-    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12289" width="9.140625" style="71"/>
-    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12545" width="9.140625" style="71"/>
-    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12801" width="9.140625" style="71"/>
-    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13057" width="9.140625" style="71"/>
-    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13313" width="9.140625" style="71"/>
-    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13569" width="9.140625" style="71"/>
-    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13825" width="9.140625" style="71"/>
-    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14081" width="9.140625" style="71"/>
-    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14337" width="9.140625" style="71"/>
-    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14593" width="9.140625" style="71"/>
-    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14849" width="9.140625" style="71"/>
-    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15105" width="9.140625" style="71"/>
-    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15361" width="9.140625" style="71"/>
-    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15617" width="9.140625" style="71"/>
-    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15873" width="9.140625" style="71"/>
-    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16129" width="9.140625" style="71"/>
-    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
-    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="9.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="54"/>
+    <col min="258" max="258" width="30.42578125" style="54" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="54" customWidth="1"/>
+    <col min="260" max="260" width="19" style="54" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="54"/>
+    <col min="514" max="514" width="30.42578125" style="54" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="54" customWidth="1"/>
+    <col min="516" max="516" width="19" style="54" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="54"/>
+    <col min="770" max="770" width="30.42578125" style="54" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="54" customWidth="1"/>
+    <col min="772" max="772" width="19" style="54" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="54"/>
+    <col min="1026" max="1026" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="54" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="54"/>
+    <col min="1282" max="1282" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="54" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="54"/>
+    <col min="1538" max="1538" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="54" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="54"/>
+    <col min="1794" max="1794" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="54" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="54"/>
+    <col min="2050" max="2050" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="54" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="54"/>
+    <col min="2306" max="2306" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="54" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="54"/>
+    <col min="2562" max="2562" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="54" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="54"/>
+    <col min="2818" max="2818" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="54" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="54"/>
+    <col min="3074" max="3074" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="54" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="54"/>
+    <col min="3330" max="3330" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="54" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="54"/>
+    <col min="3586" max="3586" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="54" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="54"/>
+    <col min="3842" max="3842" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="54" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="54"/>
+    <col min="4098" max="4098" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="54" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="54"/>
+    <col min="4354" max="4354" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="54" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="54"/>
+    <col min="4610" max="4610" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="54" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="54"/>
+    <col min="4866" max="4866" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="54" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="54"/>
+    <col min="5122" max="5122" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="54" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="54"/>
+    <col min="5378" max="5378" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="54" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="54"/>
+    <col min="5634" max="5634" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="54" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="54"/>
+    <col min="5890" max="5890" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="54" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="54"/>
+    <col min="6146" max="6146" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="54" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="54"/>
+    <col min="6402" max="6402" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="54" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="54"/>
+    <col min="6658" max="6658" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="54" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="54"/>
+    <col min="6914" max="6914" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="54" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="54"/>
+    <col min="7170" max="7170" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="54" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="54"/>
+    <col min="7426" max="7426" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="54" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="54"/>
+    <col min="7682" max="7682" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="54" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="54"/>
+    <col min="7938" max="7938" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="54" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="54"/>
+    <col min="8194" max="8194" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="54" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="54"/>
+    <col min="8450" max="8450" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="54" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="54"/>
+    <col min="8706" max="8706" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="54" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="54"/>
+    <col min="8962" max="8962" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="54" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="54"/>
+    <col min="9218" max="9218" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="54" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="54"/>
+    <col min="9474" max="9474" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="54" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="54"/>
+    <col min="9730" max="9730" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="54" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="54"/>
+    <col min="9986" max="9986" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="54" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="54"/>
+    <col min="10242" max="10242" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="54" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="54"/>
+    <col min="10498" max="10498" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="54" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="54"/>
+    <col min="10754" max="10754" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="54" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="54"/>
+    <col min="11010" max="11010" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="54" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="54"/>
+    <col min="11266" max="11266" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="54" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="54"/>
+    <col min="11522" max="11522" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="54" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="54"/>
+    <col min="11778" max="11778" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="54" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="54"/>
+    <col min="12034" max="12034" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="54" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="54"/>
+    <col min="12290" max="12290" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="54" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="54"/>
+    <col min="12546" max="12546" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="54" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="54"/>
+    <col min="12802" max="12802" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="54" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="54"/>
+    <col min="13058" max="13058" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="54" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="54"/>
+    <col min="13314" max="13314" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="54" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="54"/>
+    <col min="13570" max="13570" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="54" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="54"/>
+    <col min="13826" max="13826" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="54" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="54"/>
+    <col min="14082" max="14082" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="54" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="54"/>
+    <col min="14338" max="14338" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="54" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="54"/>
+    <col min="14594" max="14594" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="54" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="54"/>
+    <col min="14850" max="14850" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="54" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="54"/>
+    <col min="15106" max="15106" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="54" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="54"/>
+    <col min="15362" max="15362" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="54" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="54"/>
+    <col min="15618" max="15618" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="54" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="54"/>
+    <col min="15874" max="15874" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="54" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="54"/>
+    <col min="16130" max="16130" width="30.42578125" style="54" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="54" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="54" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -6971,13 +6941,13 @@
       <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -6991,13 +6961,13 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -7011,382 +6981,367 @@
       <c r="P3" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="69">
         <v>40</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="69">
         <v>80</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="86">
-        <v>50</v>
-      </c>
-      <c r="D7" s="86">
-        <v>50</v>
-      </c>
-      <c r="E7" s="83"/>
+      <c r="C7" s="69">
+        <v>50</v>
+      </c>
+      <c r="D7" s="69">
+        <v>50</v>
+      </c>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="69">
         <v>60</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="69">
         <v>70</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="69">
         <v>30</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="69">
         <v>60</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="86">
-        <v>50</v>
-      </c>
-      <c r="D10" s="86">
-        <v>50</v>
-      </c>
-      <c r="E10" s="83"/>
+      <c r="C10" s="69">
+        <v>50</v>
+      </c>
+      <c r="D10" s="69">
+        <v>50</v>
+      </c>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="86">
-        <v>50</v>
-      </c>
-      <c r="D11" s="86">
+      <c r="C11" s="69">
+        <v>50</v>
+      </c>
+      <c r="D11" s="69">
         <v>80</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="69">
         <v>20</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="69">
         <v>80</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="67">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="69">
         <v>20</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="69">
         <v>40</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="67">
         <v>9</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="69">
         <v>20</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="69">
         <v>60</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="69">
         <v>25</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="69">
         <v>30</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="67">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="69">
         <v>70</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="69">
         <v>65</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="67">
         <v>12</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="69">
         <v>80</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="69">
         <v>70</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="67">
         <v>13</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="69">
         <v>10</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="69">
         <v>10</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="67">
         <v>14</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="69">
         <v>30</v>
       </c>
-      <c r="D19" s="86">
-        <v>50</v>
-      </c>
-      <c r="E19" s="83"/>
+      <c r="D19" s="69">
+        <v>50</v>
+      </c>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="67">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="69">
         <v>30</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="69">
         <v>30</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="67">
         <v>16</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="69">
         <v>55</v>
       </c>
-      <c r="D21" s="86">
-        <v>50</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="G21" s="76"/>
+      <c r="D21" s="69">
+        <v>50</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="67">
         <v>17</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="69">
         <v>60</v>
       </c>
-      <c r="D22" s="86">
-        <v>50</v>
-      </c>
-      <c r="E22" s="83"/>
+      <c r="D22" s="69">
+        <v>50</v>
+      </c>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="67">
         <v>18</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="69">
         <v>40</v>
       </c>
-      <c r="D23" s="86">
-        <v>50</v>
-      </c>
-      <c r="E23" s="83"/>
+      <c r="D23" s="69">
+        <v>50</v>
+      </c>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="67">
         <v>19</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="69">
         <v>20</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="69">
         <v>30</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="67">
         <v>20</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="86">
-        <v>50</v>
-      </c>
-      <c r="D25" s="86">
+      <c r="C25" s="69">
+        <v>50</v>
+      </c>
+      <c r="D25" s="69">
         <v>70</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="69">
         <v>10</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="69">
         <v>30</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="67">
         <v>22</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="69">
         <v>10</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="69">
         <v>80</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="86">
+      <c r="B28" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="69">
+        <v>40</v>
+      </c>
+      <c r="D28" s="69">
         <v>30</v>
       </c>
-      <c r="D28" s="86">
-        <v>40</v>
-      </c>
-      <c r="E28" s="83"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
-        <v>24</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="86">
-        <v>40</v>
-      </c>
-      <c r="D29" s="86">
-        <v>30</v>
-      </c>
-      <c r="E29" s="83"/>
+      <c r="E28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7404,345 +7359,345 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19" style="71" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="257" width="9.140625" style="71"/>
-    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
-    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
-    <col min="260" max="260" width="19" style="71" customWidth="1"/>
-    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="262" max="513" width="9.140625" style="71"/>
-    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
-    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
-    <col min="516" max="516" width="19" style="71" customWidth="1"/>
-    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="518" max="769" width="9.140625" style="71"/>
-    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
-    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
-    <col min="772" max="772" width="19" style="71" customWidth="1"/>
-    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="774" max="1025" width="9.140625" style="71"/>
-    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1281" width="9.140625" style="71"/>
-    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1537" width="9.140625" style="71"/>
-    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1793" width="9.140625" style="71"/>
-    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2049" width="9.140625" style="71"/>
-    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2305" width="9.140625" style="71"/>
-    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2561" width="9.140625" style="71"/>
-    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2817" width="9.140625" style="71"/>
-    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3073" width="9.140625" style="71"/>
-    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3329" width="9.140625" style="71"/>
-    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3585" width="9.140625" style="71"/>
-    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3841" width="9.140625" style="71"/>
-    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4097" width="9.140625" style="71"/>
-    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4353" width="9.140625" style="71"/>
-    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4609" width="9.140625" style="71"/>
-    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4865" width="9.140625" style="71"/>
-    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5121" width="9.140625" style="71"/>
-    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5377" width="9.140625" style="71"/>
-    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5633" width="9.140625" style="71"/>
-    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5889" width="9.140625" style="71"/>
-    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6145" width="9.140625" style="71"/>
-    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6401" width="9.140625" style="71"/>
-    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6657" width="9.140625" style="71"/>
-    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6913" width="9.140625" style="71"/>
-    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7169" width="9.140625" style="71"/>
-    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7425" width="9.140625" style="71"/>
-    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7681" width="9.140625" style="71"/>
-    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7937" width="9.140625" style="71"/>
-    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8193" width="9.140625" style="71"/>
-    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8449" width="9.140625" style="71"/>
-    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8705" width="9.140625" style="71"/>
-    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8961" width="9.140625" style="71"/>
-    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9217" width="9.140625" style="71"/>
-    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9473" width="9.140625" style="71"/>
-    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9729" width="9.140625" style="71"/>
-    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9985" width="9.140625" style="71"/>
-    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10241" width="9.140625" style="71"/>
-    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10497" width="9.140625" style="71"/>
-    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10753" width="9.140625" style="71"/>
-    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11009" width="9.140625" style="71"/>
-    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11265" width="9.140625" style="71"/>
-    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11521" width="9.140625" style="71"/>
-    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11777" width="9.140625" style="71"/>
-    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12033" width="9.140625" style="71"/>
-    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12289" width="9.140625" style="71"/>
-    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12545" width="9.140625" style="71"/>
-    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12801" width="9.140625" style="71"/>
-    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13057" width="9.140625" style="71"/>
-    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13313" width="9.140625" style="71"/>
-    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13569" width="9.140625" style="71"/>
-    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13825" width="9.140625" style="71"/>
-    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14081" width="9.140625" style="71"/>
-    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14337" width="9.140625" style="71"/>
-    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14593" width="9.140625" style="71"/>
-    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14849" width="9.140625" style="71"/>
-    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15105" width="9.140625" style="71"/>
-    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15361" width="9.140625" style="71"/>
-    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15617" width="9.140625" style="71"/>
-    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15873" width="9.140625" style="71"/>
-    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16129" width="9.140625" style="71"/>
-    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
-    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="9.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="54"/>
+    <col min="258" max="258" width="30.42578125" style="54" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="54" customWidth="1"/>
+    <col min="260" max="260" width="19" style="54" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="54"/>
+    <col min="514" max="514" width="30.42578125" style="54" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="54" customWidth="1"/>
+    <col min="516" max="516" width="19" style="54" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="54"/>
+    <col min="770" max="770" width="30.42578125" style="54" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="54" customWidth="1"/>
+    <col min="772" max="772" width="19" style="54" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="54"/>
+    <col min="1026" max="1026" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="54" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="54"/>
+    <col min="1282" max="1282" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="54" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="54"/>
+    <col min="1538" max="1538" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="54" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="54"/>
+    <col min="1794" max="1794" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="54" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="54"/>
+    <col min="2050" max="2050" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="54" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="54"/>
+    <col min="2306" max="2306" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="54" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="54"/>
+    <col min="2562" max="2562" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="54" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="54"/>
+    <col min="2818" max="2818" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="54" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="54"/>
+    <col min="3074" max="3074" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="54" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="54"/>
+    <col min="3330" max="3330" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="54" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="54"/>
+    <col min="3586" max="3586" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="54" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="54"/>
+    <col min="3842" max="3842" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="54" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="54"/>
+    <col min="4098" max="4098" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="54" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="54"/>
+    <col min="4354" max="4354" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="54" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="54"/>
+    <col min="4610" max="4610" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="54" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="54"/>
+    <col min="4866" max="4866" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="54" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="54"/>
+    <col min="5122" max="5122" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="54" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="54"/>
+    <col min="5378" max="5378" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="54" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="54"/>
+    <col min="5634" max="5634" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="54" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="54"/>
+    <col min="5890" max="5890" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="54" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="54"/>
+    <col min="6146" max="6146" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="54" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="54"/>
+    <col min="6402" max="6402" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="54" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="54"/>
+    <col min="6658" max="6658" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="54" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="54"/>
+    <col min="6914" max="6914" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="54" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="54"/>
+    <col min="7170" max="7170" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="54" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="54"/>
+    <col min="7426" max="7426" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="54" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="54"/>
+    <col min="7682" max="7682" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="54" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="54"/>
+    <col min="7938" max="7938" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="54" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="54"/>
+    <col min="8194" max="8194" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="54" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="54"/>
+    <col min="8450" max="8450" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="54" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="54"/>
+    <col min="8706" max="8706" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="54" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="54"/>
+    <col min="8962" max="8962" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="54" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="54"/>
+    <col min="9218" max="9218" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="54" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="54"/>
+    <col min="9474" max="9474" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="54" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="54"/>
+    <col min="9730" max="9730" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="54" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="54"/>
+    <col min="9986" max="9986" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="54" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="54"/>
+    <col min="10242" max="10242" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="54" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="54"/>
+    <col min="10498" max="10498" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="54" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="54"/>
+    <col min="10754" max="10754" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="54" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="54"/>
+    <col min="11010" max="11010" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="54" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="54"/>
+    <col min="11266" max="11266" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="54" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="54"/>
+    <col min="11522" max="11522" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="54" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="54"/>
+    <col min="11778" max="11778" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="54" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="54"/>
+    <col min="12034" max="12034" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="54" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="54"/>
+    <col min="12290" max="12290" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="54" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="54"/>
+    <col min="12546" max="12546" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="54" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="54"/>
+    <col min="12802" max="12802" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="54" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="54"/>
+    <col min="13058" max="13058" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="54" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="54"/>
+    <col min="13314" max="13314" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="54" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="54"/>
+    <col min="13570" max="13570" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="54" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="54"/>
+    <col min="13826" max="13826" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="54" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="54"/>
+    <col min="14082" max="14082" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="54" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="54"/>
+    <col min="14338" max="14338" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="54" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="54"/>
+    <col min="14594" max="14594" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="54" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="54"/>
+    <col min="14850" max="14850" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="54" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="54"/>
+    <col min="15106" max="15106" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="54" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="54"/>
+    <col min="15362" max="15362" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="54" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="54"/>
+    <col min="15618" max="15618" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="54" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="54"/>
+    <col min="15874" max="15874" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="54" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="54"/>
+    <col min="16130" max="16130" width="30.42578125" style="54" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="54" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="54" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -7756,13 +7711,13 @@
       <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -7776,13 +7731,13 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -7796,382 +7751,367 @@
       <c r="P3" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="86">
-        <v>50</v>
-      </c>
-      <c r="D6" s="86">
+      <c r="C6" s="69">
+        <v>50</v>
+      </c>
+      <c r="D6" s="69">
         <v>80</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="69">
         <v>30</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="69">
         <v>60</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="86">
-        <v>50</v>
-      </c>
-      <c r="D8" s="86">
+      <c r="C8" s="69">
+        <v>50</v>
+      </c>
+      <c r="D8" s="69">
         <v>60</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="69">
         <v>60</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="69">
         <v>80</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="86">
-        <v>50</v>
-      </c>
-      <c r="D10" s="86">
+      <c r="C10" s="69">
+        <v>50</v>
+      </c>
+      <c r="D10" s="69">
         <v>70</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="69">
         <v>60</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="69">
         <v>70</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="69">
         <v>30</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="69">
         <v>70</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="67">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="86">
-        <v>50</v>
-      </c>
-      <c r="D13" s="86">
+      <c r="C13" s="69">
+        <v>50</v>
+      </c>
+      <c r="D13" s="69">
         <v>70</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="67">
         <v>9</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="69">
         <v>30</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="69">
         <v>70</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="69">
         <v>70</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="69">
         <v>70</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="66"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="67">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="69">
         <v>60</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="69">
         <v>80</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="67">
         <v>12</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="86">
-        <v>50</v>
-      </c>
-      <c r="D17" s="86">
+      <c r="C17" s="69">
+        <v>50</v>
+      </c>
+      <c r="D17" s="69">
         <v>70</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="67">
         <v>13</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="69">
         <v>80</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="69">
         <v>60</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="67">
         <v>14</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="69">
         <v>30</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="69">
         <v>70</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="67">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="69">
         <v>30</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="69">
         <v>30</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="67">
         <v>16</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="69">
         <v>30</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="69">
         <v>30</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="G21" s="76"/>
+      <c r="E21" s="66"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="67">
         <v>17</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="69">
         <v>60</v>
       </c>
-      <c r="D22" s="86">
-        <v>50</v>
-      </c>
-      <c r="E22" s="83"/>
+      <c r="D22" s="69">
+        <v>50</v>
+      </c>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="67">
         <v>18</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="69">
         <v>90</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="69">
         <v>70</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="67">
         <v>19</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="69">
         <v>70</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="69">
         <v>70</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="67">
         <v>20</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="69">
         <v>80</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="69">
         <v>70</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="86">
-        <v>50</v>
-      </c>
-      <c r="D26" s="86">
-        <v>50</v>
-      </c>
-      <c r="E26" s="83"/>
+      <c r="C26" s="69">
+        <v>50</v>
+      </c>
+      <c r="D26" s="69">
+        <v>50</v>
+      </c>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="67">
         <v>22</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="69">
         <v>30</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="69">
         <v>80</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="86">
-        <v>60</v>
-      </c>
-      <c r="D28" s="86">
-        <v>50</v>
-      </c>
-      <c r="E28" s="83"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
-        <v>24</v>
-      </c>
-      <c r="B29" s="78" t="s">
+      <c r="B28" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C28" s="69">
         <v>40</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D28" s="69">
         <v>40</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8189,345 +8129,345 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19" style="71" customWidth="1"/>
-    <col min="5" max="5" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="257" width="9.140625" style="71"/>
-    <col min="258" max="258" width="30.42578125" style="71" customWidth="1"/>
-    <col min="259" max="259" width="17.42578125" style="71" customWidth="1"/>
-    <col min="260" max="260" width="19" style="71" customWidth="1"/>
-    <col min="261" max="261" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="262" max="513" width="9.140625" style="71"/>
-    <col min="514" max="514" width="30.42578125" style="71" customWidth="1"/>
-    <col min="515" max="515" width="17.42578125" style="71" customWidth="1"/>
-    <col min="516" max="516" width="19" style="71" customWidth="1"/>
-    <col min="517" max="517" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="518" max="769" width="9.140625" style="71"/>
-    <col min="770" max="770" width="30.42578125" style="71" customWidth="1"/>
-    <col min="771" max="771" width="17.42578125" style="71" customWidth="1"/>
-    <col min="772" max="772" width="19" style="71" customWidth="1"/>
-    <col min="773" max="773" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="774" max="1025" width="9.140625" style="71"/>
-    <col min="1026" max="1026" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1027" max="1027" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1028" max="1028" width="19" style="71" customWidth="1"/>
-    <col min="1029" max="1029" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1281" width="9.140625" style="71"/>
-    <col min="1282" max="1282" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1283" max="1283" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1284" max="1284" width="19" style="71" customWidth="1"/>
-    <col min="1285" max="1285" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1537" width="9.140625" style="71"/>
-    <col min="1538" max="1538" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1539" max="1539" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1540" max="1540" width="19" style="71" customWidth="1"/>
-    <col min="1541" max="1541" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1793" width="9.140625" style="71"/>
-    <col min="1794" max="1794" width="30.42578125" style="71" customWidth="1"/>
-    <col min="1795" max="1795" width="17.42578125" style="71" customWidth="1"/>
-    <col min="1796" max="1796" width="19" style="71" customWidth="1"/>
-    <col min="1797" max="1797" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2049" width="9.140625" style="71"/>
-    <col min="2050" max="2050" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2051" max="2051" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2052" max="2052" width="19" style="71" customWidth="1"/>
-    <col min="2053" max="2053" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2305" width="9.140625" style="71"/>
-    <col min="2306" max="2306" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2307" max="2307" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2308" max="2308" width="19" style="71" customWidth="1"/>
-    <col min="2309" max="2309" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2561" width="9.140625" style="71"/>
-    <col min="2562" max="2562" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2563" max="2563" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2564" max="2564" width="19" style="71" customWidth="1"/>
-    <col min="2565" max="2565" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2817" width="9.140625" style="71"/>
-    <col min="2818" max="2818" width="30.42578125" style="71" customWidth="1"/>
-    <col min="2819" max="2819" width="17.42578125" style="71" customWidth="1"/>
-    <col min="2820" max="2820" width="19" style="71" customWidth="1"/>
-    <col min="2821" max="2821" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3073" width="9.140625" style="71"/>
-    <col min="3074" max="3074" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3075" max="3075" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3076" max="3076" width="19" style="71" customWidth="1"/>
-    <col min="3077" max="3077" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3329" width="9.140625" style="71"/>
-    <col min="3330" max="3330" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3331" max="3331" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3332" max="3332" width="19" style="71" customWidth="1"/>
-    <col min="3333" max="3333" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3585" width="9.140625" style="71"/>
-    <col min="3586" max="3586" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3587" max="3587" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3588" max="3588" width="19" style="71" customWidth="1"/>
-    <col min="3589" max="3589" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3841" width="9.140625" style="71"/>
-    <col min="3842" max="3842" width="30.42578125" style="71" customWidth="1"/>
-    <col min="3843" max="3843" width="17.42578125" style="71" customWidth="1"/>
-    <col min="3844" max="3844" width="19" style="71" customWidth="1"/>
-    <col min="3845" max="3845" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4097" width="9.140625" style="71"/>
-    <col min="4098" max="4098" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4099" max="4099" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4100" max="4100" width="19" style="71" customWidth="1"/>
-    <col min="4101" max="4101" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4353" width="9.140625" style="71"/>
-    <col min="4354" max="4354" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4355" max="4355" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4356" max="4356" width="19" style="71" customWidth="1"/>
-    <col min="4357" max="4357" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4609" width="9.140625" style="71"/>
-    <col min="4610" max="4610" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4611" max="4611" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4612" max="4612" width="19" style="71" customWidth="1"/>
-    <col min="4613" max="4613" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4865" width="9.140625" style="71"/>
-    <col min="4866" max="4866" width="30.42578125" style="71" customWidth="1"/>
-    <col min="4867" max="4867" width="17.42578125" style="71" customWidth="1"/>
-    <col min="4868" max="4868" width="19" style="71" customWidth="1"/>
-    <col min="4869" max="4869" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5121" width="9.140625" style="71"/>
-    <col min="5122" max="5122" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5123" max="5123" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5124" max="5124" width="19" style="71" customWidth="1"/>
-    <col min="5125" max="5125" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5377" width="9.140625" style="71"/>
-    <col min="5378" max="5378" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5379" max="5379" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5380" max="5380" width="19" style="71" customWidth="1"/>
-    <col min="5381" max="5381" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5633" width="9.140625" style="71"/>
-    <col min="5634" max="5634" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5635" max="5635" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5636" max="5636" width="19" style="71" customWidth="1"/>
-    <col min="5637" max="5637" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5889" width="9.140625" style="71"/>
-    <col min="5890" max="5890" width="30.42578125" style="71" customWidth="1"/>
-    <col min="5891" max="5891" width="17.42578125" style="71" customWidth="1"/>
-    <col min="5892" max="5892" width="19" style="71" customWidth="1"/>
-    <col min="5893" max="5893" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6145" width="9.140625" style="71"/>
-    <col min="6146" max="6146" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6147" max="6147" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6148" max="6148" width="19" style="71" customWidth="1"/>
-    <col min="6149" max="6149" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6401" width="9.140625" style="71"/>
-    <col min="6402" max="6402" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6403" max="6403" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6404" max="6404" width="19" style="71" customWidth="1"/>
-    <col min="6405" max="6405" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6657" width="9.140625" style="71"/>
-    <col min="6658" max="6658" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6659" max="6659" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6660" max="6660" width="19" style="71" customWidth="1"/>
-    <col min="6661" max="6661" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6913" width="9.140625" style="71"/>
-    <col min="6914" max="6914" width="30.42578125" style="71" customWidth="1"/>
-    <col min="6915" max="6915" width="17.42578125" style="71" customWidth="1"/>
-    <col min="6916" max="6916" width="19" style="71" customWidth="1"/>
-    <col min="6917" max="6917" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7169" width="9.140625" style="71"/>
-    <col min="7170" max="7170" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7171" max="7171" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7172" max="7172" width="19" style="71" customWidth="1"/>
-    <col min="7173" max="7173" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7425" width="9.140625" style="71"/>
-    <col min="7426" max="7426" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7427" max="7427" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7428" max="7428" width="19" style="71" customWidth="1"/>
-    <col min="7429" max="7429" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7681" width="9.140625" style="71"/>
-    <col min="7682" max="7682" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7683" max="7683" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7684" max="7684" width="19" style="71" customWidth="1"/>
-    <col min="7685" max="7685" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7937" width="9.140625" style="71"/>
-    <col min="7938" max="7938" width="30.42578125" style="71" customWidth="1"/>
-    <col min="7939" max="7939" width="17.42578125" style="71" customWidth="1"/>
-    <col min="7940" max="7940" width="19" style="71" customWidth="1"/>
-    <col min="7941" max="7941" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8193" width="9.140625" style="71"/>
-    <col min="8194" max="8194" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8195" max="8195" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8196" max="8196" width="19" style="71" customWidth="1"/>
-    <col min="8197" max="8197" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8449" width="9.140625" style="71"/>
-    <col min="8450" max="8450" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8451" max="8451" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8452" max="8452" width="19" style="71" customWidth="1"/>
-    <col min="8453" max="8453" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8705" width="9.140625" style="71"/>
-    <col min="8706" max="8706" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8707" max="8707" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8708" max="8708" width="19" style="71" customWidth="1"/>
-    <col min="8709" max="8709" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8961" width="9.140625" style="71"/>
-    <col min="8962" max="8962" width="30.42578125" style="71" customWidth="1"/>
-    <col min="8963" max="8963" width="17.42578125" style="71" customWidth="1"/>
-    <col min="8964" max="8964" width="19" style="71" customWidth="1"/>
-    <col min="8965" max="8965" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9217" width="9.140625" style="71"/>
-    <col min="9218" max="9218" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9219" max="9219" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9220" max="9220" width="19" style="71" customWidth="1"/>
-    <col min="9221" max="9221" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9473" width="9.140625" style="71"/>
-    <col min="9474" max="9474" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9475" max="9475" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9476" max="9476" width="19" style="71" customWidth="1"/>
-    <col min="9477" max="9477" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9729" width="9.140625" style="71"/>
-    <col min="9730" max="9730" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9731" max="9731" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9732" max="9732" width="19" style="71" customWidth="1"/>
-    <col min="9733" max="9733" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9985" width="9.140625" style="71"/>
-    <col min="9986" max="9986" width="30.42578125" style="71" customWidth="1"/>
-    <col min="9987" max="9987" width="17.42578125" style="71" customWidth="1"/>
-    <col min="9988" max="9988" width="19" style="71" customWidth="1"/>
-    <col min="9989" max="9989" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10241" width="9.140625" style="71"/>
-    <col min="10242" max="10242" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10243" max="10243" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10244" max="10244" width="19" style="71" customWidth="1"/>
-    <col min="10245" max="10245" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10497" width="9.140625" style="71"/>
-    <col min="10498" max="10498" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10499" max="10499" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10500" max="10500" width="19" style="71" customWidth="1"/>
-    <col min="10501" max="10501" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10753" width="9.140625" style="71"/>
-    <col min="10754" max="10754" width="30.42578125" style="71" customWidth="1"/>
-    <col min="10755" max="10755" width="17.42578125" style="71" customWidth="1"/>
-    <col min="10756" max="10756" width="19" style="71" customWidth="1"/>
-    <col min="10757" max="10757" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11009" width="9.140625" style="71"/>
-    <col min="11010" max="11010" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11011" max="11011" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11012" max="11012" width="19" style="71" customWidth="1"/>
-    <col min="11013" max="11013" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11265" width="9.140625" style="71"/>
-    <col min="11266" max="11266" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11267" max="11267" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11268" max="11268" width="19" style="71" customWidth="1"/>
-    <col min="11269" max="11269" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11521" width="9.140625" style="71"/>
-    <col min="11522" max="11522" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11523" max="11523" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11524" max="11524" width="19" style="71" customWidth="1"/>
-    <col min="11525" max="11525" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11777" width="9.140625" style="71"/>
-    <col min="11778" max="11778" width="30.42578125" style="71" customWidth="1"/>
-    <col min="11779" max="11779" width="17.42578125" style="71" customWidth="1"/>
-    <col min="11780" max="11780" width="19" style="71" customWidth="1"/>
-    <col min="11781" max="11781" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12033" width="9.140625" style="71"/>
-    <col min="12034" max="12034" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12035" max="12035" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12036" max="12036" width="19" style="71" customWidth="1"/>
-    <col min="12037" max="12037" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12289" width="9.140625" style="71"/>
-    <col min="12290" max="12290" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12291" max="12291" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12292" max="12292" width="19" style="71" customWidth="1"/>
-    <col min="12293" max="12293" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12545" width="9.140625" style="71"/>
-    <col min="12546" max="12546" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12547" max="12547" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12548" max="12548" width="19" style="71" customWidth="1"/>
-    <col min="12549" max="12549" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12801" width="9.140625" style="71"/>
-    <col min="12802" max="12802" width="30.42578125" style="71" customWidth="1"/>
-    <col min="12803" max="12803" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12804" max="12804" width="19" style="71" customWidth="1"/>
-    <col min="12805" max="12805" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13057" width="9.140625" style="71"/>
-    <col min="13058" max="13058" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13059" max="13059" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13060" max="13060" width="19" style="71" customWidth="1"/>
-    <col min="13061" max="13061" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13313" width="9.140625" style="71"/>
-    <col min="13314" max="13314" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13315" max="13315" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13316" max="13316" width="19" style="71" customWidth="1"/>
-    <col min="13317" max="13317" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13569" width="9.140625" style="71"/>
-    <col min="13570" max="13570" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13571" max="13571" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13572" max="13572" width="19" style="71" customWidth="1"/>
-    <col min="13573" max="13573" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13825" width="9.140625" style="71"/>
-    <col min="13826" max="13826" width="30.42578125" style="71" customWidth="1"/>
-    <col min="13827" max="13827" width="17.42578125" style="71" customWidth="1"/>
-    <col min="13828" max="13828" width="19" style="71" customWidth="1"/>
-    <col min="13829" max="13829" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14081" width="9.140625" style="71"/>
-    <col min="14082" max="14082" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14083" max="14083" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14084" max="14084" width="19" style="71" customWidth="1"/>
-    <col min="14085" max="14085" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14337" width="9.140625" style="71"/>
-    <col min="14338" max="14338" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14339" max="14339" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14340" max="14340" width="19" style="71" customWidth="1"/>
-    <col min="14341" max="14341" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14593" width="9.140625" style="71"/>
-    <col min="14594" max="14594" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14595" max="14595" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14596" max="14596" width="19" style="71" customWidth="1"/>
-    <col min="14597" max="14597" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14849" width="9.140625" style="71"/>
-    <col min="14850" max="14850" width="30.42578125" style="71" customWidth="1"/>
-    <col min="14851" max="14851" width="17.42578125" style="71" customWidth="1"/>
-    <col min="14852" max="14852" width="19" style="71" customWidth="1"/>
-    <col min="14853" max="14853" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15105" width="9.140625" style="71"/>
-    <col min="15106" max="15106" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15107" max="15107" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15108" max="15108" width="19" style="71" customWidth="1"/>
-    <col min="15109" max="15109" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15361" width="9.140625" style="71"/>
-    <col min="15362" max="15362" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15363" max="15363" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15364" max="15364" width="19" style="71" customWidth="1"/>
-    <col min="15365" max="15365" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15617" width="9.140625" style="71"/>
-    <col min="15618" max="15618" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15619" max="15619" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15620" max="15620" width="19" style="71" customWidth="1"/>
-    <col min="15621" max="15621" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15873" width="9.140625" style="71"/>
-    <col min="15874" max="15874" width="30.42578125" style="71" customWidth="1"/>
-    <col min="15875" max="15875" width="17.42578125" style="71" customWidth="1"/>
-    <col min="15876" max="15876" width="19" style="71" customWidth="1"/>
-    <col min="15877" max="15877" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16129" width="9.140625" style="71"/>
-    <col min="16130" max="16130" width="30.42578125" style="71" customWidth="1"/>
-    <col min="16131" max="16131" width="17.42578125" style="71" customWidth="1"/>
-    <col min="16132" max="16132" width="19" style="71" customWidth="1"/>
-    <col min="16133" max="16133" width="64.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="9.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19" style="54" customWidth="1"/>
+    <col min="5" max="5" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="257" width="9.140625" style="54"/>
+    <col min="258" max="258" width="30.42578125" style="54" customWidth="1"/>
+    <col min="259" max="259" width="17.42578125" style="54" customWidth="1"/>
+    <col min="260" max="260" width="19" style="54" customWidth="1"/>
+    <col min="261" max="261" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="262" max="513" width="9.140625" style="54"/>
+    <col min="514" max="514" width="30.42578125" style="54" customWidth="1"/>
+    <col min="515" max="515" width="17.42578125" style="54" customWidth="1"/>
+    <col min="516" max="516" width="19" style="54" customWidth="1"/>
+    <col min="517" max="517" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="518" max="769" width="9.140625" style="54"/>
+    <col min="770" max="770" width="30.42578125" style="54" customWidth="1"/>
+    <col min="771" max="771" width="17.42578125" style="54" customWidth="1"/>
+    <col min="772" max="772" width="19" style="54" customWidth="1"/>
+    <col min="773" max="773" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="774" max="1025" width="9.140625" style="54"/>
+    <col min="1026" max="1026" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1027" max="1027" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1028" max="1028" width="19" style="54" customWidth="1"/>
+    <col min="1029" max="1029" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1281" width="9.140625" style="54"/>
+    <col min="1282" max="1282" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1283" max="1283" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1284" max="1284" width="19" style="54" customWidth="1"/>
+    <col min="1285" max="1285" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1537" width="9.140625" style="54"/>
+    <col min="1538" max="1538" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1539" max="1539" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1540" max="1540" width="19" style="54" customWidth="1"/>
+    <col min="1541" max="1541" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1793" width="9.140625" style="54"/>
+    <col min="1794" max="1794" width="30.42578125" style="54" customWidth="1"/>
+    <col min="1795" max="1795" width="17.42578125" style="54" customWidth="1"/>
+    <col min="1796" max="1796" width="19" style="54" customWidth="1"/>
+    <col min="1797" max="1797" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2049" width="9.140625" style="54"/>
+    <col min="2050" max="2050" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2051" max="2051" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2052" max="2052" width="19" style="54" customWidth="1"/>
+    <col min="2053" max="2053" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2305" width="9.140625" style="54"/>
+    <col min="2306" max="2306" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2307" max="2307" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2308" max="2308" width="19" style="54" customWidth="1"/>
+    <col min="2309" max="2309" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2561" width="9.140625" style="54"/>
+    <col min="2562" max="2562" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2563" max="2563" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2564" max="2564" width="19" style="54" customWidth="1"/>
+    <col min="2565" max="2565" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2817" width="9.140625" style="54"/>
+    <col min="2818" max="2818" width="30.42578125" style="54" customWidth="1"/>
+    <col min="2819" max="2819" width="17.42578125" style="54" customWidth="1"/>
+    <col min="2820" max="2820" width="19" style="54" customWidth="1"/>
+    <col min="2821" max="2821" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3073" width="9.140625" style="54"/>
+    <col min="3074" max="3074" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3075" max="3075" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3076" max="3076" width="19" style="54" customWidth="1"/>
+    <col min="3077" max="3077" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3329" width="9.140625" style="54"/>
+    <col min="3330" max="3330" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3331" max="3331" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3332" max="3332" width="19" style="54" customWidth="1"/>
+    <col min="3333" max="3333" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3585" width="9.140625" style="54"/>
+    <col min="3586" max="3586" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3587" max="3587" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3588" max="3588" width="19" style="54" customWidth="1"/>
+    <col min="3589" max="3589" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3841" width="9.140625" style="54"/>
+    <col min="3842" max="3842" width="30.42578125" style="54" customWidth="1"/>
+    <col min="3843" max="3843" width="17.42578125" style="54" customWidth="1"/>
+    <col min="3844" max="3844" width="19" style="54" customWidth="1"/>
+    <col min="3845" max="3845" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4097" width="9.140625" style="54"/>
+    <col min="4098" max="4098" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4099" max="4099" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4100" max="4100" width="19" style="54" customWidth="1"/>
+    <col min="4101" max="4101" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4353" width="9.140625" style="54"/>
+    <col min="4354" max="4354" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4355" max="4355" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4356" max="4356" width="19" style="54" customWidth="1"/>
+    <col min="4357" max="4357" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4609" width="9.140625" style="54"/>
+    <col min="4610" max="4610" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4611" max="4611" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4612" max="4612" width="19" style="54" customWidth="1"/>
+    <col min="4613" max="4613" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4865" width="9.140625" style="54"/>
+    <col min="4866" max="4866" width="30.42578125" style="54" customWidth="1"/>
+    <col min="4867" max="4867" width="17.42578125" style="54" customWidth="1"/>
+    <col min="4868" max="4868" width="19" style="54" customWidth="1"/>
+    <col min="4869" max="4869" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5121" width="9.140625" style="54"/>
+    <col min="5122" max="5122" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5123" max="5123" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5124" max="5124" width="19" style="54" customWidth="1"/>
+    <col min="5125" max="5125" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5377" width="9.140625" style="54"/>
+    <col min="5378" max="5378" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5379" max="5379" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5380" max="5380" width="19" style="54" customWidth="1"/>
+    <col min="5381" max="5381" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5633" width="9.140625" style="54"/>
+    <col min="5634" max="5634" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5635" max="5635" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5636" max="5636" width="19" style="54" customWidth="1"/>
+    <col min="5637" max="5637" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5889" width="9.140625" style="54"/>
+    <col min="5890" max="5890" width="30.42578125" style="54" customWidth="1"/>
+    <col min="5891" max="5891" width="17.42578125" style="54" customWidth="1"/>
+    <col min="5892" max="5892" width="19" style="54" customWidth="1"/>
+    <col min="5893" max="5893" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6145" width="9.140625" style="54"/>
+    <col min="6146" max="6146" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6147" max="6147" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6148" max="6148" width="19" style="54" customWidth="1"/>
+    <col min="6149" max="6149" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6401" width="9.140625" style="54"/>
+    <col min="6402" max="6402" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6403" max="6403" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6404" max="6404" width="19" style="54" customWidth="1"/>
+    <col min="6405" max="6405" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6657" width="9.140625" style="54"/>
+    <col min="6658" max="6658" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6659" max="6659" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6660" max="6660" width="19" style="54" customWidth="1"/>
+    <col min="6661" max="6661" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6913" width="9.140625" style="54"/>
+    <col min="6914" max="6914" width="30.42578125" style="54" customWidth="1"/>
+    <col min="6915" max="6915" width="17.42578125" style="54" customWidth="1"/>
+    <col min="6916" max="6916" width="19" style="54" customWidth="1"/>
+    <col min="6917" max="6917" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7169" width="9.140625" style="54"/>
+    <col min="7170" max="7170" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7171" max="7171" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7172" max="7172" width="19" style="54" customWidth="1"/>
+    <col min="7173" max="7173" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7425" width="9.140625" style="54"/>
+    <col min="7426" max="7426" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7427" max="7427" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7428" max="7428" width="19" style="54" customWidth="1"/>
+    <col min="7429" max="7429" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7681" width="9.140625" style="54"/>
+    <col min="7682" max="7682" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7683" max="7683" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7684" max="7684" width="19" style="54" customWidth="1"/>
+    <col min="7685" max="7685" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7937" width="9.140625" style="54"/>
+    <col min="7938" max="7938" width="30.42578125" style="54" customWidth="1"/>
+    <col min="7939" max="7939" width="17.42578125" style="54" customWidth="1"/>
+    <col min="7940" max="7940" width="19" style="54" customWidth="1"/>
+    <col min="7941" max="7941" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8193" width="9.140625" style="54"/>
+    <col min="8194" max="8194" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8195" max="8195" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8196" max="8196" width="19" style="54" customWidth="1"/>
+    <col min="8197" max="8197" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8449" width="9.140625" style="54"/>
+    <col min="8450" max="8450" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8451" max="8451" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8452" max="8452" width="19" style="54" customWidth="1"/>
+    <col min="8453" max="8453" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8705" width="9.140625" style="54"/>
+    <col min="8706" max="8706" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8707" max="8707" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8708" max="8708" width="19" style="54" customWidth="1"/>
+    <col min="8709" max="8709" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8961" width="9.140625" style="54"/>
+    <col min="8962" max="8962" width="30.42578125" style="54" customWidth="1"/>
+    <col min="8963" max="8963" width="17.42578125" style="54" customWidth="1"/>
+    <col min="8964" max="8964" width="19" style="54" customWidth="1"/>
+    <col min="8965" max="8965" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9217" width="9.140625" style="54"/>
+    <col min="9218" max="9218" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9219" max="9219" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9220" max="9220" width="19" style="54" customWidth="1"/>
+    <col min="9221" max="9221" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9473" width="9.140625" style="54"/>
+    <col min="9474" max="9474" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9475" max="9475" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9476" max="9476" width="19" style="54" customWidth="1"/>
+    <col min="9477" max="9477" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9729" width="9.140625" style="54"/>
+    <col min="9730" max="9730" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9731" max="9731" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9732" max="9732" width="19" style="54" customWidth="1"/>
+    <col min="9733" max="9733" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9985" width="9.140625" style="54"/>
+    <col min="9986" max="9986" width="30.42578125" style="54" customWidth="1"/>
+    <col min="9987" max="9987" width="17.42578125" style="54" customWidth="1"/>
+    <col min="9988" max="9988" width="19" style="54" customWidth="1"/>
+    <col min="9989" max="9989" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10241" width="9.140625" style="54"/>
+    <col min="10242" max="10242" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10243" max="10243" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10244" max="10244" width="19" style="54" customWidth="1"/>
+    <col min="10245" max="10245" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10497" width="9.140625" style="54"/>
+    <col min="10498" max="10498" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10499" max="10499" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10500" max="10500" width="19" style="54" customWidth="1"/>
+    <col min="10501" max="10501" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10753" width="9.140625" style="54"/>
+    <col min="10754" max="10754" width="30.42578125" style="54" customWidth="1"/>
+    <col min="10755" max="10755" width="17.42578125" style="54" customWidth="1"/>
+    <col min="10756" max="10756" width="19" style="54" customWidth="1"/>
+    <col min="10757" max="10757" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11009" width="9.140625" style="54"/>
+    <col min="11010" max="11010" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11011" max="11011" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11012" max="11012" width="19" style="54" customWidth="1"/>
+    <col min="11013" max="11013" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11265" width="9.140625" style="54"/>
+    <col min="11266" max="11266" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11267" max="11267" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11268" max="11268" width="19" style="54" customWidth="1"/>
+    <col min="11269" max="11269" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11521" width="9.140625" style="54"/>
+    <col min="11522" max="11522" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11523" max="11523" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11524" max="11524" width="19" style="54" customWidth="1"/>
+    <col min="11525" max="11525" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11777" width="9.140625" style="54"/>
+    <col min="11778" max="11778" width="30.42578125" style="54" customWidth="1"/>
+    <col min="11779" max="11779" width="17.42578125" style="54" customWidth="1"/>
+    <col min="11780" max="11780" width="19" style="54" customWidth="1"/>
+    <col min="11781" max="11781" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12033" width="9.140625" style="54"/>
+    <col min="12034" max="12034" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12035" max="12035" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12036" max="12036" width="19" style="54" customWidth="1"/>
+    <col min="12037" max="12037" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12289" width="9.140625" style="54"/>
+    <col min="12290" max="12290" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12291" max="12291" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12292" max="12292" width="19" style="54" customWidth="1"/>
+    <col min="12293" max="12293" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12545" width="9.140625" style="54"/>
+    <col min="12546" max="12546" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12547" max="12547" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12548" max="12548" width="19" style="54" customWidth="1"/>
+    <col min="12549" max="12549" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12801" width="9.140625" style="54"/>
+    <col min="12802" max="12802" width="30.42578125" style="54" customWidth="1"/>
+    <col min="12803" max="12803" width="17.42578125" style="54" customWidth="1"/>
+    <col min="12804" max="12804" width="19" style="54" customWidth="1"/>
+    <col min="12805" max="12805" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13057" width="9.140625" style="54"/>
+    <col min="13058" max="13058" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13059" max="13059" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13060" max="13060" width="19" style="54" customWidth="1"/>
+    <col min="13061" max="13061" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13313" width="9.140625" style="54"/>
+    <col min="13314" max="13314" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13315" max="13315" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13316" max="13316" width="19" style="54" customWidth="1"/>
+    <col min="13317" max="13317" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13569" width="9.140625" style="54"/>
+    <col min="13570" max="13570" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13571" max="13571" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13572" max="13572" width="19" style="54" customWidth="1"/>
+    <col min="13573" max="13573" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13825" width="9.140625" style="54"/>
+    <col min="13826" max="13826" width="30.42578125" style="54" customWidth="1"/>
+    <col min="13827" max="13827" width="17.42578125" style="54" customWidth="1"/>
+    <col min="13828" max="13828" width="19" style="54" customWidth="1"/>
+    <col min="13829" max="13829" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14081" width="9.140625" style="54"/>
+    <col min="14082" max="14082" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14083" max="14083" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14084" max="14084" width="19" style="54" customWidth="1"/>
+    <col min="14085" max="14085" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14337" width="9.140625" style="54"/>
+    <col min="14338" max="14338" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14339" max="14339" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14340" max="14340" width="19" style="54" customWidth="1"/>
+    <col min="14341" max="14341" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14593" width="9.140625" style="54"/>
+    <col min="14594" max="14594" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14595" max="14595" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14596" max="14596" width="19" style="54" customWidth="1"/>
+    <col min="14597" max="14597" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14849" width="9.140625" style="54"/>
+    <col min="14850" max="14850" width="30.42578125" style="54" customWidth="1"/>
+    <col min="14851" max="14851" width="17.42578125" style="54" customWidth="1"/>
+    <col min="14852" max="14852" width="19" style="54" customWidth="1"/>
+    <col min="14853" max="14853" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15105" width="9.140625" style="54"/>
+    <col min="15106" max="15106" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15107" max="15107" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15108" max="15108" width="19" style="54" customWidth="1"/>
+    <col min="15109" max="15109" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15361" width="9.140625" style="54"/>
+    <col min="15362" max="15362" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15363" max="15363" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15364" max="15364" width="19" style="54" customWidth="1"/>
+    <col min="15365" max="15365" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15617" width="9.140625" style="54"/>
+    <col min="15618" max="15618" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15619" max="15619" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15620" max="15620" width="19" style="54" customWidth="1"/>
+    <col min="15621" max="15621" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15873" width="9.140625" style="54"/>
+    <col min="15874" max="15874" width="30.42578125" style="54" customWidth="1"/>
+    <col min="15875" max="15875" width="17.42578125" style="54" customWidth="1"/>
+    <col min="15876" max="15876" width="19" style="54" customWidth="1"/>
+    <col min="15877" max="15877" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16129" width="9.140625" style="54"/>
+    <col min="16130" max="16130" width="30.42578125" style="54" customWidth="1"/>
+    <col min="16131" max="16131" width="17.42578125" style="54" customWidth="1"/>
+    <col min="16132" max="16132" width="19" style="54" customWidth="1"/>
+    <col min="16133" max="16133" width="64.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -8541,13 +8481,13 @@
       <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -8561,13 +8501,13 @@
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -8581,412 +8521,397 @@
       <c r="P3" s="8"/>
     </row>
     <row r="5" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="69">
         <v>60</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="69">
         <v>80</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="71" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="53" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="69">
         <v>40</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="69">
         <v>60</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="68" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="69">
         <v>40</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="69">
         <v>60</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="68" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="69">
         <v>60</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="69">
         <v>80</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="68"/>
     </row>
     <row r="10" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="86">
-        <v>50</v>
-      </c>
-      <c r="D10" s="86">
+      <c r="C10" s="69">
+        <v>50</v>
+      </c>
+      <c r="D10" s="69">
         <v>90</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="68" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="86">
-        <v>50</v>
-      </c>
-      <c r="D11" s="86">
+      <c r="C11" s="69">
+        <v>50</v>
+      </c>
+      <c r="D11" s="69">
         <v>70</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="68" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="69">
         <v>40</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="69">
         <v>90</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="67">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="86">
-        <v>50</v>
-      </c>
-      <c r="D13" s="86">
+      <c r="C13" s="69">
+        <v>50</v>
+      </c>
+      <c r="D13" s="69">
         <v>60</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="68" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="67">
         <v>9</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="69">
         <v>45</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="69">
         <v>75</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="68" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="69">
         <v>30</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="69">
         <v>60</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="67">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="69">
         <v>80</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="69">
         <v>70</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="68" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="67">
         <v>12</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="69">
         <v>85</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="69">
         <v>70</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="68" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="67">
         <v>13</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="69">
         <v>80</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="69">
         <v>60</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="68"/>
     </row>
     <row r="19" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="67">
         <v>14</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="69">
         <v>60</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="69">
         <v>60</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="68" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="67">
         <v>15</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="69">
         <v>70</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="69">
         <v>70</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="67">
         <v>16</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="69">
         <v>40</v>
       </c>
-      <c r="D21" s="86">
-        <v>50</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="G21" s="76"/>
+      <c r="D21" s="69">
+        <v>50</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="67">
         <v>17</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="69">
         <v>80</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="69">
         <v>60</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="67">
         <v>18</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="69">
         <v>90</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="69">
         <v>60</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="68" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="67">
         <v>19</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="69">
         <v>70</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="69">
         <v>80</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="68" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="53" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="67">
         <v>20</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="69">
         <v>80</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="69">
         <v>80</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="68" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="69">
         <v>70</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="69">
         <v>60</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="68" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="67">
         <v>22</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="69">
         <v>65</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="69">
         <v>80</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="68" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="86">
+      <c r="B28" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="69">
+        <v>70</v>
+      </c>
+      <c r="D28" s="69">
         <v>60</v>
       </c>
-      <c r="D28" s="86">
-        <v>50</v>
-      </c>
-      <c r="E28" s="85"/>
-    </row>
-    <row r="29" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
-        <v>24</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="86">
-        <v>70</v>
-      </c>
-      <c r="D29" s="86">
-        <v>60</v>
-      </c>
-      <c r="E29" s="85"/>
+      <c r="E28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9006,8 +8931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9032,64 +8957,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="75"/>
     </row>
     <row r="5" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="64" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66" t="s">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -10289,7 +10214,7 @@
       <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="76" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -10300,7 +10225,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="32" t="s">
         <v>94</v>
       </c>
@@ -10309,7 +10234,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="32" t="s">
         <v>96</v>
       </c>
@@ -10318,14 +10243,14 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="32" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="33"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="79" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -10336,7 +10261,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="34" t="s">
         <v>125</v>
       </c>
@@ -10345,7 +10270,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="34" t="s">
         <v>106</v>
       </c>
@@ -10354,7 +10279,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="32" t="s">
         <v>126</v>
       </c>
@@ -10363,7 +10288,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="34" t="s">
         <v>115</v>
       </c>
@@ -10373,7 +10298,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:L16">
-    <sortCondition sortBy="cellColor" ref="F3" dxfId="61"/>
+    <sortCondition sortBy="cellColor" ref="F3" dxfId="7"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A2:B2"/>
@@ -10409,8 +10334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10422,28 +10347,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="50" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:4" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:4" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
@@ -10465,7 +10390,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="39">
         <v>1</v>
@@ -10473,7 +10398,7 @@
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="39">
         <v>2</v>
@@ -10481,7 +10406,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="39">
         <v>3</v>
@@ -10489,7 +10414,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="39">
         <v>4</v>
@@ -10497,7 +10422,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39">
         <v>5</v>
@@ -10505,7 +10430,7 @@
       <c r="C10" s="40"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39">
         <v>6</v>
@@ -10513,7 +10438,7 @@
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39">
         <v>7</v>
@@ -10521,7 +10446,7 @@
       <c r="C12" s="40"/>
       <c r="D12" s="41"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39">
         <v>8</v>
@@ -10529,7 +10454,7 @@
       <c r="C13" s="40"/>
       <c r="D13" s="41"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39">
         <v>9</v>
@@ -10537,7 +10462,7 @@
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39">
         <v>10</v>
@@ -10545,7 +10470,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39">
         <v>11</v>
@@ -10553,7 +10478,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39">
         <v>12</v>
@@ -10561,7 +10486,7 @@
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39">
         <v>13</v>
@@ -10569,7 +10494,7 @@
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39">
         <v>14</v>
